--- a/data/atlas_project_metadata.xlsx
+++ b/data/atlas_project_metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbernabei/Documents/PhD_Research/atlas_project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbernabei/Documents/PhD_Research/atlas_project/iEEG_atlas/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382106B1-112A-F84B-B2ED-4FCEDFBA7028}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC50C0C-9B7B-4A48-A9EF-A17EAD4F63A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8860" yWindow="780" windowWidth="25260" windowHeight="17720" xr2:uid="{55386E59-C2B1-FE47-8A03-2662CFD6A014}"/>
+    <workbookView xWindow="8340" yWindow="1920" windowWidth="25260" windowHeight="17720" xr2:uid="{55386E59-C2B1-FE47-8A03-2662CFD6A014}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="190">
   <si>
     <t>Patient</t>
   </si>
@@ -258,15 +258,6 @@
     <t>Target</t>
   </si>
   <si>
-    <t>lesion status</t>
-  </si>
-  <si>
-    <t>age at onset</t>
-  </si>
-  <si>
-    <t>age at surgery</t>
-  </si>
-  <si>
     <t>HUP089</t>
   </si>
   <si>
@@ -546,7 +537,64 @@
     <t>Echobase</t>
   </si>
   <si>
-    <t>gender</t>
+    <t>SEEG</t>
+  </si>
+  <si>
+    <t>ECoG</t>
+  </si>
+  <si>
+    <t>Ablation</t>
+  </si>
+  <si>
+    <t>Resection</t>
+  </si>
+  <si>
+    <t>Implant</t>
+  </si>
+  <si>
+    <t>Hypothesis 1</t>
+  </si>
+  <si>
+    <t>Hypothesis 2</t>
+  </si>
+  <si>
+    <t>Lesion status</t>
+  </si>
+  <si>
+    <t>Age onset</t>
+  </si>
+  <si>
+    <t>Age surgery</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Study012</t>
+  </si>
+  <si>
+    <t>Study016</t>
+  </si>
+  <si>
+    <t>Study017</t>
+  </si>
+  <si>
+    <t>Study019</t>
+  </si>
+  <si>
+    <t>Study020</t>
+  </si>
+  <si>
+    <t>Study022</t>
+  </si>
+  <si>
+    <t>Study028</t>
+  </si>
+  <si>
+    <t>Study029</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
 </sst>
 </file>
@@ -898,32 +946,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEE15CE-15A7-E440-8B77-868E4F33ECBC}">
-  <dimension ref="A1:O78"/>
+  <dimension ref="A1:S86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" customWidth="1"/>
     <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -931,10 +980,10 @@
         <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -946,31 +995,40 @@
         <v>75</v>
       </c>
       <c r="H1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K1" t="s">
         <v>76</v>
       </c>
-      <c r="I1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K1" t="s">
-        <v>79</v>
-      </c>
       <c r="L1" t="s">
-        <v>173</v>
-      </c>
-      <c r="M1" t="s">
+        <v>177</v>
+      </c>
+      <c r="N1" t="s">
+        <v>178</v>
+      </c>
+      <c r="O1" t="s">
+        <v>179</v>
+      </c>
+      <c r="P1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>4</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -989,19 +1047,25 @@
       <c r="F2" t="s">
         <v>69</v>
       </c>
-      <c r="M2" t="s">
-        <v>68</v>
-      </c>
-      <c r="O2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H2" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>68</v>
+      </c>
+      <c r="S2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C3" t="s">
         <v>68</v>
@@ -1012,13 +1076,19 @@
       <c r="F3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C4" t="s">
         <v>68</v>
@@ -1029,13 +1099,19 @@
       <c r="F4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C5" t="s">
         <v>68</v>
@@ -1046,13 +1122,19 @@
       <c r="F5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>173</v>
+      </c>
+      <c r="H5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C6" t="s">
         <v>68</v>
@@ -1063,13 +1145,19 @@
       <c r="F6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C7" t="s">
         <v>68</v>
@@ -1080,13 +1168,19 @@
       <c r="F7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C8" t="s">
         <v>68</v>
@@ -1097,13 +1191,19 @@
       <c r="F8" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C9" t="s">
         <v>68</v>
@@ -1117,19 +1217,25 @@
       <c r="F9" t="s">
         <v>69</v>
       </c>
-      <c r="M9" t="s">
-        <v>68</v>
-      </c>
-      <c r="O9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>173</v>
+      </c>
+      <c r="H9" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>68</v>
+      </c>
+      <c r="S9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C10" t="s">
         <v>68</v>
@@ -1143,19 +1249,25 @@
       <c r="F10" t="s">
         <v>69</v>
       </c>
-      <c r="M10" t="s">
-        <v>68</v>
-      </c>
-      <c r="O10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>173</v>
+      </c>
+      <c r="H10" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C11" t="s">
         <v>68</v>
@@ -1166,13 +1278,19 @@
       <c r="F11" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>173</v>
+      </c>
+      <c r="H11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C12" t="s">
         <v>68</v>
@@ -1186,19 +1304,25 @@
       <c r="F12" t="s">
         <v>70</v>
       </c>
-      <c r="M12" t="s">
-        <v>68</v>
-      </c>
-      <c r="O12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>173</v>
+      </c>
+      <c r="H12" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>68</v>
+      </c>
+      <c r="S12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C13" t="s">
         <v>68</v>
@@ -1209,30 +1333,42 @@
       <c r="F13" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>173</v>
+      </c>
+      <c r="H13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C14" t="s">
         <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+      <c r="G14" t="s">
+        <v>168</v>
+      </c>
+      <c r="H14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C15" t="s">
         <v>68</v>
@@ -1246,19 +1382,25 @@
       <c r="F15" t="s">
         <v>70</v>
       </c>
-      <c r="M15" t="s">
-        <v>68</v>
-      </c>
-      <c r="O15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>173</v>
+      </c>
+      <c r="H15" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>68</v>
+      </c>
+      <c r="S15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C16" t="s">
         <v>68</v>
@@ -1269,16 +1411,22 @@
       <c r="F16" t="s">
         <v>70</v>
       </c>
-      <c r="M16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>173</v>
+      </c>
+      <c r="H16" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C17" t="s">
         <v>68</v>
@@ -1292,19 +1440,25 @@
       <c r="F17" t="s">
         <v>70</v>
       </c>
-      <c r="M17" t="s">
-        <v>68</v>
-      </c>
-      <c r="O17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>173</v>
+      </c>
+      <c r="H17" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>68</v>
+      </c>
+      <c r="S17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C18" t="s">
         <v>68</v>
@@ -1312,13 +1466,19 @@
       <c r="F18" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>173</v>
+      </c>
+      <c r="H18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C19" t="s">
         <v>68</v>
@@ -1326,13 +1486,19 @@
       <c r="F19" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>173</v>
+      </c>
+      <c r="H19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C20" t="s">
         <v>68</v>
@@ -1346,36 +1512,48 @@
       <c r="F20" t="s">
         <v>70</v>
       </c>
-      <c r="M20" t="s">
-        <v>68</v>
-      </c>
-      <c r="O20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>173</v>
+      </c>
+      <c r="H20" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>68</v>
+      </c>
+      <c r="S20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B21" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C21" t="s">
         <v>68</v>
       </c>
       <c r="E21" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F21" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+      <c r="G21" t="s">
+        <v>168</v>
+      </c>
+      <c r="H21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C22" t="s">
         <v>68</v>
@@ -1383,13 +1561,19 @@
       <c r="F22" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>173</v>
+      </c>
+      <c r="H22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C23" t="s">
         <v>68</v>
@@ -1397,30 +1581,42 @@
       <c r="F23" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>173</v>
+      </c>
+      <c r="H23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C24" t="s">
         <v>68</v>
       </c>
       <c r="E24" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F24" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+      <c r="G24" t="s">
+        <v>168</v>
+      </c>
+      <c r="H24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C25" t="s">
         <v>68</v>
@@ -1434,19 +1630,25 @@
       <c r="F25" t="s">
         <v>70</v>
       </c>
-      <c r="M25" t="s">
-        <v>68</v>
-      </c>
-      <c r="O25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>173</v>
+      </c>
+      <c r="H25" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>68</v>
+      </c>
+      <c r="S25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C26" t="s">
         <v>68</v>
@@ -1460,19 +1662,25 @@
       <c r="F26" t="s">
         <v>70</v>
       </c>
-      <c r="M26" t="s">
-        <v>68</v>
-      </c>
-      <c r="O26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>173</v>
+      </c>
+      <c r="H26" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>68</v>
+      </c>
+      <c r="S26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -1483,16 +1691,22 @@
       <c r="F27" t="s">
         <v>70</v>
       </c>
-      <c r="M27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>173</v>
+      </c>
+      <c r="H27" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -1506,19 +1720,25 @@
       <c r="F28" t="s">
         <v>70</v>
       </c>
-      <c r="M28" t="s">
-        <v>68</v>
-      </c>
-      <c r="O28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>173</v>
+      </c>
+      <c r="H28" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>68</v>
+      </c>
+      <c r="S28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -1532,19 +1752,25 @@
       <c r="F29" t="s">
         <v>69</v>
       </c>
-      <c r="M29" t="s">
-        <v>68</v>
-      </c>
-      <c r="O29" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>172</v>
+      </c>
+      <c r="H29" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>68</v>
+      </c>
+      <c r="S29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -1552,13 +1778,19 @@
       <c r="F30" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>173</v>
+      </c>
+      <c r="H30" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C31" t="s">
         <v>68</v>
@@ -1569,19 +1801,25 @@
       <c r="F31" t="s">
         <v>69</v>
       </c>
-      <c r="M31" t="s">
-        <v>68</v>
-      </c>
-      <c r="O31" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>172</v>
+      </c>
+      <c r="H31" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>68</v>
+      </c>
+      <c r="S31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C32" t="s">
         <v>68</v>
@@ -1595,19 +1833,25 @@
       <c r="F32" t="s">
         <v>70</v>
       </c>
-      <c r="M32" t="s">
-        <v>68</v>
-      </c>
-      <c r="O32" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>172</v>
+      </c>
+      <c r="H32" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>68</v>
+      </c>
+      <c r="S32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C33" t="s">
         <v>68</v>
@@ -1621,36 +1865,45 @@
       <c r="F33" t="s">
         <v>70</v>
       </c>
-      <c r="M33" t="s">
-        <v>68</v>
-      </c>
-      <c r="O33" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>173</v>
+      </c>
+      <c r="H33" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>68</v>
+      </c>
+      <c r="S33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C34" t="s">
         <v>68</v>
       </c>
       <c r="E34" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F34" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+      <c r="G34" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C35" t="s">
         <v>68</v>
@@ -1658,16 +1911,22 @@
       <c r="F35" t="s">
         <v>70</v>
       </c>
-      <c r="M35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
+        <v>173</v>
+      </c>
+      <c r="H35" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C36" t="s">
         <v>68</v>
@@ -1675,19 +1934,22 @@
       <c r="F36" t="s">
         <v>70</v>
       </c>
-      <c r="M36" t="s">
-        <v>68</v>
-      </c>
-      <c r="O36" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H36" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>68</v>
+      </c>
+      <c r="S36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C37" t="s">
         <v>68</v>
@@ -1701,19 +1963,25 @@
       <c r="F37" t="s">
         <v>71</v>
       </c>
-      <c r="M37" t="s">
-        <v>68</v>
-      </c>
-      <c r="O37" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G37" t="s">
+        <v>172</v>
+      </c>
+      <c r="H37" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>68</v>
+      </c>
+      <c r="S37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C38" t="s">
         <v>68</v>
@@ -1721,33 +1989,45 @@
       <c r="F38" t="s">
         <v>71</v>
       </c>
-      <c r="M38" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
+        <v>172</v>
+      </c>
+      <c r="H38" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C39" t="s">
         <v>68</v>
       </c>
       <c r="E39" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F39" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+      <c r="G39" t="s">
+        <v>168</v>
+      </c>
+      <c r="H39" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>33</v>
       </c>
       <c r="B40" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C40" t="s">
         <v>68</v>
@@ -1761,19 +2041,25 @@
       <c r="F40" t="s">
         <v>70</v>
       </c>
-      <c r="M40" t="s">
-        <v>68</v>
-      </c>
-      <c r="O40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G40" t="s">
+        <v>172</v>
+      </c>
+      <c r="H40" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>68</v>
+      </c>
+      <c r="S40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C41" t="s">
         <v>68</v>
@@ -1781,19 +2067,25 @@
       <c r="F41" t="s">
         <v>69</v>
       </c>
-      <c r="M41" t="s">
-        <v>68</v>
-      </c>
-      <c r="O41" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
+        <v>172</v>
+      </c>
+      <c r="H41" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>68</v>
+      </c>
+      <c r="S41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C42" t="s">
         <v>68</v>
@@ -1807,19 +2099,25 @@
       <c r="F42" t="s">
         <v>69</v>
       </c>
-      <c r="M42" t="s">
-        <v>68</v>
-      </c>
-      <c r="O42" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G42" t="s">
+        <v>172</v>
+      </c>
+      <c r="H42" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>68</v>
+      </c>
+      <c r="S42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C43" t="s">
         <v>68</v>
@@ -1827,19 +2125,25 @@
       <c r="F43" t="s">
         <v>71</v>
       </c>
-      <c r="M43" t="s">
-        <v>68</v>
-      </c>
-      <c r="O43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G43" t="s">
+        <v>173</v>
+      </c>
+      <c r="H43" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>68</v>
+      </c>
+      <c r="S43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C44" t="s">
         <v>68</v>
@@ -1850,36 +2154,48 @@
       <c r="F44" t="s">
         <v>69</v>
       </c>
-      <c r="M44" t="s">
-        <v>68</v>
-      </c>
-      <c r="O44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G44" t="s">
+        <v>172</v>
+      </c>
+      <c r="H44" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>68</v>
+      </c>
+      <c r="S44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C45" t="s">
         <v>68</v>
       </c>
       <c r="E45" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F45" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+      <c r="G45" t="s">
+        <v>168</v>
+      </c>
+      <c r="H45" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C46" t="s">
         <v>68</v>
@@ -1893,19 +2209,25 @@
       <c r="F46" t="s">
         <v>69</v>
       </c>
-      <c r="M46" t="s">
-        <v>68</v>
-      </c>
-      <c r="O46" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G46" t="s">
+        <v>172</v>
+      </c>
+      <c r="H46" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>68</v>
+      </c>
+      <c r="S46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>39</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C47" t="s">
         <v>68</v>
@@ -1919,19 +2241,25 @@
       <c r="F47" t="s">
         <v>70</v>
       </c>
-      <c r="M47" t="s">
-        <v>68</v>
-      </c>
-      <c r="O47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G47" t="s">
+        <v>172</v>
+      </c>
+      <c r="H47" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>68</v>
+      </c>
+      <c r="S47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>40</v>
       </c>
       <c r="B48" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C48" t="s">
         <v>68</v>
@@ -1945,19 +2273,25 @@
       <c r="F48" t="s">
         <v>70</v>
       </c>
-      <c r="M48" t="s">
-        <v>68</v>
-      </c>
-      <c r="O48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G48" t="s">
+        <v>172</v>
+      </c>
+      <c r="H48" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>68</v>
+      </c>
+      <c r="S48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>41</v>
       </c>
       <c r="B49" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C49" t="s">
         <v>68</v>
@@ -1971,19 +2305,25 @@
       <c r="F49" t="s">
         <v>69</v>
       </c>
-      <c r="M49" t="s">
-        <v>68</v>
-      </c>
-      <c r="O49" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G49" t="s">
+        <v>172</v>
+      </c>
+      <c r="H49" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>68</v>
+      </c>
+      <c r="S49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>42</v>
       </c>
       <c r="B50" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C50" t="s">
         <v>68</v>
@@ -1991,36 +2331,48 @@
       <c r="F50" t="s">
         <v>69</v>
       </c>
-      <c r="M50" t="s">
-        <v>68</v>
-      </c>
-      <c r="O50" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G50" t="s">
+        <v>172</v>
+      </c>
+      <c r="H50" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>68</v>
+      </c>
+      <c r="S50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B51" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C51" t="s">
         <v>68</v>
       </c>
       <c r="E51" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F51" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+      <c r="G51" t="s">
+        <v>168</v>
+      </c>
+      <c r="H51" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>43</v>
       </c>
       <c r="B52" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C52" t="s">
         <v>68</v>
@@ -2028,19 +2380,25 @@
       <c r="F52" t="s">
         <v>71</v>
       </c>
-      <c r="M52" t="s">
-        <v>68</v>
-      </c>
-      <c r="O52" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G52" t="s">
+        <v>173</v>
+      </c>
+      <c r="H52" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>68</v>
+      </c>
+      <c r="S52" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>45</v>
       </c>
       <c r="B53" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C53" t="s">
         <v>68</v>
@@ -2048,19 +2406,25 @@
       <c r="F53" t="s">
         <v>70</v>
       </c>
-      <c r="M53" t="s">
-        <v>68</v>
-      </c>
-      <c r="O53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G53" t="s">
+        <v>173</v>
+      </c>
+      <c r="H53" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>68</v>
+      </c>
+      <c r="S53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>44</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C54" t="s">
         <v>68</v>
@@ -2071,19 +2435,25 @@
       <c r="F54" t="s">
         <v>70</v>
       </c>
-      <c r="M54" t="s">
-        <v>68</v>
-      </c>
-      <c r="O54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G54" t="s">
+        <v>172</v>
+      </c>
+      <c r="H54" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>68</v>
+      </c>
+      <c r="S54" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>46</v>
       </c>
       <c r="B55" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C55" t="s">
         <v>68</v>
@@ -2097,19 +2467,25 @@
       <c r="F55" t="s">
         <v>70</v>
       </c>
-      <c r="M55" t="s">
-        <v>68</v>
-      </c>
-      <c r="O55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G55" t="s">
+        <v>172</v>
+      </c>
+      <c r="H55" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>68</v>
+      </c>
+      <c r="S55" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>47</v>
       </c>
       <c r="B56" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C56" t="s">
         <v>68</v>
@@ -2123,36 +2499,48 @@
       <c r="F56" t="s">
         <v>70</v>
       </c>
-      <c r="M56" t="s">
-        <v>68</v>
-      </c>
-      <c r="O56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G56" t="s">
+        <v>172</v>
+      </c>
+      <c r="H56" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>68</v>
+      </c>
+      <c r="S56" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B57" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C57" t="s">
         <v>68</v>
       </c>
       <c r="E57" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F57" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+      <c r="G57" t="s">
+        <v>168</v>
+      </c>
+      <c r="H57" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>48</v>
       </c>
       <c r="B58" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C58" t="s">
         <v>68</v>
@@ -2166,19 +2554,25 @@
       <c r="F58" t="s">
         <v>70</v>
       </c>
-      <c r="M58" t="s">
-        <v>68</v>
-      </c>
-      <c r="O58" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G58" t="s">
+        <v>172</v>
+      </c>
+      <c r="H58" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>68</v>
+      </c>
+      <c r="S58" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>49</v>
       </c>
       <c r="B59" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C59" t="s">
         <v>68</v>
@@ -2192,19 +2586,25 @@
       <c r="F59" t="s">
         <v>69</v>
       </c>
-      <c r="M59" t="s">
-        <v>68</v>
-      </c>
-      <c r="O59" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G59" t="s">
+        <v>172</v>
+      </c>
+      <c r="H59" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>68</v>
+      </c>
+      <c r="S59" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>50</v>
       </c>
       <c r="B60" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C60" t="s">
         <v>68</v>
@@ -2212,19 +2612,25 @@
       <c r="F60" t="s">
         <v>71</v>
       </c>
-      <c r="M60" t="s">
-        <v>68</v>
-      </c>
-      <c r="O60" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G60" t="s">
+        <v>173</v>
+      </c>
+      <c r="H60" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>68</v>
+      </c>
+      <c r="S60" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>51</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2232,19 +2638,25 @@
       <c r="F61" t="s">
         <v>69</v>
       </c>
-      <c r="M61" t="s">
-        <v>68</v>
-      </c>
-      <c r="O61" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G61" t="s">
+        <v>172</v>
+      </c>
+      <c r="H61" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>68</v>
+      </c>
+      <c r="S61" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>52</v>
       </c>
       <c r="B62" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C62" t="s">
         <v>68</v>
@@ -2258,19 +2670,25 @@
       <c r="F62" t="s">
         <v>70</v>
       </c>
-      <c r="M62" t="s">
-        <v>68</v>
-      </c>
-      <c r="O62" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G62" t="s">
+        <v>172</v>
+      </c>
+      <c r="H62" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>68</v>
+      </c>
+      <c r="S62" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>53</v>
       </c>
       <c r="B63" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C63" t="s">
         <v>68</v>
@@ -2284,19 +2702,25 @@
       <c r="F63" t="s">
         <v>70</v>
       </c>
-      <c r="M63" t="s">
-        <v>68</v>
-      </c>
-      <c r="O63" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G63" t="s">
+        <v>172</v>
+      </c>
+      <c r="H63" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>68</v>
+      </c>
+      <c r="S63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>54</v>
       </c>
       <c r="B64" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C64" t="s">
         <v>68</v>
@@ -2310,19 +2734,25 @@
       <c r="F64" t="s">
         <v>70</v>
       </c>
-      <c r="M64" t="s">
-        <v>68</v>
-      </c>
-      <c r="O64" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G64" t="s">
+        <v>172</v>
+      </c>
+      <c r="H64" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>68</v>
+      </c>
+      <c r="S64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>55</v>
       </c>
       <c r="B65" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C65" t="s">
         <v>68</v>
@@ -2330,19 +2760,25 @@
       <c r="F65" t="s">
         <v>70</v>
       </c>
-      <c r="M65" t="s">
-        <v>68</v>
-      </c>
-      <c r="O65" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G65" t="s">
+        <v>173</v>
+      </c>
+      <c r="H65" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>68</v>
+      </c>
+      <c r="S65" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>56</v>
       </c>
       <c r="B66" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C66" t="s">
         <v>68</v>
@@ -2356,13 +2792,19 @@
       <c r="F66" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G66" t="s">
+        <v>172</v>
+      </c>
+      <c r="H66" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>57</v>
       </c>
       <c r="B67" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C67" t="s">
         <v>68</v>
@@ -2376,13 +2818,19 @@
       <c r="F67" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G67" t="s">
+        <v>172</v>
+      </c>
+      <c r="H67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>58</v>
       </c>
       <c r="B68" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C68" t="s">
         <v>68</v>
@@ -2396,13 +2844,19 @@
       <c r="F68" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G68" t="s">
+        <v>172</v>
+      </c>
+      <c r="H68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>59</v>
       </c>
       <c r="B69" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C69" t="s">
         <v>68</v>
@@ -2416,13 +2870,19 @@
       <c r="F69" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G69" t="s">
+        <v>173</v>
+      </c>
+      <c r="H69" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>60</v>
       </c>
       <c r="B70" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C70" t="s">
         <v>68</v>
@@ -2436,13 +2896,19 @@
       <c r="F70" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G70" t="s">
+        <v>173</v>
+      </c>
+      <c r="H70" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>61</v>
       </c>
       <c r="B71" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C71" t="s">
         <v>68</v>
@@ -2456,13 +2922,19 @@
       <c r="F71" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G71" t="s">
+        <v>173</v>
+      </c>
+      <c r="H71" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>62</v>
       </c>
       <c r="B72" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C72" t="s">
         <v>68</v>
@@ -2476,13 +2948,19 @@
       <c r="F72" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G72" t="s">
+        <v>172</v>
+      </c>
+      <c r="H72" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>63</v>
       </c>
       <c r="B73" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C73" t="s">
         <v>68</v>
@@ -2496,30 +2974,42 @@
       <c r="F73" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G73" t="s">
+        <v>172</v>
+      </c>
+      <c r="H73" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B74" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C74" t="s">
         <v>68</v>
       </c>
       <c r="E74" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F74" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+      <c r="G74" t="s">
+        <v>168</v>
+      </c>
+      <c r="H74" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>64</v>
       </c>
       <c r="B75" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C75" t="s">
         <v>68</v>
@@ -2533,13 +3023,19 @@
       <c r="F75" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G75" t="s">
+        <v>172</v>
+      </c>
+      <c r="H75" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>65</v>
       </c>
       <c r="B76" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C76" t="s">
         <v>68</v>
@@ -2547,13 +3043,19 @@
       <c r="F76" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G76" t="s">
+        <v>172</v>
+      </c>
+      <c r="H76" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>66</v>
       </c>
       <c r="B77" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C77" t="s">
         <v>68</v>
@@ -2567,19 +3069,215 @@
       <c r="F77" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G77" t="s">
+        <v>173</v>
+      </c>
+      <c r="H77" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>67</v>
       </c>
       <c r="B78" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C78" t="s">
         <v>68</v>
       </c>
       <c r="E78" t="s">
         <v>68</v>
+      </c>
+      <c r="G78" t="s">
+        <v>173</v>
+      </c>
+      <c r="H78" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>181</v>
+      </c>
+      <c r="B79" t="s">
+        <v>189</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="E79" t="s">
+        <v>68</v>
+      </c>
+      <c r="F79" t="s">
+        <v>71</v>
+      </c>
+      <c r="G79" t="s">
+        <v>173</v>
+      </c>
+      <c r="H79" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>182</v>
+      </c>
+      <c r="B80" t="s">
+        <v>189</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="E80" t="s">
+        <v>68</v>
+      </c>
+      <c r="F80" t="s">
+        <v>69</v>
+      </c>
+      <c r="G80" t="s">
+        <v>173</v>
+      </c>
+      <c r="H80" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>183</v>
+      </c>
+      <c r="B81" t="s">
+        <v>189</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="E81" t="s">
+        <v>68</v>
+      </c>
+      <c r="F81" t="s">
+        <v>69</v>
+      </c>
+      <c r="G81" t="s">
+        <v>173</v>
+      </c>
+      <c r="H81" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>184</v>
+      </c>
+      <c r="B82" t="s">
+        <v>189</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="E82" t="s">
+        <v>68</v>
+      </c>
+      <c r="F82" t="s">
+        <v>69</v>
+      </c>
+      <c r="G82" t="s">
+        <v>173</v>
+      </c>
+      <c r="H82" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>185</v>
+      </c>
+      <c r="B83" t="s">
+        <v>189</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="E83" t="s">
+        <v>68</v>
+      </c>
+      <c r="F83" t="s">
+        <v>69</v>
+      </c>
+      <c r="G83" t="s">
+        <v>173</v>
+      </c>
+      <c r="H83" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>186</v>
+      </c>
+      <c r="B84" t="s">
+        <v>189</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="E84" t="s">
+        <v>68</v>
+      </c>
+      <c r="F84" t="s">
+        <v>69</v>
+      </c>
+      <c r="G84" t="s">
+        <v>173</v>
+      </c>
+      <c r="H84" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>187</v>
+      </c>
+      <c r="B85" t="s">
+        <v>189</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="E85" t="s">
+        <v>68</v>
+      </c>
+      <c r="F85" t="s">
+        <v>69</v>
+      </c>
+      <c r="G85" t="s">
+        <v>173</v>
+      </c>
+      <c r="H85" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>188</v>
+      </c>
+      <c r="B86" t="s">
+        <v>189</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="E86" t="s">
+        <v>68</v>
+      </c>
+      <c r="F86" t="s">
+        <v>69</v>
+      </c>
+      <c r="G86" t="s">
+        <v>173</v>
+      </c>
+      <c r="H86" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/data/atlas_project_metadata.xlsx
+++ b/data/atlas_project_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbernabei/Documents/PhD_Research/atlas_project/iEEG_atlas/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC50C0C-9B7B-4A48-A9EF-A17EAD4F63A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA3E070-6CFE-1A40-A50F-1CB752729B57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8340" yWindow="1920" windowWidth="25260" windowHeight="17720" xr2:uid="{55386E59-C2B1-FE47-8A03-2662CFD6A014}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="201">
   <si>
     <t>Patient</t>
   </si>
@@ -595,6 +595,39 @@
   </si>
   <si>
     <t>n/a</t>
+  </si>
+  <si>
+    <t>Laterality</t>
+  </si>
+  <si>
+    <t>Frontal</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Temporal</t>
+  </si>
+  <si>
+    <t>Lesional</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Non-Lesional</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Parietal</t>
+  </si>
+  <si>
+    <t>Bilateral</t>
   </si>
 </sst>
 </file>
@@ -948,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEE15CE-15A7-E440-8B77-868E4F33ECBC}">
   <dimension ref="A1:S86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -963,11 +996,12 @@
     <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1007,6 +1041,9 @@
         <v>76</v>
       </c>
       <c r="L1" t="s">
+        <v>190</v>
+      </c>
+      <c r="M1" t="s">
         <v>177</v>
       </c>
       <c r="N1" t="s">
@@ -1053,6 +1090,21 @@
       <c r="H2" t="s">
         <v>170</v>
       </c>
+      <c r="K2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L2" t="s">
+        <v>192</v>
+      </c>
+      <c r="N2">
+        <v>12</v>
+      </c>
+      <c r="O2">
+        <v>42</v>
+      </c>
+      <c r="P2" t="s">
+        <v>198</v>
+      </c>
       <c r="Q2" t="s">
         <v>68</v>
       </c>
@@ -1070,6 +1122,9 @@
       <c r="C3" t="s">
         <v>68</v>
       </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
       <c r="E3" t="s">
         <v>68</v>
       </c>
@@ -1081,6 +1136,24 @@
       </c>
       <c r="H3" t="s">
         <v>171</v>
+      </c>
+      <c r="K3" t="s">
+        <v>191</v>
+      </c>
+      <c r="L3" t="s">
+        <v>193</v>
+      </c>
+      <c r="M3" t="s">
+        <v>195</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>21</v>
+      </c>
+      <c r="P3" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -1093,6 +1166,9 @@
       <c r="C4" t="s">
         <v>68</v>
       </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
       <c r="E4" t="s">
         <v>68</v>
       </c>
@@ -1104,6 +1180,24 @@
       </c>
       <c r="H4" t="s">
         <v>171</v>
+      </c>
+      <c r="K4" t="s">
+        <v>194</v>
+      </c>
+      <c r="L4" t="s">
+        <v>192</v>
+      </c>
+      <c r="M4" t="s">
+        <v>195</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>36</v>
+      </c>
+      <c r="P4" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -1116,6 +1210,9 @@
       <c r="C5" t="s">
         <v>68</v>
       </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
       <c r="E5" t="s">
         <v>68</v>
       </c>
@@ -1127,6 +1224,24 @@
       </c>
       <c r="H5" t="s">
         <v>171</v>
+      </c>
+      <c r="K5" t="s">
+        <v>194</v>
+      </c>
+      <c r="L5" t="s">
+        <v>192</v>
+      </c>
+      <c r="M5" t="s">
+        <v>197</v>
+      </c>
+      <c r="N5">
+        <v>13</v>
+      </c>
+      <c r="O5">
+        <v>28</v>
+      </c>
+      <c r="P5" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
@@ -1139,6 +1254,9 @@
       <c r="C6" t="s">
         <v>68</v>
       </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
       <c r="E6" t="s">
         <v>68</v>
       </c>
@@ -1150,6 +1268,21 @@
       </c>
       <c r="H6" t="s">
         <v>171</v>
+      </c>
+      <c r="L6" t="s">
+        <v>193</v>
+      </c>
+      <c r="M6" t="s">
+        <v>197</v>
+      </c>
+      <c r="N6">
+        <v>12</v>
+      </c>
+      <c r="O6">
+        <v>33</v>
+      </c>
+      <c r="P6" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
@@ -1162,6 +1295,9 @@
       <c r="C7" t="s">
         <v>68</v>
       </c>
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
       <c r="E7" t="s">
         <v>68</v>
       </c>
@@ -1173,6 +1309,24 @@
       </c>
       <c r="H7" t="s">
         <v>171</v>
+      </c>
+      <c r="K7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L7" t="s">
+        <v>192</v>
+      </c>
+      <c r="M7" t="s">
+        <v>197</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>40</v>
+      </c>
+      <c r="P7" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
@@ -1185,6 +1339,9 @@
       <c r="C8" t="s">
         <v>68</v>
       </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
       <c r="E8" t="s">
         <v>68</v>
       </c>
@@ -1196,6 +1353,24 @@
       </c>
       <c r="H8" t="s">
         <v>171</v>
+      </c>
+      <c r="K8" t="s">
+        <v>194</v>
+      </c>
+      <c r="L8" t="s">
+        <v>193</v>
+      </c>
+      <c r="M8" t="s">
+        <v>195</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>25</v>
+      </c>
+      <c r="P8" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -1223,6 +1398,24 @@
       <c r="H9" t="s">
         <v>171</v>
       </c>
+      <c r="K9" t="s">
+        <v>194</v>
+      </c>
+      <c r="L9" t="s">
+        <v>193</v>
+      </c>
+      <c r="M9" t="s">
+        <v>197</v>
+      </c>
+      <c r="N9">
+        <v>52</v>
+      </c>
+      <c r="O9">
+        <v>57</v>
+      </c>
+      <c r="P9" t="s">
+        <v>198</v>
+      </c>
       <c r="Q9" t="s">
         <v>68</v>
       </c>
@@ -1255,6 +1448,24 @@
       <c r="H10" t="s">
         <v>171</v>
       </c>
+      <c r="K10" t="s">
+        <v>194</v>
+      </c>
+      <c r="L10" t="s">
+        <v>193</v>
+      </c>
+      <c r="M10" t="s">
+        <v>195</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>54</v>
+      </c>
+      <c r="P10" t="s">
+        <v>196</v>
+      </c>
       <c r="Q10" t="s">
         <v>68</v>
       </c>
@@ -1272,6 +1483,9 @@
       <c r="C11" t="s">
         <v>68</v>
       </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
       <c r="E11" t="s">
         <v>68</v>
       </c>
@@ -1283,6 +1497,18 @@
       </c>
       <c r="H11" t="s">
         <v>171</v>
+      </c>
+      <c r="K11" t="s">
+        <v>194</v>
+      </c>
+      <c r="L11" t="s">
+        <v>193</v>
+      </c>
+      <c r="M11" t="s">
+        <v>197</v>
+      </c>
+      <c r="P11" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
@@ -1295,9 +1521,6 @@
       <c r="C12" t="s">
         <v>68</v>
       </c>
-      <c r="D12" t="s">
-        <v>68</v>
-      </c>
       <c r="E12" t="s">
         <v>68</v>
       </c>
@@ -1309,6 +1532,24 @@
       </c>
       <c r="H12" t="s">
         <v>171</v>
+      </c>
+      <c r="K12" t="s">
+        <v>194</v>
+      </c>
+      <c r="L12" t="s">
+        <v>192</v>
+      </c>
+      <c r="M12" t="s">
+        <v>195</v>
+      </c>
+      <c r="N12">
+        <v>34</v>
+      </c>
+      <c r="O12">
+        <v>56</v>
+      </c>
+      <c r="P12" t="s">
+        <v>198</v>
       </c>
       <c r="Q12" t="s">
         <v>68</v>
@@ -1327,6 +1568,9 @@
       <c r="C13" t="s">
         <v>68</v>
       </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
       <c r="E13" t="s">
         <v>68</v>
       </c>
@@ -1338,6 +1582,24 @@
       </c>
       <c r="H13" t="s">
         <v>171</v>
+      </c>
+      <c r="K13" t="s">
+        <v>199</v>
+      </c>
+      <c r="L13" t="s">
+        <v>193</v>
+      </c>
+      <c r="M13" t="s">
+        <v>195</v>
+      </c>
+      <c r="N13">
+        <v>8</v>
+      </c>
+      <c r="O13">
+        <v>29</v>
+      </c>
+      <c r="P13" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
@@ -1362,6 +1624,9 @@
       <c r="H14" t="s">
         <v>171</v>
       </c>
+      <c r="L14" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1388,6 +1653,18 @@
       <c r="H15" t="s">
         <v>171</v>
       </c>
+      <c r="K15" t="s">
+        <v>194</v>
+      </c>
+      <c r="L15" t="s">
+        <v>193</v>
+      </c>
+      <c r="M15" t="s">
+        <v>197</v>
+      </c>
+      <c r="P15" t="s">
+        <v>198</v>
+      </c>
       <c r="Q15" t="s">
         <v>68</v>
       </c>
@@ -1405,6 +1682,9 @@
       <c r="C16" t="s">
         <v>68</v>
       </c>
+      <c r="D16" t="s">
+        <v>68</v>
+      </c>
       <c r="E16" t="s">
         <v>68</v>
       </c>
@@ -1518,6 +1798,24 @@
       <c r="H20" t="s">
         <v>171</v>
       </c>
+      <c r="K20" t="s">
+        <v>194</v>
+      </c>
+      <c r="L20" t="s">
+        <v>192</v>
+      </c>
+      <c r="M20" t="s">
+        <v>197</v>
+      </c>
+      <c r="N20">
+        <v>20</v>
+      </c>
+      <c r="O20">
+        <v>48</v>
+      </c>
+      <c r="P20" t="s">
+        <v>198</v>
+      </c>
       <c r="Q20" t="s">
         <v>68</v>
       </c>
@@ -1547,6 +1845,9 @@
       <c r="H21" t="s">
         <v>171</v>
       </c>
+      <c r="L21" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -1610,6 +1911,9 @@
       <c r="H24" t="s">
         <v>171</v>
       </c>
+      <c r="L24" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -1636,6 +1940,24 @@
       <c r="H25" t="s">
         <v>171</v>
       </c>
+      <c r="K25" t="s">
+        <v>194</v>
+      </c>
+      <c r="L25" t="s">
+        <v>192</v>
+      </c>
+      <c r="M25" t="s">
+        <v>195</v>
+      </c>
+      <c r="N25">
+        <v>27</v>
+      </c>
+      <c r="O25">
+        <v>39</v>
+      </c>
+      <c r="P25" t="s">
+        <v>196</v>
+      </c>
       <c r="Q25" t="s">
         <v>68</v>
       </c>
@@ -1668,6 +1990,24 @@
       <c r="H26" t="s">
         <v>171</v>
       </c>
+      <c r="K26" t="s">
+        <v>194</v>
+      </c>
+      <c r="L26" t="s">
+        <v>193</v>
+      </c>
+      <c r="M26" t="s">
+        <v>197</v>
+      </c>
+      <c r="N26">
+        <v>24</v>
+      </c>
+      <c r="O26">
+        <v>45</v>
+      </c>
+      <c r="P26" t="s">
+        <v>198</v>
+      </c>
       <c r="Q26" t="s">
         <v>68</v>
       </c>
@@ -1685,6 +2025,9 @@
       <c r="C27" t="s">
         <v>68</v>
       </c>
+      <c r="D27" t="s">
+        <v>68</v>
+      </c>
       <c r="E27" t="s">
         <v>68</v>
       </c>
@@ -1696,6 +2039,24 @@
       </c>
       <c r="H27" t="s">
         <v>171</v>
+      </c>
+      <c r="K27" t="s">
+        <v>194</v>
+      </c>
+      <c r="L27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M27" t="s">
+        <v>197</v>
+      </c>
+      <c r="N27">
+        <v>5</v>
+      </c>
+      <c r="O27">
+        <v>36</v>
+      </c>
+      <c r="P27" t="s">
+        <v>196</v>
       </c>
       <c r="Q27" t="s">
         <v>68</v>
@@ -1726,6 +2087,24 @@
       <c r="H28" t="s">
         <v>171</v>
       </c>
+      <c r="K28" t="s">
+        <v>194</v>
+      </c>
+      <c r="L28" t="s">
+        <v>192</v>
+      </c>
+      <c r="M28" t="s">
+        <v>197</v>
+      </c>
+      <c r="N28">
+        <v>28</v>
+      </c>
+      <c r="O28">
+        <v>40</v>
+      </c>
+      <c r="P28" t="s">
+        <v>198</v>
+      </c>
       <c r="Q28" t="s">
         <v>68</v>
       </c>
@@ -1758,6 +2137,24 @@
       <c r="H29" t="s">
         <v>170</v>
       </c>
+      <c r="K29" t="s">
+        <v>191</v>
+      </c>
+      <c r="L29" t="s">
+        <v>192</v>
+      </c>
+      <c r="M29" t="s">
+        <v>195</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>21</v>
+      </c>
+      <c r="P29" t="s">
+        <v>198</v>
+      </c>
       <c r="Q29" t="s">
         <v>68</v>
       </c>
@@ -1839,6 +2236,24 @@
       <c r="H32" t="s">
         <v>170</v>
       </c>
+      <c r="K32" t="s">
+        <v>194</v>
+      </c>
+      <c r="L32" t="s">
+        <v>192</v>
+      </c>
+      <c r="M32" t="s">
+        <v>195</v>
+      </c>
+      <c r="N32">
+        <v>42</v>
+      </c>
+      <c r="O32">
+        <v>59</v>
+      </c>
+      <c r="P32" t="s">
+        <v>198</v>
+      </c>
       <c r="Q32" t="s">
         <v>68</v>
       </c>
@@ -1871,6 +2286,24 @@
       <c r="H33" t="s">
         <v>170</v>
       </c>
+      <c r="K33" t="s">
+        <v>194</v>
+      </c>
+      <c r="L33" t="s">
+        <v>193</v>
+      </c>
+      <c r="M33" t="s">
+        <v>195</v>
+      </c>
+      <c r="N33">
+        <v>12</v>
+      </c>
+      <c r="O33">
+        <v>39</v>
+      </c>
+      <c r="P33" t="s">
+        <v>196</v>
+      </c>
       <c r="Q33" t="s">
         <v>68</v>
       </c>
@@ -1897,6 +2330,9 @@
       <c r="G34" t="s">
         <v>168</v>
       </c>
+      <c r="L34" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -2021,6 +2457,9 @@
       <c r="H39" t="s">
         <v>170</v>
       </c>
+      <c r="L39" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -2047,6 +2486,21 @@
       <c r="H40" t="s">
         <v>170</v>
       </c>
+      <c r="L40" t="s">
+        <v>193</v>
+      </c>
+      <c r="M40" t="s">
+        <v>197</v>
+      </c>
+      <c r="N40">
+        <v>20</v>
+      </c>
+      <c r="O40">
+        <v>46</v>
+      </c>
+      <c r="P40" t="s">
+        <v>198</v>
+      </c>
       <c r="Q40" t="s">
         <v>68</v>
       </c>
@@ -2105,6 +2559,24 @@
       <c r="H42" t="s">
         <v>170</v>
       </c>
+      <c r="K42" t="s">
+        <v>194</v>
+      </c>
+      <c r="L42" t="s">
+        <v>193</v>
+      </c>
+      <c r="M42" t="s">
+        <v>197</v>
+      </c>
+      <c r="N42">
+        <v>47</v>
+      </c>
+      <c r="O42">
+        <v>52</v>
+      </c>
+      <c r="P42" t="s">
+        <v>198</v>
+      </c>
       <c r="Q42" t="s">
         <v>68</v>
       </c>
@@ -2160,6 +2632,24 @@
       <c r="H44" t="s">
         <v>170</v>
       </c>
+      <c r="K44" t="s">
+        <v>194</v>
+      </c>
+      <c r="L44" t="s">
+        <v>192</v>
+      </c>
+      <c r="M44" t="s">
+        <v>197</v>
+      </c>
+      <c r="N44">
+        <v>34</v>
+      </c>
+      <c r="O44">
+        <v>37</v>
+      </c>
+      <c r="P44" t="s">
+        <v>196</v>
+      </c>
       <c r="Q44" t="s">
         <v>68</v>
       </c>
@@ -2189,6 +2679,9 @@
       <c r="H45" t="s">
         <v>170</v>
       </c>
+      <c r="L45" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -2215,6 +2708,24 @@
       <c r="H46" t="s">
         <v>170</v>
       </c>
+      <c r="K46" t="s">
+        <v>194</v>
+      </c>
+      <c r="L46" t="s">
+        <v>193</v>
+      </c>
+      <c r="M46" t="s">
+        <v>195</v>
+      </c>
+      <c r="N46">
+        <v>29</v>
+      </c>
+      <c r="O46">
+        <v>38</v>
+      </c>
+      <c r="P46" t="s">
+        <v>196</v>
+      </c>
       <c r="Q46" t="s">
         <v>68</v>
       </c>
@@ -2247,6 +2758,24 @@
       <c r="H47" t="s">
         <v>170</v>
       </c>
+      <c r="K47" t="s">
+        <v>199</v>
+      </c>
+      <c r="L47" t="s">
+        <v>193</v>
+      </c>
+      <c r="M47" t="s">
+        <v>195</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>20</v>
+      </c>
+      <c r="P47" t="s">
+        <v>196</v>
+      </c>
       <c r="Q47" t="s">
         <v>68</v>
       </c>
@@ -2279,6 +2808,24 @@
       <c r="H48" t="s">
         <v>170</v>
       </c>
+      <c r="K48" t="s">
+        <v>194</v>
+      </c>
+      <c r="L48" t="s">
+        <v>193</v>
+      </c>
+      <c r="M48" t="s">
+        <v>197</v>
+      </c>
+      <c r="N48">
+        <v>26</v>
+      </c>
+      <c r="O48">
+        <v>47</v>
+      </c>
+      <c r="P48" t="s">
+        <v>198</v>
+      </c>
       <c r="Q48" t="s">
         <v>68</v>
       </c>
@@ -2311,6 +2858,24 @@
       <c r="H49" t="s">
         <v>170</v>
       </c>
+      <c r="K49" t="s">
+        <v>194</v>
+      </c>
+      <c r="L49" t="s">
+        <v>192</v>
+      </c>
+      <c r="M49" t="s">
+        <v>197</v>
+      </c>
+      <c r="N49">
+        <v>14</v>
+      </c>
+      <c r="O49">
+        <v>30</v>
+      </c>
+      <c r="P49" t="s">
+        <v>196</v>
+      </c>
       <c r="Q49" t="s">
         <v>68</v>
       </c>
@@ -2366,6 +2931,9 @@
       <c r="H51" t="s">
         <v>170</v>
       </c>
+      <c r="L51" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
@@ -2519,9 +3087,6 @@
       <c r="B57" t="s">
         <v>122</v>
       </c>
-      <c r="C57" t="s">
-        <v>68</v>
-      </c>
       <c r="E57" t="s">
         <v>168</v>
       </c>
@@ -2533,6 +3098,9 @@
       </c>
       <c r="H57" t="s">
         <v>170</v>
+      </c>
+      <c r="L57" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
@@ -2676,6 +3244,24 @@
       <c r="H62" t="s">
         <v>170</v>
       </c>
+      <c r="K62" t="s">
+        <v>194</v>
+      </c>
+      <c r="L62" t="s">
+        <v>193</v>
+      </c>
+      <c r="M62" t="s">
+        <v>197</v>
+      </c>
+      <c r="N62">
+        <v>32</v>
+      </c>
+      <c r="O62">
+        <v>42</v>
+      </c>
+      <c r="P62" t="s">
+        <v>198</v>
+      </c>
       <c r="Q62" t="s">
         <v>68</v>
       </c>
@@ -2708,6 +3294,24 @@
       <c r="H63" t="s">
         <v>170</v>
       </c>
+      <c r="K63" t="s">
+        <v>194</v>
+      </c>
+      <c r="L63" t="s">
+        <v>193</v>
+      </c>
+      <c r="M63" t="s">
+        <v>195</v>
+      </c>
+      <c r="N63">
+        <v>14</v>
+      </c>
+      <c r="O63">
+        <v>34</v>
+      </c>
+      <c r="P63" t="s">
+        <v>198</v>
+      </c>
       <c r="Q63" t="s">
         <v>68</v>
       </c>
@@ -2824,6 +3428,24 @@
       <c r="H67" t="s">
         <v>170</v>
       </c>
+      <c r="K67" t="s">
+        <v>191</v>
+      </c>
+      <c r="L67" t="s">
+        <v>193</v>
+      </c>
+      <c r="M67" t="s">
+        <v>197</v>
+      </c>
+      <c r="N67">
+        <v>6</v>
+      </c>
+      <c r="O67">
+        <v>50</v>
+      </c>
+      <c r="P67" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
@@ -2850,6 +3472,24 @@
       <c r="H68" t="s">
         <v>170</v>
       </c>
+      <c r="K68" t="s">
+        <v>191</v>
+      </c>
+      <c r="L68" t="s">
+        <v>193</v>
+      </c>
+      <c r="M68" t="s">
+        <v>197</v>
+      </c>
+      <c r="N68">
+        <v>2</v>
+      </c>
+      <c r="O68">
+        <v>28</v>
+      </c>
+      <c r="P68" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
@@ -2876,6 +3516,24 @@
       <c r="H69" t="s">
         <v>170</v>
       </c>
+      <c r="K69" t="s">
+        <v>194</v>
+      </c>
+      <c r="L69" t="s">
+        <v>192</v>
+      </c>
+      <c r="M69" t="s">
+        <v>195</v>
+      </c>
+      <c r="N69">
+        <v>12</v>
+      </c>
+      <c r="O69">
+        <v>24</v>
+      </c>
+      <c r="P69" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
@@ -2902,6 +3560,24 @@
       <c r="H70" t="s">
         <v>170</v>
       </c>
+      <c r="K70" t="s">
+        <v>194</v>
+      </c>
+      <c r="L70" t="s">
+        <v>192</v>
+      </c>
+      <c r="M70" t="s">
+        <v>197</v>
+      </c>
+      <c r="N70">
+        <v>5</v>
+      </c>
+      <c r="O70">
+        <v>42</v>
+      </c>
+      <c r="P70" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
@@ -2928,6 +3604,24 @@
       <c r="H71" t="s">
         <v>170</v>
       </c>
+      <c r="K71" t="s">
+        <v>191</v>
+      </c>
+      <c r="L71" t="s">
+        <v>193</v>
+      </c>
+      <c r="M71" t="s">
+        <v>195</v>
+      </c>
+      <c r="N71">
+        <v>13</v>
+      </c>
+      <c r="O71">
+        <v>20</v>
+      </c>
+      <c r="P71" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
@@ -2954,6 +3648,24 @@
       <c r="H72" t="s">
         <v>170</v>
       </c>
+      <c r="K72" t="s">
+        <v>191</v>
+      </c>
+      <c r="L72" t="s">
+        <v>193</v>
+      </c>
+      <c r="M72" t="s">
+        <v>195</v>
+      </c>
+      <c r="N72">
+        <v>2</v>
+      </c>
+      <c r="O72">
+        <v>28</v>
+      </c>
+      <c r="P72" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
@@ -3003,6 +3715,9 @@
       <c r="H74" t="s">
         <v>170</v>
       </c>
+      <c r="L74" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
@@ -3029,6 +3744,24 @@
       <c r="H75" t="s">
         <v>170</v>
       </c>
+      <c r="K75" t="s">
+        <v>194</v>
+      </c>
+      <c r="L75" t="s">
+        <v>193</v>
+      </c>
+      <c r="M75" t="s">
+        <v>195</v>
+      </c>
+      <c r="N75">
+        <v>9</v>
+      </c>
+      <c r="O75">
+        <v>38</v>
+      </c>
+      <c r="P75" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
@@ -3075,6 +3808,24 @@
       <c r="H77" t="s">
         <v>170</v>
       </c>
+      <c r="K77" t="s">
+        <v>191</v>
+      </c>
+      <c r="L77" t="s">
+        <v>193</v>
+      </c>
+      <c r="M77" t="s">
+        <v>195</v>
+      </c>
+      <c r="N77">
+        <v>9</v>
+      </c>
+      <c r="O77">
+        <v>24</v>
+      </c>
+      <c r="P77" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
@@ -3095,6 +3846,24 @@
       <c r="H78" t="s">
         <v>170</v>
       </c>
+      <c r="K78" t="s">
+        <v>194</v>
+      </c>
+      <c r="L78" t="s">
+        <v>193</v>
+      </c>
+      <c r="M78" t="s">
+        <v>197</v>
+      </c>
+      <c r="N78">
+        <v>12</v>
+      </c>
+      <c r="O78">
+        <v>25</v>
+      </c>
+      <c r="P78" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
@@ -3106,6 +3875,9 @@
       <c r="C79" t="s">
         <v>68</v>
       </c>
+      <c r="D79" t="s">
+        <v>68</v>
+      </c>
       <c r="E79" t="s">
         <v>68</v>
       </c>
@@ -3117,6 +3889,21 @@
       </c>
       <c r="H79" t="s">
         <v>171</v>
+      </c>
+      <c r="K79" t="s">
+        <v>191</v>
+      </c>
+      <c r="L79" t="s">
+        <v>192</v>
+      </c>
+      <c r="N79">
+        <v>23</v>
+      </c>
+      <c r="O79">
+        <v>37</v>
+      </c>
+      <c r="P79" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.2">
@@ -3129,6 +3916,9 @@
       <c r="C80" t="s">
         <v>68</v>
       </c>
+      <c r="D80" t="s">
+        <v>68</v>
+      </c>
       <c r="E80" t="s">
         <v>68</v>
       </c>
@@ -3141,8 +3931,23 @@
       <c r="H80" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K80" t="s">
+        <v>194</v>
+      </c>
+      <c r="L80" t="s">
+        <v>192</v>
+      </c>
+      <c r="N80">
+        <v>5</v>
+      </c>
+      <c r="O80">
+        <v>36</v>
+      </c>
+      <c r="P80" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>183</v>
       </c>
@@ -3152,6 +3957,9 @@
       <c r="C81" t="s">
         <v>68</v>
       </c>
+      <c r="D81" t="s">
+        <v>68</v>
+      </c>
       <c r="E81" t="s">
         <v>68</v>
       </c>
@@ -3164,8 +3972,20 @@
       <c r="H81" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K81" t="s">
+        <v>194</v>
+      </c>
+      <c r="L81" t="s">
+        <v>192</v>
+      </c>
+      <c r="M81" t="s">
+        <v>197</v>
+      </c>
+      <c r="P81" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>184</v>
       </c>
@@ -3175,6 +3995,9 @@
       <c r="C82" t="s">
         <v>68</v>
       </c>
+      <c r="D82" t="s">
+        <v>68</v>
+      </c>
       <c r="E82" t="s">
         <v>68</v>
       </c>
@@ -3187,8 +4010,26 @@
       <c r="H82" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K82" t="s">
+        <v>194</v>
+      </c>
+      <c r="L82" t="s">
+        <v>193</v>
+      </c>
+      <c r="M82" t="s">
+        <v>195</v>
+      </c>
+      <c r="N82">
+        <v>31</v>
+      </c>
+      <c r="O82">
+        <v>33</v>
+      </c>
+      <c r="P82" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>185</v>
       </c>
@@ -3198,6 +4039,9 @@
       <c r="C83" t="s">
         <v>68</v>
       </c>
+      <c r="D83" t="s">
+        <v>68</v>
+      </c>
       <c r="E83" t="s">
         <v>68</v>
       </c>
@@ -3210,8 +4054,23 @@
       <c r="H83" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K83" t="s">
+        <v>191</v>
+      </c>
+      <c r="L83" t="s">
+        <v>192</v>
+      </c>
+      <c r="N83">
+        <v>5</v>
+      </c>
+      <c r="O83">
+        <v>10</v>
+      </c>
+      <c r="P83" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>186</v>
       </c>
@@ -3221,6 +4080,9 @@
       <c r="C84" t="s">
         <v>68</v>
       </c>
+      <c r="D84" t="s">
+        <v>68</v>
+      </c>
       <c r="E84" t="s">
         <v>68</v>
       </c>
@@ -3233,8 +4095,20 @@
       <c r="H84" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K84" t="s">
+        <v>194</v>
+      </c>
+      <c r="L84" t="s">
+        <v>193</v>
+      </c>
+      <c r="M84" t="s">
+        <v>195</v>
+      </c>
+      <c r="P84" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>187</v>
       </c>
@@ -3244,6 +4118,9 @@
       <c r="C85" t="s">
         <v>68</v>
       </c>
+      <c r="D85" t="s">
+        <v>68</v>
+      </c>
       <c r="E85" t="s">
         <v>68</v>
       </c>
@@ -3256,8 +4133,23 @@
       <c r="H85" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="L85" t="s">
+        <v>193</v>
+      </c>
+      <c r="M85" t="s">
+        <v>197</v>
+      </c>
+      <c r="N85">
+        <v>4</v>
+      </c>
+      <c r="O85">
+        <v>5</v>
+      </c>
+      <c r="P85" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>188</v>
       </c>
@@ -3267,6 +4159,9 @@
       <c r="C86" t="s">
         <v>68</v>
       </c>
+      <c r="D86" t="s">
+        <v>68</v>
+      </c>
       <c r="E86" t="s">
         <v>68</v>
       </c>
@@ -3278,6 +4173,18 @@
       </c>
       <c r="H86" t="s">
         <v>171</v>
+      </c>
+      <c r="K86" t="s">
+        <v>194</v>
+      </c>
+      <c r="L86" t="s">
+        <v>192</v>
+      </c>
+      <c r="M86" t="s">
+        <v>197</v>
+      </c>
+      <c r="P86" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/data/atlas_project_metadata.xlsx
+++ b/data/atlas_project_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbernabei/Documents/PhD_Research/atlas_project/iEEG_atlas/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA3E070-6CFE-1A40-A50F-1CB752729B57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2436D952-002F-5146-9075-B3948C5B1DC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8340" yWindow="1920" windowWidth="25260" windowHeight="17720" xr2:uid="{55386E59-C2B1-FE47-8A03-2662CFD6A014}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="202">
   <si>
     <t>Patient</t>
   </si>
@@ -628,6 +628,9 @@
   </si>
   <si>
     <t>Bilateral</t>
+  </si>
+  <si>
+    <t>Insular</t>
   </si>
 </sst>
 </file>
@@ -982,7 +985,7 @@
   <dimension ref="A1:S86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L61" sqref="L61"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1269,6 +1272,9 @@
       <c r="H6" t="s">
         <v>171</v>
       </c>
+      <c r="K6" t="s">
+        <v>191</v>
+      </c>
       <c r="L6" t="s">
         <v>193</v>
       </c>
@@ -1662,6 +1668,12 @@
       <c r="M15" t="s">
         <v>197</v>
       </c>
+      <c r="N15">
+        <v>17</v>
+      </c>
+      <c r="O15">
+        <v>25</v>
+      </c>
       <c r="P15" t="s">
         <v>198</v>
       </c>
@@ -1697,6 +1709,24 @@
       <c r="H16" t="s">
         <v>171</v>
       </c>
+      <c r="K16" t="s">
+        <v>191</v>
+      </c>
+      <c r="L16" t="s">
+        <v>193</v>
+      </c>
+      <c r="M16" t="s">
+        <v>195</v>
+      </c>
+      <c r="N16">
+        <v>19</v>
+      </c>
+      <c r="O16">
+        <v>24</v>
+      </c>
+      <c r="P16" t="s">
+        <v>196</v>
+      </c>
       <c r="Q16" t="s">
         <v>68</v>
       </c>
@@ -1726,6 +1756,24 @@
       <c r="H17" t="s">
         <v>171</v>
       </c>
+      <c r="K17" t="s">
+        <v>194</v>
+      </c>
+      <c r="L17" t="s">
+        <v>193</v>
+      </c>
+      <c r="M17" t="s">
+        <v>195</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>35</v>
+      </c>
+      <c r="P17" t="s">
+        <v>198</v>
+      </c>
       <c r="Q17" t="s">
         <v>68</v>
       </c>
@@ -2405,6 +2453,24 @@
       <c r="H37" t="s">
         <v>171</v>
       </c>
+      <c r="K37" t="s">
+        <v>194</v>
+      </c>
+      <c r="L37" t="s">
+        <v>193</v>
+      </c>
+      <c r="M37" t="s">
+        <v>197</v>
+      </c>
+      <c r="N37">
+        <v>48</v>
+      </c>
+      <c r="O37">
+        <v>57</v>
+      </c>
+      <c r="P37" t="s">
+        <v>196</v>
+      </c>
       <c r="Q37" t="s">
         <v>68</v>
       </c>
@@ -2486,6 +2552,9 @@
       <c r="H40" t="s">
         <v>170</v>
       </c>
+      <c r="K40" t="s">
+        <v>191</v>
+      </c>
       <c r="L40" t="s">
         <v>193</v>
       </c>
@@ -3041,6 +3110,24 @@
       <c r="H55" t="s">
         <v>170</v>
       </c>
+      <c r="K55" t="s">
+        <v>201</v>
+      </c>
+      <c r="L55" t="s">
+        <v>192</v>
+      </c>
+      <c r="M55" t="s">
+        <v>195</v>
+      </c>
+      <c r="N55">
+        <v>4</v>
+      </c>
+      <c r="O55">
+        <v>17</v>
+      </c>
+      <c r="P55" t="s">
+        <v>196</v>
+      </c>
       <c r="Q55" t="s">
         <v>68</v>
       </c>
@@ -3073,6 +3160,18 @@
       <c r="H56" t="s">
         <v>170</v>
       </c>
+      <c r="K56" t="s">
+        <v>191</v>
+      </c>
+      <c r="L56" t="s">
+        <v>192</v>
+      </c>
+      <c r="M56" t="s">
+        <v>197</v>
+      </c>
+      <c r="P56" t="s">
+        <v>196</v>
+      </c>
       <c r="Q56" t="s">
         <v>68</v>
       </c>
@@ -3128,6 +3227,24 @@
       <c r="H58" t="s">
         <v>170</v>
       </c>
+      <c r="K58" t="s">
+        <v>194</v>
+      </c>
+      <c r="L58" t="s">
+        <v>193</v>
+      </c>
+      <c r="M58" t="s">
+        <v>197</v>
+      </c>
+      <c r="N58">
+        <v>16</v>
+      </c>
+      <c r="O58">
+        <v>25</v>
+      </c>
+      <c r="P58" t="s">
+        <v>196</v>
+      </c>
       <c r="Q58" t="s">
         <v>68</v>
       </c>
@@ -3160,6 +3277,24 @@
       <c r="H59" t="s">
         <v>170</v>
       </c>
+      <c r="K59" t="s">
+        <v>201</v>
+      </c>
+      <c r="L59" t="s">
+        <v>192</v>
+      </c>
+      <c r="M59" t="s">
+        <v>197</v>
+      </c>
+      <c r="N59">
+        <v>7</v>
+      </c>
+      <c r="O59">
+        <v>32</v>
+      </c>
+      <c r="P59" t="s">
+        <v>196</v>
+      </c>
       <c r="Q59" t="s">
         <v>68</v>
       </c>
@@ -3344,6 +3479,24 @@
       <c r="H64" t="s">
         <v>170</v>
       </c>
+      <c r="K64" t="s">
+        <v>194</v>
+      </c>
+      <c r="L64" t="s">
+        <v>192</v>
+      </c>
+      <c r="M64" t="s">
+        <v>197</v>
+      </c>
+      <c r="N64">
+        <v>12</v>
+      </c>
+      <c r="O64">
+        <v>21</v>
+      </c>
+      <c r="P64" t="s">
+        <v>198</v>
+      </c>
       <c r="Q64" t="s">
         <v>68</v>
       </c>
@@ -3402,6 +3555,24 @@
       <c r="H66" t="s">
         <v>170</v>
       </c>
+      <c r="K66" t="s">
+        <v>201</v>
+      </c>
+      <c r="L66" t="s">
+        <v>192</v>
+      </c>
+      <c r="M66" t="s">
+        <v>197</v>
+      </c>
+      <c r="N66">
+        <v>3</v>
+      </c>
+      <c r="O66">
+        <v>21</v>
+      </c>
+      <c r="P66" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
@@ -3691,6 +3862,24 @@
       </c>
       <c r="H73" t="s">
         <v>170</v>
+      </c>
+      <c r="K73" t="s">
+        <v>194</v>
+      </c>
+      <c r="L73" t="s">
+        <v>193</v>
+      </c>
+      <c r="M73" t="s">
+        <v>195</v>
+      </c>
+      <c r="N73">
+        <v>16</v>
+      </c>
+      <c r="O73">
+        <v>31</v>
+      </c>
+      <c r="P73" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">

--- a/data/atlas_project_metadata.xlsx
+++ b/data/atlas_project_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbernabei/Documents/PhD_Research/atlas_project/iEEG_atlas/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2436D952-002F-5146-9075-B3948C5B1DC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21323ED-AF3F-9147-AFDF-B042DE7D1766}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="1920" windowWidth="25260" windowHeight="17720" xr2:uid="{55386E59-C2B1-FE47-8A03-2662CFD6A014}"/>
+    <workbookView xWindow="16360" yWindow="2120" windowWidth="25260" windowHeight="17720" xr2:uid="{55386E59-C2B1-FE47-8A03-2662CFD6A014}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -558,15 +558,6 @@
     <t>Hypothesis 2</t>
   </si>
   <si>
-    <t>Lesion status</t>
-  </si>
-  <si>
-    <t>Age onset</t>
-  </si>
-  <si>
-    <t>Age surgery</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
@@ -631,6 +622,15 @@
   </si>
   <si>
     <t>Insular</t>
+  </si>
+  <si>
+    <t>Lesion_status</t>
+  </si>
+  <si>
+    <t>Age_onset</t>
+  </si>
+  <si>
+    <t>Age_surgery</t>
   </si>
 </sst>
 </file>
@@ -984,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEE15CE-15A7-E440-8B77-868E4F33ECBC}">
   <dimension ref="A1:S86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1044,19 +1044,19 @@
         <v>76</v>
       </c>
       <c r="L1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M1" t="s">
+        <v>199</v>
+      </c>
+      <c r="N1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O1" t="s">
+        <v>201</v>
+      </c>
+      <c r="P1" t="s">
         <v>177</v>
-      </c>
-      <c r="N1" t="s">
-        <v>178</v>
-      </c>
-      <c r="O1" t="s">
-        <v>179</v>
-      </c>
-      <c r="P1" t="s">
-        <v>180</v>
       </c>
       <c r="Q1" t="s">
         <v>5</v>
@@ -1094,10 +1094,10 @@
         <v>170</v>
       </c>
       <c r="K2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N2">
         <v>12</v>
@@ -1106,7 +1106,7 @@
         <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q2" t="s">
         <v>68</v>
@@ -1141,13 +1141,13 @@
         <v>171</v>
       </c>
       <c r="K3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N3">
         <v>3</v>
@@ -1156,7 +1156,7 @@
         <v>21</v>
       </c>
       <c r="P3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -1185,13 +1185,13 @@
         <v>171</v>
       </c>
       <c r="K4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L4" t="s">
+        <v>189</v>
+      </c>
+      <c r="M4" t="s">
         <v>192</v>
-      </c>
-      <c r="M4" t="s">
-        <v>195</v>
       </c>
       <c r="N4">
         <v>2</v>
@@ -1200,7 +1200,7 @@
         <v>36</v>
       </c>
       <c r="P4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -1229,13 +1229,13 @@
         <v>171</v>
       </c>
       <c r="K5" t="s">
+        <v>191</v>
+      </c>
+      <c r="L5" t="s">
+        <v>189</v>
+      </c>
+      <c r="M5" t="s">
         <v>194</v>
-      </c>
-      <c r="L5" t="s">
-        <v>192</v>
-      </c>
-      <c r="M5" t="s">
-        <v>197</v>
       </c>
       <c r="N5">
         <v>13</v>
@@ -1244,7 +1244,7 @@
         <v>28</v>
       </c>
       <c r="P5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
@@ -1273,13 +1273,13 @@
         <v>171</v>
       </c>
       <c r="K6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="N6">
         <v>12</v>
@@ -1288,7 +1288,7 @@
         <v>33</v>
       </c>
       <c r="P6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
@@ -1317,13 +1317,13 @@
         <v>171</v>
       </c>
       <c r="K7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="N7">
         <v>5</v>
@@ -1332,7 +1332,7 @@
         <v>40</v>
       </c>
       <c r="P7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
@@ -1361,13 +1361,13 @@
         <v>171</v>
       </c>
       <c r="K8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N8">
         <v>5</v>
@@ -1376,7 +1376,7 @@
         <v>25</v>
       </c>
       <c r="P8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -1405,13 +1405,13 @@
         <v>171</v>
       </c>
       <c r="K9" t="s">
+        <v>191</v>
+      </c>
+      <c r="L9" t="s">
+        <v>190</v>
+      </c>
+      <c r="M9" t="s">
         <v>194</v>
-      </c>
-      <c r="L9" t="s">
-        <v>193</v>
-      </c>
-      <c r="M9" t="s">
-        <v>197</v>
       </c>
       <c r="N9">
         <v>52</v>
@@ -1420,7 +1420,7 @@
         <v>57</v>
       </c>
       <c r="P9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q9" t="s">
         <v>68</v>
@@ -1455,13 +1455,13 @@
         <v>171</v>
       </c>
       <c r="K10" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L10" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>54</v>
       </c>
       <c r="P10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q10" t="s">
         <v>68</v>
@@ -1505,16 +1505,16 @@
         <v>171</v>
       </c>
       <c r="K11" t="s">
+        <v>191</v>
+      </c>
+      <c r="L11" t="s">
+        <v>190</v>
+      </c>
+      <c r="M11" t="s">
         <v>194</v>
       </c>
-      <c r="L11" t="s">
-        <v>193</v>
-      </c>
-      <c r="M11" t="s">
-        <v>197</v>
-      </c>
       <c r="P11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
@@ -1540,13 +1540,13 @@
         <v>171</v>
       </c>
       <c r="K12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L12" t="s">
+        <v>189</v>
+      </c>
+      <c r="M12" t="s">
         <v>192</v>
-      </c>
-      <c r="M12" t="s">
-        <v>195</v>
       </c>
       <c r="N12">
         <v>34</v>
@@ -1555,7 +1555,7 @@
         <v>56</v>
       </c>
       <c r="P12" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q12" t="s">
         <v>68</v>
@@ -1590,13 +1590,13 @@
         <v>171</v>
       </c>
       <c r="K13" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L13" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M13" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N13">
         <v>8</v>
@@ -1605,7 +1605,7 @@
         <v>29</v>
       </c>
       <c r="P13" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
@@ -1631,7 +1631,7 @@
         <v>171</v>
       </c>
       <c r="L14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
@@ -1660,13 +1660,13 @@
         <v>171</v>
       </c>
       <c r="K15" t="s">
+        <v>191</v>
+      </c>
+      <c r="L15" t="s">
+        <v>190</v>
+      </c>
+      <c r="M15" t="s">
         <v>194</v>
-      </c>
-      <c r="L15" t="s">
-        <v>193</v>
-      </c>
-      <c r="M15" t="s">
-        <v>197</v>
       </c>
       <c r="N15">
         <v>17</v>
@@ -1675,7 +1675,7 @@
         <v>25</v>
       </c>
       <c r="P15" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q15" t="s">
         <v>68</v>
@@ -1710,13 +1710,13 @@
         <v>171</v>
       </c>
       <c r="K16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L16" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M16" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N16">
         <v>19</v>
@@ -1725,7 +1725,7 @@
         <v>24</v>
       </c>
       <c r="P16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q16" t="s">
         <v>68</v>
@@ -1757,13 +1757,13 @@
         <v>171</v>
       </c>
       <c r="K17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L17" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M17" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1772,7 +1772,7 @@
         <v>35</v>
       </c>
       <c r="P17" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q17" t="s">
         <v>68</v>
@@ -1847,13 +1847,13 @@
         <v>171</v>
       </c>
       <c r="K20" t="s">
+        <v>191</v>
+      </c>
+      <c r="L20" t="s">
+        <v>189</v>
+      </c>
+      <c r="M20" t="s">
         <v>194</v>
-      </c>
-      <c r="L20" t="s">
-        <v>192</v>
-      </c>
-      <c r="M20" t="s">
-        <v>197</v>
       </c>
       <c r="N20">
         <v>20</v>
@@ -1862,7 +1862,7 @@
         <v>48</v>
       </c>
       <c r="P20" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q20" t="s">
         <v>68</v>
@@ -1894,7 +1894,7 @@
         <v>171</v>
       </c>
       <c r="L21" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
@@ -1960,7 +1960,7 @@
         <v>171</v>
       </c>
       <c r="L24" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
@@ -1989,13 +1989,13 @@
         <v>171</v>
       </c>
       <c r="K25" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L25" t="s">
+        <v>189</v>
+      </c>
+      <c r="M25" t="s">
         <v>192</v>
-      </c>
-      <c r="M25" t="s">
-        <v>195</v>
       </c>
       <c r="N25">
         <v>27</v>
@@ -2004,7 +2004,7 @@
         <v>39</v>
       </c>
       <c r="P25" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q25" t="s">
         <v>68</v>
@@ -2039,13 +2039,13 @@
         <v>171</v>
       </c>
       <c r="K26" t="s">
+        <v>191</v>
+      </c>
+      <c r="L26" t="s">
+        <v>190</v>
+      </c>
+      <c r="M26" t="s">
         <v>194</v>
-      </c>
-      <c r="L26" t="s">
-        <v>193</v>
-      </c>
-      <c r="M26" t="s">
-        <v>197</v>
       </c>
       <c r="N26">
         <v>24</v>
@@ -2054,7 +2054,7 @@
         <v>45</v>
       </c>
       <c r="P26" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q26" t="s">
         <v>68</v>
@@ -2089,13 +2089,13 @@
         <v>171</v>
       </c>
       <c r="K27" t="s">
+        <v>191</v>
+      </c>
+      <c r="L27" t="s">
+        <v>189</v>
+      </c>
+      <c r="M27" t="s">
         <v>194</v>
-      </c>
-      <c r="L27" t="s">
-        <v>192</v>
-      </c>
-      <c r="M27" t="s">
-        <v>197</v>
       </c>
       <c r="N27">
         <v>5</v>
@@ -2104,7 +2104,7 @@
         <v>36</v>
       </c>
       <c r="P27" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q27" t="s">
         <v>68</v>
@@ -2136,13 +2136,13 @@
         <v>171</v>
       </c>
       <c r="K28" t="s">
+        <v>191</v>
+      </c>
+      <c r="L28" t="s">
+        <v>189</v>
+      </c>
+      <c r="M28" t="s">
         <v>194</v>
-      </c>
-      <c r="L28" t="s">
-        <v>192</v>
-      </c>
-      <c r="M28" t="s">
-        <v>197</v>
       </c>
       <c r="N28">
         <v>28</v>
@@ -2151,7 +2151,7 @@
         <v>40</v>
       </c>
       <c r="P28" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q28" t="s">
         <v>68</v>
@@ -2186,13 +2186,13 @@
         <v>170</v>
       </c>
       <c r="K29" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L29" t="s">
+        <v>189</v>
+      </c>
+      <c r="M29" t="s">
         <v>192</v>
-      </c>
-      <c r="M29" t="s">
-        <v>195</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2201,7 +2201,7 @@
         <v>21</v>
       </c>
       <c r="P29" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q29" t="s">
         <v>68</v>
@@ -2285,13 +2285,13 @@
         <v>170</v>
       </c>
       <c r="K32" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L32" t="s">
+        <v>189</v>
+      </c>
+      <c r="M32" t="s">
         <v>192</v>
-      </c>
-      <c r="M32" t="s">
-        <v>195</v>
       </c>
       <c r="N32">
         <v>42</v>
@@ -2300,7 +2300,7 @@
         <v>59</v>
       </c>
       <c r="P32" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q32" t="s">
         <v>68</v>
@@ -2335,13 +2335,13 @@
         <v>170</v>
       </c>
       <c r="K33" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L33" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M33" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N33">
         <v>12</v>
@@ -2350,7 +2350,7 @@
         <v>39</v>
       </c>
       <c r="P33" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q33" t="s">
         <v>68</v>
@@ -2379,7 +2379,7 @@
         <v>168</v>
       </c>
       <c r="L34" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
@@ -2454,13 +2454,13 @@
         <v>171</v>
       </c>
       <c r="K37" t="s">
+        <v>191</v>
+      </c>
+      <c r="L37" t="s">
+        <v>190</v>
+      </c>
+      <c r="M37" t="s">
         <v>194</v>
-      </c>
-      <c r="L37" t="s">
-        <v>193</v>
-      </c>
-      <c r="M37" t="s">
-        <v>197</v>
       </c>
       <c r="N37">
         <v>48</v>
@@ -2469,7 +2469,7 @@
         <v>57</v>
       </c>
       <c r="P37" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q37" t="s">
         <v>68</v>
@@ -2524,7 +2524,7 @@
         <v>170</v>
       </c>
       <c r="L39" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
@@ -2553,13 +2553,13 @@
         <v>170</v>
       </c>
       <c r="K40" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L40" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M40" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="N40">
         <v>20</v>
@@ -2568,7 +2568,7 @@
         <v>46</v>
       </c>
       <c r="P40" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q40" t="s">
         <v>68</v>
@@ -2629,13 +2629,13 @@
         <v>170</v>
       </c>
       <c r="K42" t="s">
+        <v>191</v>
+      </c>
+      <c r="L42" t="s">
+        <v>190</v>
+      </c>
+      <c r="M42" t="s">
         <v>194</v>
-      </c>
-      <c r="L42" t="s">
-        <v>193</v>
-      </c>
-      <c r="M42" t="s">
-        <v>197</v>
       </c>
       <c r="N42">
         <v>47</v>
@@ -2644,7 +2644,7 @@
         <v>52</v>
       </c>
       <c r="P42" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q42" t="s">
         <v>68</v>
@@ -2702,13 +2702,13 @@
         <v>170</v>
       </c>
       <c r="K44" t="s">
+        <v>191</v>
+      </c>
+      <c r="L44" t="s">
+        <v>189</v>
+      </c>
+      <c r="M44" t="s">
         <v>194</v>
-      </c>
-      <c r="L44" t="s">
-        <v>192</v>
-      </c>
-      <c r="M44" t="s">
-        <v>197</v>
       </c>
       <c r="N44">
         <v>34</v>
@@ -2717,7 +2717,7 @@
         <v>37</v>
       </c>
       <c r="P44" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q44" t="s">
         <v>68</v>
@@ -2749,7 +2749,7 @@
         <v>170</v>
       </c>
       <c r="L45" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
@@ -2778,13 +2778,13 @@
         <v>170</v>
       </c>
       <c r="K46" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L46" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M46" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N46">
         <v>29</v>
@@ -2793,7 +2793,7 @@
         <v>38</v>
       </c>
       <c r="P46" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q46" t="s">
         <v>68</v>
@@ -2828,13 +2828,13 @@
         <v>170</v>
       </c>
       <c r="K47" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L47" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M47" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>20</v>
       </c>
       <c r="P47" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q47" t="s">
         <v>68</v>
@@ -2878,13 +2878,13 @@
         <v>170</v>
       </c>
       <c r="K48" t="s">
+        <v>191</v>
+      </c>
+      <c r="L48" t="s">
+        <v>190</v>
+      </c>
+      <c r="M48" t="s">
         <v>194</v>
-      </c>
-      <c r="L48" t="s">
-        <v>193</v>
-      </c>
-      <c r="M48" t="s">
-        <v>197</v>
       </c>
       <c r="N48">
         <v>26</v>
@@ -2893,7 +2893,7 @@
         <v>47</v>
       </c>
       <c r="P48" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q48" t="s">
         <v>68</v>
@@ -2928,13 +2928,13 @@
         <v>170</v>
       </c>
       <c r="K49" t="s">
+        <v>191</v>
+      </c>
+      <c r="L49" t="s">
+        <v>189</v>
+      </c>
+      <c r="M49" t="s">
         <v>194</v>
-      </c>
-      <c r="L49" t="s">
-        <v>192</v>
-      </c>
-      <c r="M49" t="s">
-        <v>197</v>
       </c>
       <c r="N49">
         <v>14</v>
@@ -2943,7 +2943,7 @@
         <v>30</v>
       </c>
       <c r="P49" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q49" t="s">
         <v>68</v>
@@ -3001,7 +3001,7 @@
         <v>170</v>
       </c>
       <c r="L51" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
@@ -3111,13 +3111,13 @@
         <v>170</v>
       </c>
       <c r="K55" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L55" t="s">
+        <v>189</v>
+      </c>
+      <c r="M55" t="s">
         <v>192</v>
-      </c>
-      <c r="M55" t="s">
-        <v>195</v>
       </c>
       <c r="N55">
         <v>4</v>
@@ -3126,7 +3126,7 @@
         <v>17</v>
       </c>
       <c r="P55" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q55" t="s">
         <v>68</v>
@@ -3161,16 +3161,16 @@
         <v>170</v>
       </c>
       <c r="K56" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L56" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M56" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P56" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q56" t="s">
         <v>68</v>
@@ -3199,7 +3199,7 @@
         <v>170</v>
       </c>
       <c r="L57" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
@@ -3228,13 +3228,13 @@
         <v>170</v>
       </c>
       <c r="K58" t="s">
+        <v>191</v>
+      </c>
+      <c r="L58" t="s">
+        <v>190</v>
+      </c>
+      <c r="M58" t="s">
         <v>194</v>
-      </c>
-      <c r="L58" t="s">
-        <v>193</v>
-      </c>
-      <c r="M58" t="s">
-        <v>197</v>
       </c>
       <c r="N58">
         <v>16</v>
@@ -3243,7 +3243,7 @@
         <v>25</v>
       </c>
       <c r="P58" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q58" t="s">
         <v>68</v>
@@ -3278,13 +3278,13 @@
         <v>170</v>
       </c>
       <c r="K59" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L59" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M59" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="N59">
         <v>7</v>
@@ -3293,7 +3293,7 @@
         <v>32</v>
       </c>
       <c r="P59" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q59" t="s">
         <v>68</v>
@@ -3380,13 +3380,13 @@
         <v>170</v>
       </c>
       <c r="K62" t="s">
+        <v>191</v>
+      </c>
+      <c r="L62" t="s">
+        <v>190</v>
+      </c>
+      <c r="M62" t="s">
         <v>194</v>
-      </c>
-      <c r="L62" t="s">
-        <v>193</v>
-      </c>
-      <c r="M62" t="s">
-        <v>197</v>
       </c>
       <c r="N62">
         <v>32</v>
@@ -3395,7 +3395,7 @@
         <v>42</v>
       </c>
       <c r="P62" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q62" t="s">
         <v>68</v>
@@ -3430,13 +3430,13 @@
         <v>170</v>
       </c>
       <c r="K63" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L63" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M63" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N63">
         <v>14</v>
@@ -3445,7 +3445,7 @@
         <v>34</v>
       </c>
       <c r="P63" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q63" t="s">
         <v>68</v>
@@ -3480,13 +3480,13 @@
         <v>170</v>
       </c>
       <c r="K64" t="s">
+        <v>191</v>
+      </c>
+      <c r="L64" t="s">
+        <v>189</v>
+      </c>
+      <c r="M64" t="s">
         <v>194</v>
-      </c>
-      <c r="L64" t="s">
-        <v>192</v>
-      </c>
-      <c r="M64" t="s">
-        <v>197</v>
       </c>
       <c r="N64">
         <v>12</v>
@@ -3495,7 +3495,7 @@
         <v>21</v>
       </c>
       <c r="P64" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q64" t="s">
         <v>68</v>
@@ -3556,13 +3556,13 @@
         <v>170</v>
       </c>
       <c r="K66" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L66" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M66" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="N66">
         <v>3</v>
@@ -3571,7 +3571,7 @@
         <v>21</v>
       </c>
       <c r="P66" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.2">
@@ -3600,13 +3600,13 @@
         <v>170</v>
       </c>
       <c r="K67" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L67" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M67" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="N67">
         <v>6</v>
@@ -3615,7 +3615,7 @@
         <v>50</v>
       </c>
       <c r="P67" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.2">
@@ -3644,13 +3644,13 @@
         <v>170</v>
       </c>
       <c r="K68" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L68" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M68" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="N68">
         <v>2</v>
@@ -3659,7 +3659,7 @@
         <v>28</v>
       </c>
       <c r="P68" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
@@ -3688,13 +3688,13 @@
         <v>170</v>
       </c>
       <c r="K69" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L69" t="s">
+        <v>189</v>
+      </c>
+      <c r="M69" t="s">
         <v>192</v>
-      </c>
-      <c r="M69" t="s">
-        <v>195</v>
       </c>
       <c r="N69">
         <v>12</v>
@@ -3703,7 +3703,7 @@
         <v>24</v>
       </c>
       <c r="P69" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.2">
@@ -3732,13 +3732,13 @@
         <v>170</v>
       </c>
       <c r="K70" t="s">
+        <v>191</v>
+      </c>
+      <c r="L70" t="s">
+        <v>189</v>
+      </c>
+      <c r="M70" t="s">
         <v>194</v>
-      </c>
-      <c r="L70" t="s">
-        <v>192</v>
-      </c>
-      <c r="M70" t="s">
-        <v>197</v>
       </c>
       <c r="N70">
         <v>5</v>
@@ -3747,7 +3747,7 @@
         <v>42</v>
       </c>
       <c r="P70" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.2">
@@ -3776,13 +3776,13 @@
         <v>170</v>
       </c>
       <c r="K71" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L71" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M71" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N71">
         <v>13</v>
@@ -3791,7 +3791,7 @@
         <v>20</v>
       </c>
       <c r="P71" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.2">
@@ -3820,13 +3820,13 @@
         <v>170</v>
       </c>
       <c r="K72" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L72" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M72" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N72">
         <v>2</v>
@@ -3835,7 +3835,7 @@
         <v>28</v>
       </c>
       <c r="P72" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
@@ -3864,13 +3864,13 @@
         <v>170</v>
       </c>
       <c r="K73" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L73" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M73" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N73">
         <v>16</v>
@@ -3879,7 +3879,7 @@
         <v>31</v>
       </c>
       <c r="P73" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
@@ -3905,7 +3905,7 @@
         <v>170</v>
       </c>
       <c r="L74" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
@@ -3934,13 +3934,13 @@
         <v>170</v>
       </c>
       <c r="K75" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L75" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M75" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N75">
         <v>9</v>
@@ -3949,7 +3949,7 @@
         <v>38</v>
       </c>
       <c r="P75" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.2">
@@ -3998,13 +3998,13 @@
         <v>170</v>
       </c>
       <c r="K77" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L77" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M77" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N77">
         <v>9</v>
@@ -4013,7 +4013,7 @@
         <v>24</v>
       </c>
       <c r="P77" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.2">
@@ -4036,13 +4036,13 @@
         <v>170</v>
       </c>
       <c r="K78" t="s">
+        <v>191</v>
+      </c>
+      <c r="L78" t="s">
+        <v>190</v>
+      </c>
+      <c r="M78" t="s">
         <v>194</v>
-      </c>
-      <c r="L78" t="s">
-        <v>193</v>
-      </c>
-      <c r="M78" t="s">
-        <v>197</v>
       </c>
       <c r="N78">
         <v>12</v>
@@ -4051,15 +4051,15 @@
         <v>25</v>
       </c>
       <c r="P78" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B79" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C79" t="s">
         <v>68</v>
@@ -4080,10 +4080,10 @@
         <v>171</v>
       </c>
       <c r="K79" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L79" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N79">
         <v>23</v>
@@ -4092,15 +4092,15 @@
         <v>37</v>
       </c>
       <c r="P79" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B80" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C80" t="s">
         <v>68</v>
@@ -4121,10 +4121,10 @@
         <v>171</v>
       </c>
       <c r="K80" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L80" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N80">
         <v>5</v>
@@ -4133,15 +4133,15 @@
         <v>36</v>
       </c>
       <c r="P80" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B81" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C81" t="s">
         <v>68</v>
@@ -4162,24 +4162,24 @@
         <v>171</v>
       </c>
       <c r="K81" t="s">
+        <v>191</v>
+      </c>
+      <c r="L81" t="s">
+        <v>189</v>
+      </c>
+      <c r="M81" t="s">
         <v>194</v>
       </c>
-      <c r="L81" t="s">
-        <v>192</v>
-      </c>
-      <c r="M81" t="s">
-        <v>197</v>
-      </c>
       <c r="P81" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B82" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C82" t="s">
         <v>68</v>
@@ -4200,13 +4200,13 @@
         <v>171</v>
       </c>
       <c r="K82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L82" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M82" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N82">
         <v>31</v>
@@ -4215,15 +4215,15 @@
         <v>33</v>
       </c>
       <c r="P82" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B83" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C83" t="s">
         <v>68</v>
@@ -4244,10 +4244,10 @@
         <v>171</v>
       </c>
       <c r="K83" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L83" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N83">
         <v>5</v>
@@ -4256,15 +4256,15 @@
         <v>10</v>
       </c>
       <c r="P83" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>183</v>
+      </c>
+      <c r="B84" t="s">
         <v>186</v>
-      </c>
-      <c r="B84" t="s">
-        <v>189</v>
       </c>
       <c r="C84" t="s">
         <v>68</v>
@@ -4285,24 +4285,24 @@
         <v>171</v>
       </c>
       <c r="K84" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L84" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M84" t="s">
+        <v>192</v>
+      </c>
+      <c r="P84" t="s">
         <v>195</v>
-      </c>
-      <c r="P84" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B85" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C85" t="s">
         <v>68</v>
@@ -4323,10 +4323,10 @@
         <v>171</v>
       </c>
       <c r="L85" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M85" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="N85">
         <v>4</v>
@@ -4335,15 +4335,15 @@
         <v>5</v>
       </c>
       <c r="P85" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B86" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C86" t="s">
         <v>68</v>
@@ -4364,16 +4364,16 @@
         <v>171</v>
       </c>
       <c r="K86" t="s">
+        <v>191</v>
+      </c>
+      <c r="L86" t="s">
+        <v>189</v>
+      </c>
+      <c r="M86" t="s">
         <v>194</v>
       </c>
-      <c r="L86" t="s">
-        <v>192</v>
-      </c>
-      <c r="M86" t="s">
-        <v>197</v>
-      </c>
       <c r="P86" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/data/atlas_project_metadata.xlsx
+++ b/data/atlas_project_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbernabei/Documents/PhD_Research/atlas_project/iEEG_atlas/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21323ED-AF3F-9147-AFDF-B042DE7D1766}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A2D4E7-76F4-2A4F-BB54-84F3D66A0492}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16360" yWindow="2120" windowWidth="25260" windowHeight="17720" xr2:uid="{55386E59-C2B1-FE47-8A03-2662CFD6A014}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="205">
   <si>
     <t>Patient</t>
   </si>
@@ -631,6 +631,15 @@
   </si>
   <si>
     <t>Age_surgery</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>MTL</t>
+  </si>
+  <si>
+    <t>MFL</t>
   </si>
 </sst>
 </file>
@@ -984,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEE15CE-15A7-E440-8B77-868E4F33ECBC}">
   <dimension ref="A1:S86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="C23" workbookViewId="0">
+      <selection activeCell="K84" sqref="K84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1273,7 +1282,7 @@
         <v>171</v>
       </c>
       <c r="K6" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="L6" t="s">
         <v>190</v>
@@ -2285,7 +2294,7 @@
         <v>170</v>
       </c>
       <c r="K32" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="L32" t="s">
         <v>189</v>
@@ -2553,7 +2562,7 @@
         <v>170</v>
       </c>
       <c r="K40" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="L40" t="s">
         <v>190</v>
@@ -2629,7 +2638,7 @@
         <v>170</v>
       </c>
       <c r="K42" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="L42" t="s">
         <v>190</v>
@@ -2702,7 +2711,7 @@
         <v>170</v>
       </c>
       <c r="K44" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="L44" t="s">
         <v>189</v>
@@ -2778,7 +2787,7 @@
         <v>170</v>
       </c>
       <c r="K46" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="L46" t="s">
         <v>190</v>
@@ -2878,7 +2887,7 @@
         <v>170</v>
       </c>
       <c r="K48" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="L48" t="s">
         <v>190</v>
@@ -2928,7 +2937,7 @@
         <v>170</v>
       </c>
       <c r="K49" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="L49" t="s">
         <v>189</v>
@@ -3161,7 +3170,7 @@
         <v>170</v>
       </c>
       <c r="K56" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="L56" t="s">
         <v>189</v>
@@ -3228,7 +3237,7 @@
         <v>170</v>
       </c>
       <c r="K58" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="L58" t="s">
         <v>190</v>
@@ -3380,7 +3389,7 @@
         <v>170</v>
       </c>
       <c r="K62" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="L62" t="s">
         <v>190</v>
@@ -3430,7 +3439,7 @@
         <v>170</v>
       </c>
       <c r="K63" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="L63" t="s">
         <v>190</v>
@@ -3934,7 +3943,7 @@
         <v>170</v>
       </c>
       <c r="K75" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="L75" t="s">
         <v>190</v>
@@ -4036,7 +4045,7 @@
         <v>170</v>
       </c>
       <c r="K78" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="L78" t="s">
         <v>190</v>
@@ -4321,6 +4330,9 @@
       </c>
       <c r="H85" t="s">
         <v>171</v>
+      </c>
+      <c r="K85" t="s">
+        <v>202</v>
       </c>
       <c r="L85" t="s">
         <v>190</v>

--- a/data/atlas_project_metadata.xlsx
+++ b/data/atlas_project_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbernabei/Documents/PhD_Research/atlas_project/iEEG_atlas/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A2D4E7-76F4-2A4F-BB54-84F3D66A0492}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF63A1BF-DBB8-D84C-8BCA-507FE5056F17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16360" yWindow="2120" windowWidth="25260" windowHeight="17720" xr2:uid="{55386E59-C2B1-FE47-8A03-2662CFD6A014}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="205">
   <si>
     <t>Patient</t>
   </si>
@@ -993,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEE15CE-15A7-E440-8B77-868E4F33ECBC}">
   <dimension ref="A1:S86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C23" workbookViewId="0">
-      <selection activeCell="K84" sqref="K84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1536,6 +1536,9 @@
       <c r="C12" t="s">
         <v>68</v>
       </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
       <c r="E12" t="s">
         <v>68</v>
       </c>
@@ -1956,6 +1959,9 @@
       <c r="C24" t="s">
         <v>68</v>
       </c>
+      <c r="D24" t="s">
+        <v>68</v>
+      </c>
       <c r="E24" t="s">
         <v>168</v>
       </c>
@@ -2520,6 +2526,9 @@
       <c r="C39" t="s">
         <v>68</v>
       </c>
+      <c r="D39" t="s">
+        <v>68</v>
+      </c>
       <c r="E39" t="s">
         <v>168</v>
       </c>
@@ -2745,6 +2754,9 @@
       <c r="C45" t="s">
         <v>68</v>
       </c>
+      <c r="D45" t="s">
+        <v>68</v>
+      </c>
       <c r="E45" t="s">
         <v>168</v>
       </c>
@@ -2997,6 +3009,9 @@
       <c r="C51" t="s">
         <v>68</v>
       </c>
+      <c r="D51" t="s">
+        <v>68</v>
+      </c>
       <c r="E51" t="s">
         <v>168</v>
       </c>
@@ -3899,6 +3914,9 @@
         <v>117</v>
       </c>
       <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
         <v>68</v>
       </c>
       <c r="E74" t="s">

--- a/data/atlas_project_metadata.xlsx
+++ b/data/atlas_project_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbernabei/Documents/PhD_Research/atlas_project/iEEG_atlas/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF63A1BF-DBB8-D84C-8BCA-507FE5056F17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDB8478-84E1-624A-B758-8F56359E3668}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16360" yWindow="2120" windowWidth="25260" windowHeight="17720" xr2:uid="{55386E59-C2B1-FE47-8A03-2662CFD6A014}"/>
+    <workbookView xWindow="7940" yWindow="760" windowWidth="25260" windowHeight="17720" xr2:uid="{55386E59-C2B1-FE47-8A03-2662CFD6A014}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="219">
   <si>
     <t>Patient</t>
   </si>
@@ -552,12 +552,6 @@
     <t>Implant</t>
   </si>
   <si>
-    <t>Hypothesis 1</t>
-  </si>
-  <si>
-    <t>Hypothesis 2</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
@@ -640,6 +634,54 @@
   </si>
   <si>
     <t>MFL</t>
+  </si>
+  <si>
+    <t>Hypothesis_1</t>
+  </si>
+  <si>
+    <t>Hypothesis_2</t>
+  </si>
+  <si>
+    <t>R_MTL</t>
+  </si>
+  <si>
+    <t>R_Temporal</t>
+  </si>
+  <si>
+    <t>L_Frontal</t>
+  </si>
+  <si>
+    <t>L_Temporal</t>
+  </si>
+  <si>
+    <t>L_MFL</t>
+  </si>
+  <si>
+    <t>L_MTL</t>
+  </si>
+  <si>
+    <t>L_Parietal</t>
+  </si>
+  <si>
+    <t>R_Insular</t>
+  </si>
+  <si>
+    <t>R_frontal</t>
+  </si>
+  <si>
+    <t>R_MFL</t>
+  </si>
+  <si>
+    <t>R_Frontal</t>
+  </si>
+  <si>
+    <t>R_Parietal</t>
+  </si>
+  <si>
+    <t>B_MTL</t>
+  </si>
+  <si>
+    <t>L_Insular</t>
   </si>
 </sst>
 </file>
@@ -993,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEE15CE-15A7-E440-8B77-868E4F33ECBC}">
   <dimension ref="A1:S86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1007,7 +1049,7 @@
     <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
@@ -1044,28 +1086,28 @@
         <v>174</v>
       </c>
       <c r="I1" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="J1" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="K1" t="s">
         <v>76</v>
       </c>
       <c r="L1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M1" t="s">
+        <v>197</v>
+      </c>
+      <c r="N1" t="s">
+        <v>198</v>
+      </c>
+      <c r="O1" t="s">
         <v>199</v>
       </c>
-      <c r="N1" t="s">
-        <v>200</v>
-      </c>
-      <c r="O1" t="s">
-        <v>201</v>
-      </c>
       <c r="P1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Q1" t="s">
         <v>5</v>
@@ -1103,10 +1145,10 @@
         <v>170</v>
       </c>
       <c r="K2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="N2">
         <v>12</v>
@@ -1115,7 +1157,7 @@
         <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q2" t="s">
         <v>68</v>
@@ -1150,13 +1192,13 @@
         <v>171</v>
       </c>
       <c r="K3" t="s">
+        <v>186</v>
+      </c>
+      <c r="L3" t="s">
         <v>188</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>190</v>
-      </c>
-      <c r="M3" t="s">
-        <v>192</v>
       </c>
       <c r="N3">
         <v>3</v>
@@ -1165,7 +1207,7 @@
         <v>21</v>
       </c>
       <c r="P3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -1194,13 +1236,13 @@
         <v>171</v>
       </c>
       <c r="K4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="N4">
         <v>2</v>
@@ -1209,7 +1251,7 @@
         <v>36</v>
       </c>
       <c r="P4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -1238,13 +1280,13 @@
         <v>171</v>
       </c>
       <c r="K5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N5">
         <v>13</v>
@@ -1253,7 +1295,7 @@
         <v>28</v>
       </c>
       <c r="P5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
@@ -1282,13 +1324,13 @@
         <v>171</v>
       </c>
       <c r="K6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N6">
         <v>12</v>
@@ -1297,7 +1339,7 @@
         <v>33</v>
       </c>
       <c r="P6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
@@ -1326,13 +1368,13 @@
         <v>171</v>
       </c>
       <c r="K7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N7">
         <v>5</v>
@@ -1341,7 +1383,7 @@
         <v>40</v>
       </c>
       <c r="P7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
@@ -1370,13 +1412,13 @@
         <v>171</v>
       </c>
       <c r="K8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L8" t="s">
+        <v>188</v>
+      </c>
+      <c r="M8" t="s">
         <v>190</v>
-      </c>
-      <c r="M8" t="s">
-        <v>192</v>
       </c>
       <c r="N8">
         <v>5</v>
@@ -1385,7 +1427,7 @@
         <v>25</v>
       </c>
       <c r="P8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -1414,13 +1456,13 @@
         <v>171</v>
       </c>
       <c r="K9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N9">
         <v>52</v>
@@ -1429,7 +1471,7 @@
         <v>57</v>
       </c>
       <c r="P9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q9" t="s">
         <v>68</v>
@@ -1464,13 +1506,13 @@
         <v>171</v>
       </c>
       <c r="K10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L10" t="s">
+        <v>188</v>
+      </c>
+      <c r="M10" t="s">
         <v>190</v>
-      </c>
-      <c r="M10" t="s">
-        <v>192</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1479,7 +1521,7 @@
         <v>54</v>
       </c>
       <c r="P10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Q10" t="s">
         <v>68</v>
@@ -1514,16 +1556,16 @@
         <v>171</v>
       </c>
       <c r="K11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
@@ -1552,13 +1594,13 @@
         <v>171</v>
       </c>
       <c r="K12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="N12">
         <v>34</v>
@@ -1567,7 +1609,7 @@
         <v>56</v>
       </c>
       <c r="P12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q12" t="s">
         <v>68</v>
@@ -1602,13 +1644,13 @@
         <v>171</v>
       </c>
       <c r="K13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L13" t="s">
+        <v>188</v>
+      </c>
+      <c r="M13" t="s">
         <v>190</v>
-      </c>
-      <c r="M13" t="s">
-        <v>192</v>
       </c>
       <c r="N13">
         <v>8</v>
@@ -1617,7 +1659,7 @@
         <v>29</v>
       </c>
       <c r="P13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
@@ -1643,7 +1685,7 @@
         <v>171</v>
       </c>
       <c r="L14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
@@ -1672,13 +1714,13 @@
         <v>171</v>
       </c>
       <c r="K15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N15">
         <v>17</v>
@@ -1687,7 +1729,7 @@
         <v>25</v>
       </c>
       <c r="P15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q15" t="s">
         <v>68</v>
@@ -1722,13 +1764,13 @@
         <v>171</v>
       </c>
       <c r="K16" t="s">
+        <v>186</v>
+      </c>
+      <c r="L16" t="s">
         <v>188</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>190</v>
-      </c>
-      <c r="M16" t="s">
-        <v>192</v>
       </c>
       <c r="N16">
         <v>19</v>
@@ -1737,7 +1779,7 @@
         <v>24</v>
       </c>
       <c r="P16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Q16" t="s">
         <v>68</v>
@@ -1769,13 +1811,13 @@
         <v>171</v>
       </c>
       <c r="K17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L17" t="s">
+        <v>188</v>
+      </c>
+      <c r="M17" t="s">
         <v>190</v>
-      </c>
-      <c r="M17" t="s">
-        <v>192</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1784,7 +1826,7 @@
         <v>35</v>
       </c>
       <c r="P17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q17" t="s">
         <v>68</v>
@@ -1859,13 +1901,13 @@
         <v>171</v>
       </c>
       <c r="K20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N20">
         <v>20</v>
@@ -1874,7 +1916,7 @@
         <v>48</v>
       </c>
       <c r="P20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q20" t="s">
         <v>68</v>
@@ -1906,7 +1948,7 @@
         <v>171</v>
       </c>
       <c r="L21" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
@@ -1975,7 +2017,7 @@
         <v>171</v>
       </c>
       <c r="L24" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
@@ -2004,13 +2046,13 @@
         <v>171</v>
       </c>
       <c r="K25" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L25" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M25" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="N25">
         <v>27</v>
@@ -2019,7 +2061,7 @@
         <v>39</v>
       </c>
       <c r="P25" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Q25" t="s">
         <v>68</v>
@@ -2054,13 +2096,13 @@
         <v>171</v>
       </c>
       <c r="K26" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L26" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M26" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N26">
         <v>24</v>
@@ -2069,7 +2111,7 @@
         <v>45</v>
       </c>
       <c r="P26" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q26" t="s">
         <v>68</v>
@@ -2104,13 +2146,13 @@
         <v>171</v>
       </c>
       <c r="K27" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L27" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N27">
         <v>5</v>
@@ -2119,7 +2161,7 @@
         <v>36</v>
       </c>
       <c r="P27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Q27" t="s">
         <v>68</v>
@@ -2151,13 +2193,13 @@
         <v>171</v>
       </c>
       <c r="K28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L28" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M28" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N28">
         <v>28</v>
@@ -2166,7 +2208,7 @@
         <v>40</v>
       </c>
       <c r="P28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q28" t="s">
         <v>68</v>
@@ -2201,13 +2243,13 @@
         <v>170</v>
       </c>
       <c r="K29" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L29" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M29" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2216,7 +2258,7 @@
         <v>21</v>
       </c>
       <c r="P29" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q29" t="s">
         <v>68</v>
@@ -2299,14 +2341,20 @@
       <c r="H32" t="s">
         <v>170</v>
       </c>
+      <c r="I32" t="s">
+        <v>205</v>
+      </c>
+      <c r="J32" t="s">
+        <v>206</v>
+      </c>
       <c r="K32" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L32" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="N32">
         <v>42</v>
@@ -2315,7 +2363,7 @@
         <v>59</v>
       </c>
       <c r="P32" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q32" t="s">
         <v>68</v>
@@ -2349,14 +2397,20 @@
       <c r="H33" t="s">
         <v>170</v>
       </c>
+      <c r="I33" t="s">
+        <v>208</v>
+      </c>
+      <c r="J33" t="s">
+        <v>207</v>
+      </c>
       <c r="K33" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L33" t="s">
+        <v>188</v>
+      </c>
+      <c r="M33" t="s">
         <v>190</v>
-      </c>
-      <c r="M33" t="s">
-        <v>192</v>
       </c>
       <c r="N33">
         <v>12</v>
@@ -2365,7 +2419,7 @@
         <v>39</v>
       </c>
       <c r="P33" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Q33" t="s">
         <v>68</v>
@@ -2394,7 +2448,7 @@
         <v>168</v>
       </c>
       <c r="L34" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
@@ -2469,13 +2523,13 @@
         <v>171</v>
       </c>
       <c r="K37" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L37" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M37" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N37">
         <v>48</v>
@@ -2484,7 +2538,7 @@
         <v>57</v>
       </c>
       <c r="P37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Q37" t="s">
         <v>68</v>
@@ -2542,7 +2596,7 @@
         <v>170</v>
       </c>
       <c r="L39" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
@@ -2570,14 +2624,20 @@
       <c r="H40" t="s">
         <v>170</v>
       </c>
+      <c r="I40" t="s">
+        <v>207</v>
+      </c>
+      <c r="J40" t="s">
+        <v>209</v>
+      </c>
       <c r="K40" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L40" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M40" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N40">
         <v>20</v>
@@ -2586,7 +2646,7 @@
         <v>46</v>
       </c>
       <c r="P40" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q40" t="s">
         <v>68</v>
@@ -2647,13 +2707,13 @@
         <v>170</v>
       </c>
       <c r="K42" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L42" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M42" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N42">
         <v>47</v>
@@ -2662,7 +2722,7 @@
         <v>52</v>
       </c>
       <c r="P42" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q42" t="s">
         <v>68</v>
@@ -2719,14 +2779,20 @@
       <c r="H44" t="s">
         <v>170</v>
       </c>
+      <c r="I44" t="s">
+        <v>206</v>
+      </c>
+      <c r="J44" t="s">
+        <v>205</v>
+      </c>
       <c r="K44" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L44" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M44" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N44">
         <v>34</v>
@@ -2735,7 +2801,7 @@
         <v>37</v>
       </c>
       <c r="P44" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Q44" t="s">
         <v>68</v>
@@ -2770,7 +2836,7 @@
         <v>170</v>
       </c>
       <c r="L45" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
@@ -2798,14 +2864,20 @@
       <c r="H46" t="s">
         <v>170</v>
       </c>
+      <c r="I46" t="s">
+        <v>210</v>
+      </c>
+      <c r="J46" t="s">
+        <v>205</v>
+      </c>
       <c r="K46" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L46" t="s">
+        <v>188</v>
+      </c>
+      <c r="M46" t="s">
         <v>190</v>
-      </c>
-      <c r="M46" t="s">
-        <v>192</v>
       </c>
       <c r="N46">
         <v>29</v>
@@ -2814,7 +2886,7 @@
         <v>38</v>
       </c>
       <c r="P46" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Q46" t="s">
         <v>68</v>
@@ -2848,14 +2920,20 @@
       <c r="H47" t="s">
         <v>170</v>
       </c>
+      <c r="I47" t="s">
+        <v>211</v>
+      </c>
+      <c r="J47" t="s">
+        <v>208</v>
+      </c>
       <c r="K47" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L47" t="s">
+        <v>188</v>
+      </c>
+      <c r="M47" t="s">
         <v>190</v>
-      </c>
-      <c r="M47" t="s">
-        <v>192</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -2864,7 +2942,7 @@
         <v>20</v>
       </c>
       <c r="P47" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Q47" t="s">
         <v>68</v>
@@ -2898,14 +2976,20 @@
       <c r="H48" t="s">
         <v>170</v>
       </c>
+      <c r="I48" t="s">
+        <v>210</v>
+      </c>
+      <c r="J48" t="s">
+        <v>207</v>
+      </c>
       <c r="K48" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L48" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M48" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N48">
         <v>26</v>
@@ -2914,7 +2998,7 @@
         <v>47</v>
       </c>
       <c r="P48" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q48" t="s">
         <v>68</v>
@@ -2948,14 +3032,20 @@
       <c r="H49" t="s">
         <v>170</v>
       </c>
+      <c r="I49" t="s">
+        <v>206</v>
+      </c>
+      <c r="J49" t="s">
+        <v>205</v>
+      </c>
       <c r="K49" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L49" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M49" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N49">
         <v>14</v>
@@ -2964,7 +3054,7 @@
         <v>30</v>
       </c>
       <c r="P49" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Q49" t="s">
         <v>68</v>
@@ -3025,7 +3115,7 @@
         <v>170</v>
       </c>
       <c r="L51" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
@@ -3134,14 +3224,20 @@
       <c r="H55" t="s">
         <v>170</v>
       </c>
+      <c r="I55" t="s">
+        <v>213</v>
+      </c>
+      <c r="J55" t="s">
+        <v>212</v>
+      </c>
       <c r="K55" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L55" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M55" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="N55">
         <v>4</v>
@@ -3150,7 +3246,7 @@
         <v>17</v>
       </c>
       <c r="P55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Q55" t="s">
         <v>68</v>
@@ -3184,17 +3280,20 @@
       <c r="H56" t="s">
         <v>170</v>
       </c>
+      <c r="I56" t="s">
+        <v>214</v>
+      </c>
       <c r="K56" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L56" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M56" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P56" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Q56" t="s">
         <v>68</v>
@@ -3223,7 +3322,7 @@
         <v>170</v>
       </c>
       <c r="L57" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
@@ -3251,14 +3350,20 @@
       <c r="H58" t="s">
         <v>170</v>
       </c>
+      <c r="I58" t="s">
+        <v>210</v>
+      </c>
+      <c r="J58" t="s">
+        <v>208</v>
+      </c>
       <c r="K58" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L58" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M58" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N58">
         <v>16</v>
@@ -3267,7 +3372,7 @@
         <v>25</v>
       </c>
       <c r="P58" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Q58" t="s">
         <v>68</v>
@@ -3301,14 +3406,20 @@
       <c r="H59" t="s">
         <v>170</v>
       </c>
+      <c r="I59" t="s">
+        <v>206</v>
+      </c>
+      <c r="J59" t="s">
+        <v>215</v>
+      </c>
       <c r="K59" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L59" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M59" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N59">
         <v>7</v>
@@ -3317,7 +3428,7 @@
         <v>32</v>
       </c>
       <c r="P59" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Q59" t="s">
         <v>68</v>
@@ -3403,14 +3514,20 @@
       <c r="H62" t="s">
         <v>170</v>
       </c>
+      <c r="I62" t="s">
+        <v>208</v>
+      </c>
+      <c r="J62" t="s">
+        <v>207</v>
+      </c>
       <c r="K62" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L62" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M62" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N62">
         <v>32</v>
@@ -3419,7 +3536,7 @@
         <v>42</v>
       </c>
       <c r="P62" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q62" t="s">
         <v>68</v>
@@ -3453,14 +3570,20 @@
       <c r="H63" t="s">
         <v>170</v>
       </c>
+      <c r="I63" t="s">
+        <v>210</v>
+      </c>
+      <c r="J63" t="s">
+        <v>208</v>
+      </c>
       <c r="K63" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L63" t="s">
+        <v>188</v>
+      </c>
+      <c r="M63" t="s">
         <v>190</v>
-      </c>
-      <c r="M63" t="s">
-        <v>192</v>
       </c>
       <c r="N63">
         <v>14</v>
@@ -3469,7 +3592,7 @@
         <v>34</v>
       </c>
       <c r="P63" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q63" t="s">
         <v>68</v>
@@ -3503,14 +3626,20 @@
       <c r="H64" t="s">
         <v>170</v>
       </c>
+      <c r="I64" t="s">
+        <v>205</v>
+      </c>
+      <c r="J64" t="s">
+        <v>210</v>
+      </c>
       <c r="K64" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="L64" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M64" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N64">
         <v>12</v>
@@ -3519,7 +3648,7 @@
         <v>21</v>
       </c>
       <c r="P64" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q64" t="s">
         <v>68</v>
@@ -3579,14 +3708,20 @@
       <c r="H66" t="s">
         <v>170</v>
       </c>
+      <c r="I66" t="s">
+        <v>214</v>
+      </c>
+      <c r="J66" t="s">
+        <v>216</v>
+      </c>
       <c r="K66" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L66" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M66" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N66">
         <v>3</v>
@@ -3595,7 +3730,7 @@
         <v>21</v>
       </c>
       <c r="P66" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.2">
@@ -3623,14 +3758,20 @@
       <c r="H67" t="s">
         <v>170</v>
       </c>
+      <c r="I67" t="s">
+        <v>207</v>
+      </c>
+      <c r="J67" t="s">
+        <v>209</v>
+      </c>
       <c r="K67" t="s">
+        <v>186</v>
+      </c>
+      <c r="L67" t="s">
         <v>188</v>
       </c>
-      <c r="L67" t="s">
-        <v>190</v>
-      </c>
       <c r="M67" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N67">
         <v>6</v>
@@ -3639,7 +3780,7 @@
         <v>50</v>
       </c>
       <c r="P67" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.2">
@@ -3667,14 +3808,20 @@
       <c r="H68" t="s">
         <v>170</v>
       </c>
+      <c r="I68" t="s">
+        <v>209</v>
+      </c>
+      <c r="J68" t="s">
+        <v>211</v>
+      </c>
       <c r="K68" t="s">
+        <v>186</v>
+      </c>
+      <c r="L68" t="s">
         <v>188</v>
       </c>
-      <c r="L68" t="s">
-        <v>190</v>
-      </c>
       <c r="M68" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N68">
         <v>2</v>
@@ -3683,7 +3830,7 @@
         <v>28</v>
       </c>
       <c r="P68" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
@@ -3711,14 +3858,20 @@
       <c r="H69" t="s">
         <v>170</v>
       </c>
+      <c r="I69" t="s">
+        <v>205</v>
+      </c>
+      <c r="J69" t="s">
+        <v>210</v>
+      </c>
       <c r="K69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M69" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="N69">
         <v>12</v>
@@ -3727,7 +3880,7 @@
         <v>24</v>
       </c>
       <c r="P69" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.2">
@@ -3755,14 +3908,20 @@
       <c r="H70" t="s">
         <v>170</v>
       </c>
+      <c r="I70" t="s">
+        <v>217</v>
+      </c>
+      <c r="J70" t="s">
+        <v>216</v>
+      </c>
       <c r="K70" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L70" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M70" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N70">
         <v>5</v>
@@ -3771,7 +3930,7 @@
         <v>42</v>
       </c>
       <c r="P70" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.2">
@@ -3800,13 +3959,13 @@
         <v>170</v>
       </c>
       <c r="K71" t="s">
+        <v>186</v>
+      </c>
+      <c r="L71" t="s">
         <v>188</v>
       </c>
-      <c r="L71" t="s">
+      <c r="M71" t="s">
         <v>190</v>
-      </c>
-      <c r="M71" t="s">
-        <v>192</v>
       </c>
       <c r="N71">
         <v>13</v>
@@ -3815,7 +3974,7 @@
         <v>20</v>
       </c>
       <c r="P71" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.2">
@@ -3844,13 +4003,13 @@
         <v>170</v>
       </c>
       <c r="K72" t="s">
+        <v>186</v>
+      </c>
+      <c r="L72" t="s">
         <v>188</v>
       </c>
-      <c r="L72" t="s">
+      <c r="M72" t="s">
         <v>190</v>
-      </c>
-      <c r="M72" t="s">
-        <v>192</v>
       </c>
       <c r="N72">
         <v>2</v>
@@ -3859,7 +4018,7 @@
         <v>28</v>
       </c>
       <c r="P72" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
@@ -3887,14 +4046,20 @@
       <c r="H73" t="s">
         <v>170</v>
       </c>
+      <c r="I73" t="s">
+        <v>210</v>
+      </c>
+      <c r="J73" t="s">
+        <v>215</v>
+      </c>
       <c r="K73" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L73" t="s">
+        <v>188</v>
+      </c>
+      <c r="M73" t="s">
         <v>190</v>
-      </c>
-      <c r="M73" t="s">
-        <v>192</v>
       </c>
       <c r="N73">
         <v>16</v>
@@ -3903,7 +4068,7 @@
         <v>31</v>
       </c>
       <c r="P73" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
@@ -3932,7 +4097,7 @@
         <v>170</v>
       </c>
       <c r="L74" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
@@ -3960,14 +4125,20 @@
       <c r="H75" t="s">
         <v>170</v>
       </c>
+      <c r="I75" t="s">
+        <v>218</v>
+      </c>
+      <c r="J75" t="s">
+        <v>210</v>
+      </c>
       <c r="K75" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L75" t="s">
+        <v>188</v>
+      </c>
+      <c r="M75" t="s">
         <v>190</v>
-      </c>
-      <c r="M75" t="s">
-        <v>192</v>
       </c>
       <c r="N75">
         <v>9</v>
@@ -3976,7 +4147,7 @@
         <v>38</v>
       </c>
       <c r="P75" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.2">
@@ -4024,14 +4195,20 @@
       <c r="H77" t="s">
         <v>170</v>
       </c>
+      <c r="I77" t="s">
+        <v>207</v>
+      </c>
+      <c r="J77" t="s">
+        <v>208</v>
+      </c>
       <c r="K77" t="s">
+        <v>186</v>
+      </c>
+      <c r="L77" t="s">
         <v>188</v>
       </c>
-      <c r="L77" t="s">
+      <c r="M77" t="s">
         <v>190</v>
-      </c>
-      <c r="M77" t="s">
-        <v>192</v>
       </c>
       <c r="N77">
         <v>9</v>
@@ -4040,7 +4217,7 @@
         <v>24</v>
       </c>
       <c r="P77" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.2">
@@ -4062,14 +4239,20 @@
       <c r="H78" t="s">
         <v>170</v>
       </c>
+      <c r="I78" t="s">
+        <v>211</v>
+      </c>
+      <c r="J78" t="s">
+        <v>208</v>
+      </c>
       <c r="K78" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L78" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M78" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N78">
         <v>12</v>
@@ -4078,15 +4261,15 @@
         <v>25</v>
       </c>
       <c r="P78" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B79" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C79" t="s">
         <v>68</v>
@@ -4107,10 +4290,10 @@
         <v>171</v>
       </c>
       <c r="K79" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L79" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="N79">
         <v>23</v>
@@ -4119,15 +4302,15 @@
         <v>37</v>
       </c>
       <c r="P79" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B80" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C80" t="s">
         <v>68</v>
@@ -4148,10 +4331,10 @@
         <v>171</v>
       </c>
       <c r="K80" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="N80">
         <v>5</v>
@@ -4160,15 +4343,15 @@
         <v>36</v>
       </c>
       <c r="P80" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B81" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C81" t="s">
         <v>68</v>
@@ -4189,24 +4372,24 @@
         <v>171</v>
       </c>
       <c r="K81" t="s">
+        <v>189</v>
+      </c>
+      <c r="L81" t="s">
+        <v>187</v>
+      </c>
+      <c r="M81" t="s">
+        <v>192</v>
+      </c>
+      <c r="P81" t="s">
         <v>191</v>
-      </c>
-      <c r="L81" t="s">
-        <v>189</v>
-      </c>
-      <c r="M81" t="s">
-        <v>194</v>
-      </c>
-      <c r="P81" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B82" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C82" t="s">
         <v>68</v>
@@ -4227,13 +4410,13 @@
         <v>171</v>
       </c>
       <c r="K82" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L82" t="s">
+        <v>188</v>
+      </c>
+      <c r="M82" t="s">
         <v>190</v>
-      </c>
-      <c r="M82" t="s">
-        <v>192</v>
       </c>
       <c r="N82">
         <v>31</v>
@@ -4242,15 +4425,15 @@
         <v>33</v>
       </c>
       <c r="P82" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B83" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C83" t="s">
         <v>68</v>
@@ -4271,10 +4454,10 @@
         <v>171</v>
       </c>
       <c r="K83" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L83" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="N83">
         <v>5</v>
@@ -4283,15 +4466,15 @@
         <v>10</v>
       </c>
       <c r="P83" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B84" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C84" t="s">
         <v>68</v>
@@ -4312,24 +4495,24 @@
         <v>171</v>
       </c>
       <c r="K84" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L84" t="s">
+        <v>188</v>
+      </c>
+      <c r="M84" t="s">
         <v>190</v>
       </c>
-      <c r="M84" t="s">
-        <v>192</v>
-      </c>
       <c r="P84" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>182</v>
+      </c>
+      <c r="B85" t="s">
         <v>184</v>
-      </c>
-      <c r="B85" t="s">
-        <v>186</v>
       </c>
       <c r="C85" t="s">
         <v>68</v>
@@ -4350,13 +4533,13 @@
         <v>171</v>
       </c>
       <c r="K85" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L85" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M85" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N85">
         <v>4</v>
@@ -4365,15 +4548,15 @@
         <v>5</v>
       </c>
       <c r="P85" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B86" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C86" t="s">
         <v>68</v>
@@ -4394,16 +4577,16 @@
         <v>171</v>
       </c>
       <c r="K86" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L86" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M86" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P86" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/data/atlas_project_metadata.xlsx
+++ b/data/atlas_project_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbernabei/Documents/PhD_Research/atlas_project/iEEG_atlas/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDB8478-84E1-624A-B758-8F56359E3668}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB76763-57B0-8042-8260-FD4F8725CA1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7940" yWindow="760" windowWidth="25260" windowHeight="17720" xr2:uid="{55386E59-C2B1-FE47-8A03-2662CFD6A014}"/>
   </bookViews>
@@ -1035,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEE15CE-15A7-E440-8B77-868E4F33ECBC}">
   <dimension ref="A1:S86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="K72" sqref="K72:L72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/atlas_project_metadata.xlsx
+++ b/data/atlas_project_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbernabei/Documents/PhD_Research/atlas_project/iEEG_atlas/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB76763-57B0-8042-8260-FD4F8725CA1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABB4270-52B0-CD42-A046-E1F6ECB90241}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7940" yWindow="760" windowWidth="25260" windowHeight="17720" xr2:uid="{55386E59-C2B1-FE47-8A03-2662CFD6A014}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="224">
   <si>
     <t>Patient</t>
   </si>
@@ -682,6 +682,21 @@
   </si>
   <si>
     <t>L_Insular</t>
+  </si>
+  <si>
+    <t>Prior_surgery</t>
+  </si>
+  <si>
+    <t>PET_lesion</t>
+  </si>
+  <si>
+    <t>Generalized_sz</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -1033,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEE15CE-15A7-E440-8B77-868E4F33ECBC}">
-  <dimension ref="A1:S86"/>
+  <dimension ref="A1:V86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="K72" sqref="K72:L72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q79" sqref="Q79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1060,7 +1075,7 @@
     <col min="19" max="19" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1110,16 +1125,25 @@
         <v>175</v>
       </c>
       <c r="Q1" t="s">
+        <v>219</v>
+      </c>
+      <c r="R1" t="s">
+        <v>220</v>
+      </c>
+      <c r="S1" t="s">
+        <v>221</v>
+      </c>
+      <c r="T1" t="s">
         <v>5</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>4</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1160,13 +1184,19 @@
         <v>193</v>
       </c>
       <c r="Q2" t="s">
-        <v>68</v>
+        <v>222</v>
       </c>
       <c r="S2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="T2" t="s">
+        <v>68</v>
+      </c>
+      <c r="V2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1209,8 +1239,11 @@
       <c r="P3" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1253,8 +1286,11 @@
       <c r="P4" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1297,8 +1333,11 @@
       <c r="P5" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1341,8 +1380,11 @@
       <c r="P6" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1385,8 +1427,11 @@
       <c r="P7" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1429,8 +1474,11 @@
       <c r="P8" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1473,14 +1521,17 @@
       <c r="P9" t="s">
         <v>193</v>
       </c>
-      <c r="Q9" t="s">
-        <v>68</v>
-      </c>
       <c r="S9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="T9" t="s">
+        <v>68</v>
+      </c>
+      <c r="V9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1523,14 +1574,17 @@
       <c r="P10" t="s">
         <v>191</v>
       </c>
-      <c r="Q10" t="s">
-        <v>68</v>
-      </c>
       <c r="S10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="T10" t="s">
+        <v>68</v>
+      </c>
+      <c r="V10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1567,8 +1621,11 @@
       <c r="P11" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1611,14 +1668,17 @@
       <c r="P12" t="s">
         <v>193</v>
       </c>
-      <c r="Q12" t="s">
-        <v>68</v>
-      </c>
       <c r="S12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="T12" t="s">
+        <v>68</v>
+      </c>
+      <c r="V12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -1661,8 +1721,11 @@
       <c r="P13" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -1688,7 +1751,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1731,14 +1794,17 @@
       <c r="P15" t="s">
         <v>193</v>
       </c>
-      <c r="Q15" t="s">
-        <v>68</v>
-      </c>
       <c r="S15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="T15" t="s">
+        <v>68</v>
+      </c>
+      <c r="V15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1781,11 +1847,14 @@
       <c r="P16" t="s">
         <v>191</v>
       </c>
-      <c r="Q16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S16" t="s">
+        <v>223</v>
+      </c>
+      <c r="T16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1828,14 +1897,17 @@
       <c r="P17" t="s">
         <v>193</v>
       </c>
-      <c r="Q17" t="s">
-        <v>68</v>
-      </c>
       <c r="S17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="T17" t="s">
+        <v>68</v>
+      </c>
+      <c r="V17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -1855,7 +1927,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -1875,7 +1947,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1918,14 +1990,17 @@
       <c r="P20" t="s">
         <v>193</v>
       </c>
-      <c r="Q20" t="s">
-        <v>68</v>
-      </c>
       <c r="S20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="T20" t="s">
+        <v>68</v>
+      </c>
+      <c r="V20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>83</v>
       </c>
@@ -1951,7 +2026,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>79</v>
       </c>
@@ -1971,7 +2046,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -1991,7 +2066,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -2020,7 +2095,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -2063,14 +2138,17 @@
       <c r="P25" t="s">
         <v>191</v>
       </c>
-      <c r="Q25" t="s">
-        <v>68</v>
-      </c>
       <c r="S25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="T25" t="s">
+        <v>68</v>
+      </c>
+      <c r="V25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -2113,14 +2191,17 @@
       <c r="P26" t="s">
         <v>193</v>
       </c>
-      <c r="Q26" t="s">
-        <v>68</v>
-      </c>
       <c r="S26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="T26" t="s">
+        <v>68</v>
+      </c>
+      <c r="V26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -2163,11 +2244,14 @@
       <c r="P27" t="s">
         <v>191</v>
       </c>
-      <c r="Q27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S27" t="s">
+        <v>222</v>
+      </c>
+      <c r="T27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -2210,14 +2294,17 @@
       <c r="P28" t="s">
         <v>193</v>
       </c>
-      <c r="Q28" t="s">
-        <v>68</v>
-      </c>
       <c r="S28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="T28" t="s">
+        <v>68</v>
+      </c>
+      <c r="V28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -2261,13 +2348,16 @@
         <v>193</v>
       </c>
       <c r="Q29" t="s">
-        <v>68</v>
-      </c>
-      <c r="S29" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="T29" t="s">
+        <v>68</v>
+      </c>
+      <c r="V29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>81</v>
       </c>
@@ -2287,7 +2377,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -2309,14 +2399,14 @@
       <c r="H31" t="s">
         <v>171</v>
       </c>
-      <c r="Q31" t="s">
-        <v>68</v>
-      </c>
-      <c r="S31" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T31" t="s">
+        <v>68</v>
+      </c>
+      <c r="V31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -2366,13 +2456,19 @@
         <v>193</v>
       </c>
       <c r="Q32" t="s">
-        <v>68</v>
+        <v>223</v>
       </c>
       <c r="S32" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="T32" t="s">
+        <v>68</v>
+      </c>
+      <c r="V32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -2422,13 +2518,19 @@
         <v>191</v>
       </c>
       <c r="Q33" t="s">
-        <v>68</v>
+        <v>222</v>
       </c>
       <c r="S33" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="T33" t="s">
+        <v>68</v>
+      </c>
+      <c r="V33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>85</v>
       </c>
@@ -2451,7 +2553,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -2470,11 +2572,11 @@
       <c r="H35" t="s">
         <v>171</v>
       </c>
-      <c r="Q35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -2490,14 +2592,14 @@
       <c r="H36" t="s">
         <v>171</v>
       </c>
-      <c r="Q36" t="s">
-        <v>68</v>
-      </c>
-      <c r="S36" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T36" t="s">
+        <v>68</v>
+      </c>
+      <c r="V36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -2540,14 +2642,14 @@
       <c r="P37" t="s">
         <v>191</v>
       </c>
-      <c r="Q37" t="s">
-        <v>68</v>
-      </c>
-      <c r="S37" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T37" t="s">
+        <v>68</v>
+      </c>
+      <c r="V37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -2566,11 +2668,11 @@
       <c r="H38" t="s">
         <v>171</v>
       </c>
-      <c r="Q38" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>86</v>
       </c>
@@ -2599,7 +2701,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -2649,13 +2751,19 @@
         <v>193</v>
       </c>
       <c r="Q40" t="s">
-        <v>68</v>
+        <v>223</v>
       </c>
       <c r="S40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="T40" t="s">
+        <v>68</v>
+      </c>
+      <c r="V40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -2674,14 +2782,14 @@
       <c r="H41" t="s">
         <v>170</v>
       </c>
-      <c r="Q41" t="s">
-        <v>68</v>
-      </c>
-      <c r="S41" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T41" t="s">
+        <v>68</v>
+      </c>
+      <c r="V41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>35</v>
       </c>
@@ -2725,13 +2833,19 @@
         <v>193</v>
       </c>
       <c r="Q42" t="s">
-        <v>68</v>
+        <v>223</v>
       </c>
       <c r="S42" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="T42" t="s">
+        <v>68</v>
+      </c>
+      <c r="V42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>36</v>
       </c>
@@ -2750,14 +2864,14 @@
       <c r="H43" t="s">
         <v>170</v>
       </c>
-      <c r="Q43" t="s">
-        <v>68</v>
-      </c>
-      <c r="S43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T43" t="s">
+        <v>68</v>
+      </c>
+      <c r="V43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -2804,13 +2918,19 @@
         <v>191</v>
       </c>
       <c r="Q44" t="s">
-        <v>68</v>
+        <v>223</v>
       </c>
       <c r="S44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="T44" t="s">
+        <v>68</v>
+      </c>
+      <c r="V44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>87</v>
       </c>
@@ -2839,7 +2959,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -2889,13 +3009,19 @@
         <v>191</v>
       </c>
       <c r="Q46" t="s">
-        <v>68</v>
+        <v>223</v>
       </c>
       <c r="S46" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="T46" t="s">
+        <v>68</v>
+      </c>
+      <c r="V46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -2945,13 +3071,19 @@
         <v>191</v>
       </c>
       <c r="Q47" t="s">
-        <v>68</v>
+        <v>222</v>
       </c>
       <c r="S47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="T47" t="s">
+        <v>68</v>
+      </c>
+      <c r="V47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>40</v>
       </c>
@@ -3001,13 +3133,19 @@
         <v>193</v>
       </c>
       <c r="Q48" t="s">
-        <v>68</v>
+        <v>223</v>
       </c>
       <c r="S48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="T48" t="s">
+        <v>68</v>
+      </c>
+      <c r="V48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -3057,13 +3195,19 @@
         <v>191</v>
       </c>
       <c r="Q49" t="s">
-        <v>68</v>
+        <v>223</v>
       </c>
       <c r="S49" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="T49" t="s">
+        <v>68</v>
+      </c>
+      <c r="V49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -3082,14 +3226,14 @@
       <c r="H50" t="s">
         <v>170</v>
       </c>
-      <c r="Q50" t="s">
-        <v>68</v>
-      </c>
-      <c r="S50" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T50" t="s">
+        <v>68</v>
+      </c>
+      <c r="V50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>88</v>
       </c>
@@ -3118,7 +3262,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>43</v>
       </c>
@@ -3137,14 +3281,14 @@
       <c r="H52" t="s">
         <v>170</v>
       </c>
-      <c r="Q52" t="s">
-        <v>68</v>
-      </c>
-      <c r="S52" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T52" t="s">
+        <v>68</v>
+      </c>
+      <c r="V52" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -3163,14 +3307,14 @@
       <c r="H53" t="s">
         <v>170</v>
       </c>
-      <c r="Q53" t="s">
-        <v>68</v>
-      </c>
-      <c r="S53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T53" t="s">
+        <v>68</v>
+      </c>
+      <c r="V53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>44</v>
       </c>
@@ -3193,13 +3337,16 @@
         <v>170</v>
       </c>
       <c r="Q54" t="s">
-        <v>68</v>
-      </c>
-      <c r="S54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="T54" t="s">
+        <v>68</v>
+      </c>
+      <c r="V54" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>46</v>
       </c>
@@ -3249,13 +3396,19 @@
         <v>191</v>
       </c>
       <c r="Q55" t="s">
-        <v>68</v>
+        <v>223</v>
       </c>
       <c r="S55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="T55" t="s">
+        <v>68</v>
+      </c>
+      <c r="V55" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>47</v>
       </c>
@@ -3296,13 +3449,19 @@
         <v>191</v>
       </c>
       <c r="Q56" t="s">
-        <v>68</v>
+        <v>223</v>
       </c>
       <c r="S56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="T56" t="s">
+        <v>68</v>
+      </c>
+      <c r="V56" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>89</v>
       </c>
@@ -3325,7 +3484,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>48</v>
       </c>
@@ -3375,13 +3534,19 @@
         <v>191</v>
       </c>
       <c r="Q58" t="s">
-        <v>68</v>
+        <v>223</v>
       </c>
       <c r="S58" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="T58" t="s">
+        <v>68</v>
+      </c>
+      <c r="V58" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>49</v>
       </c>
@@ -3431,13 +3596,19 @@
         <v>191</v>
       </c>
       <c r="Q59" t="s">
-        <v>68</v>
+        <v>223</v>
       </c>
       <c r="S59" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="T59" t="s">
+        <v>68</v>
+      </c>
+      <c r="V59" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>50</v>
       </c>
@@ -3456,14 +3627,14 @@
       <c r="H60" t="s">
         <v>170</v>
       </c>
-      <c r="Q60" t="s">
-        <v>68</v>
-      </c>
-      <c r="S60" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T60" t="s">
+        <v>68</v>
+      </c>
+      <c r="V60" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>51</v>
       </c>
@@ -3482,14 +3653,14 @@
       <c r="H61" t="s">
         <v>170</v>
       </c>
-      <c r="Q61" t="s">
-        <v>68</v>
-      </c>
-      <c r="S61" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T61" t="s">
+        <v>68</v>
+      </c>
+      <c r="V61" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>52</v>
       </c>
@@ -3539,13 +3710,19 @@
         <v>193</v>
       </c>
       <c r="Q62" t="s">
-        <v>68</v>
+        <v>223</v>
       </c>
       <c r="S62" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="T62" t="s">
+        <v>68</v>
+      </c>
+      <c r="V62" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>53</v>
       </c>
@@ -3595,13 +3772,19 @@
         <v>193</v>
       </c>
       <c r="Q63" t="s">
-        <v>68</v>
+        <v>223</v>
       </c>
       <c r="S63" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="T63" t="s">
+        <v>68</v>
+      </c>
+      <c r="V63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>54</v>
       </c>
@@ -3650,14 +3833,14 @@
       <c r="P64" t="s">
         <v>193</v>
       </c>
-      <c r="Q64" t="s">
-        <v>68</v>
-      </c>
-      <c r="S64" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T64" t="s">
+        <v>68</v>
+      </c>
+      <c r="V64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>55</v>
       </c>
@@ -3676,14 +3859,14 @@
       <c r="H65" t="s">
         <v>170</v>
       </c>
-      <c r="Q65" t="s">
-        <v>68</v>
-      </c>
-      <c r="S65" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T65" t="s">
+        <v>68</v>
+      </c>
+      <c r="V65" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>56</v>
       </c>
@@ -3732,8 +3915,14 @@
       <c r="P66" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q66" t="s">
+        <v>223</v>
+      </c>
+      <c r="S66" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>57</v>
       </c>
@@ -3782,8 +3971,14 @@
       <c r="P67" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q67" t="s">
+        <v>223</v>
+      </c>
+      <c r="S67" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>58</v>
       </c>
@@ -3832,8 +4027,14 @@
       <c r="P68" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q68" t="s">
+        <v>223</v>
+      </c>
+      <c r="S68" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>59</v>
       </c>
@@ -3882,8 +4083,11 @@
       <c r="P69" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q69" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>60</v>
       </c>
@@ -3932,8 +4136,14 @@
       <c r="P70" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q70" t="s">
+        <v>223</v>
+      </c>
+      <c r="S70" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>61</v>
       </c>
@@ -3976,8 +4186,11 @@
       <c r="P71" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q71" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>62</v>
       </c>
@@ -4020,8 +4233,11 @@
       <c r="P72" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q72" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>63</v>
       </c>
@@ -4070,8 +4286,14 @@
       <c r="P73" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q73" t="s">
+        <v>223</v>
+      </c>
+      <c r="S73" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>90</v>
       </c>
@@ -4100,7 +4322,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>64</v>
       </c>
@@ -4149,8 +4371,14 @@
       <c r="P75" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q75" t="s">
+        <v>223</v>
+      </c>
+      <c r="S75" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>65</v>
       </c>
@@ -4170,7 +4398,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>66</v>
       </c>
@@ -4219,8 +4447,11 @@
       <c r="P77" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q77" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>67</v>
       </c>
@@ -4263,8 +4494,14 @@
       <c r="P78" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q78" t="s">
+        <v>223</v>
+      </c>
+      <c r="S78" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>176</v>
       </c>
@@ -4305,7 +4542,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>177</v>
       </c>

--- a/data/atlas_project_metadata.xlsx
+++ b/data/atlas_project_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbernabei/Documents/PhD_Research/atlas_project/iEEG_atlas/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABB4270-52B0-CD42-A046-E1F6ECB90241}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59E353C-E351-F445-86D2-E0B1D40BAE1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7940" yWindow="760" windowWidth="25260" windowHeight="17720" xr2:uid="{55386E59-C2B1-FE47-8A03-2662CFD6A014}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="224">
   <si>
     <t>Patient</t>
   </si>
@@ -1051,7 +1051,7 @@
   <dimension ref="A1:V86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q79" sqref="Q79"/>
+      <selection activeCell="S84" sqref="S84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4541,6 +4541,9 @@
       <c r="P79" t="s">
         <v>191</v>
       </c>
+      <c r="S79" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
@@ -4582,8 +4585,11 @@
       <c r="P80" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S80" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>178</v>
       </c>
@@ -4621,7 +4627,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>179</v>
       </c>
@@ -4664,8 +4670,11 @@
       <c r="P82" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S82" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>180</v>
       </c>
@@ -4706,7 +4715,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>181</v>
       </c>
@@ -4744,7 +4753,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>182</v>
       </c>
@@ -4788,7 +4797,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>183</v>
       </c>
@@ -4824,6 +4833,9 @@
       </c>
       <c r="P86" t="s">
         <v>193</v>
+      </c>
+      <c r="S86" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/data/atlas_project_metadata.xlsx
+++ b/data/atlas_project_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbernabei/Documents/PhD_Research/atlas_project/iEEG_atlas/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59E353C-E351-F445-86D2-E0B1D40BAE1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07062504-0A4C-A94E-87D4-6A3984CD9C1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7940" yWindow="760" windowWidth="25260" windowHeight="17720" xr2:uid="{55386E59-C2B1-FE47-8A03-2662CFD6A014}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="224">
   <si>
     <t>Patient</t>
   </si>
@@ -1050,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEE15CE-15A7-E440-8B77-868E4F33ECBC}">
   <dimension ref="A1:V86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S84" sqref="S84"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2586,8 +2586,17 @@
       <c r="C36" t="s">
         <v>68</v>
       </c>
+      <c r="D36" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" t="s">
+        <v>68</v>
+      </c>
       <c r="F36" t="s">
         <v>70</v>
+      </c>
+      <c r="G36" t="s">
+        <v>172</v>
       </c>
       <c r="H36" t="s">
         <v>171</v>
@@ -2659,6 +2668,12 @@
       <c r="C38" t="s">
         <v>68</v>
       </c>
+      <c r="D38" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" t="s">
+        <v>68</v>
+      </c>
       <c r="F38" t="s">
         <v>71</v>
       </c>
@@ -2855,6 +2870,12 @@
       <c r="C43" t="s">
         <v>68</v>
       </c>
+      <c r="D43" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" t="s">
+        <v>68</v>
+      </c>
       <c r="F43" t="s">
         <v>71</v>
       </c>
@@ -3644,6 +3665,9 @@
       <c r="C61" t="s">
         <v>68</v>
       </c>
+      <c r="D61" t="s">
+        <v>68</v>
+      </c>
       <c r="F61" t="s">
         <v>69</v>
       </c>
@@ -3850,6 +3874,9 @@
       <c r="C65" t="s">
         <v>68</v>
       </c>
+      <c r="D65" t="s">
+        <v>68</v>
+      </c>
       <c r="F65" t="s">
         <v>70</v>
       </c>
@@ -4386,6 +4413,12 @@
         <v>116</v>
       </c>
       <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>68</v>
+      </c>
+      <c r="E76" t="s">
         <v>68</v>
       </c>
       <c r="F76" t="s">

--- a/data/atlas_project_metadata.xlsx
+++ b/data/atlas_project_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbernabei/Documents/PhD_Research/atlas_project/iEEG_atlas/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07062504-0A4C-A94E-87D4-6A3984CD9C1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8030506-1485-F149-AF9D-F46D564D1F00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7940" yWindow="760" windowWidth="25260" windowHeight="17720" xr2:uid="{55386E59-C2B1-FE47-8A03-2662CFD6A014}"/>
+    <workbookView xWindow="11620" yWindow="2560" windowWidth="25260" windowHeight="17720" xr2:uid="{55386E59-C2B1-FE47-8A03-2662CFD6A014}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="206">
   <si>
     <t>Patient</t>
   </si>
@@ -273,33 +273,6 @@
     <t>HUP113</t>
   </si>
   <si>
-    <t>HUP084</t>
-  </si>
-  <si>
-    <t>HUP096</t>
-  </si>
-  <si>
-    <t>HUP101</t>
-  </si>
-  <si>
-    <t>HUP119</t>
-  </si>
-  <si>
-    <t>HUP127</t>
-  </si>
-  <si>
-    <t>HUP137</t>
-  </si>
-  <si>
-    <t>HUP143</t>
-  </si>
-  <si>
-    <t>HUP153</t>
-  </si>
-  <si>
-    <t>HUP182</t>
-  </si>
-  <si>
     <t>RID0490</t>
   </si>
   <si>
@@ -378,9 +351,6 @@
     <t>RID0522</t>
   </si>
   <si>
-    <t>RID0502</t>
-  </si>
-  <si>
     <t>RID0230</t>
   </si>
   <si>
@@ -393,36 +363,24 @@
     <t>RID0381</t>
   </si>
   <si>
-    <t>RID0328</t>
-  </si>
-  <si>
     <t>RID0301</t>
   </si>
   <si>
     <t>RID0112</t>
   </si>
   <si>
-    <t>RID0206</t>
-  </si>
-  <si>
     <t>RID0295</t>
   </si>
   <si>
     <t>RID0320</t>
   </si>
   <si>
-    <t>RID0280</t>
-  </si>
-  <si>
     <t>RID0194</t>
   </si>
   <si>
     <t>RID0282</t>
   </si>
   <si>
-    <t>RID0186</t>
-  </si>
-  <si>
     <t>RID0089</t>
   </si>
   <si>
@@ -435,9 +393,6 @@
     <t>RID0193</t>
   </si>
   <si>
-    <t>RID0213</t>
-  </si>
-  <si>
     <t>RID0192</t>
   </si>
   <si>
@@ -462,18 +417,12 @@
     <t>RID0101</t>
   </si>
   <si>
-    <t>RID0102</t>
-  </si>
-  <si>
     <t>RID0032</t>
   </si>
   <si>
     <t>RID0033</t>
   </si>
   <si>
-    <t>RID0030</t>
-  </si>
-  <si>
     <t>RID0051</t>
   </si>
   <si>
@@ -492,9 +441,6 @@
     <t>RID0018</t>
   </si>
   <si>
-    <t>RID0015</t>
-  </si>
-  <si>
     <t>RID0014</t>
   </si>
   <si>
@@ -531,9 +477,6 @@
     <t>patient_data.mat</t>
   </si>
   <si>
-    <t>RNS</t>
-  </si>
-  <si>
     <t>Echobase</t>
   </si>
   <si>
@@ -612,9 +555,6 @@
     <t>Parietal</t>
   </si>
   <si>
-    <t>Bilateral</t>
-  </si>
-  <si>
     <t>Insular</t>
   </si>
   <si>
@@ -697,6 +637,12 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>no elecs</t>
+  </si>
+  <si>
+    <t>??</t>
   </si>
 </sst>
 </file>
@@ -1050,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEE15CE-15A7-E440-8B77-868E4F33ECBC}">
   <dimension ref="A1:V86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1083,10 +1029,10 @@
         <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="D1" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -1098,40 +1044,40 @@
         <v>75</v>
       </c>
       <c r="H1" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="I1" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="J1" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="K1" t="s">
         <v>76</v>
       </c>
       <c r="L1" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="M1" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="N1" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="O1" t="s">
+        <v>179</v>
+      </c>
+      <c r="P1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q1" t="s">
         <v>199</v>
       </c>
-      <c r="P1" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>219</v>
-      </c>
       <c r="R1" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="S1" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="T1" t="s">
         <v>5</v>
@@ -1163,16 +1109,16 @@
         <v>69</v>
       </c>
       <c r="G2" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="H2" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="K2" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="L2" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="N2">
         <v>12</v>
@@ -1181,13 +1127,13 @@
         <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="Q2" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="S2" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="T2" t="s">
         <v>68</v>
@@ -1201,7 +1147,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="C3" t="s">
         <v>68</v>
@@ -1216,19 +1162,19 @@
         <v>71</v>
       </c>
       <c r="G3" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H3" t="s">
+        <v>152</v>
+      </c>
+      <c r="K3" t="s">
+        <v>167</v>
+      </c>
+      <c r="L3" t="s">
+        <v>169</v>
+      </c>
+      <c r="M3" t="s">
         <v>171</v>
-      </c>
-      <c r="K3" t="s">
-        <v>186</v>
-      </c>
-      <c r="L3" t="s">
-        <v>188</v>
-      </c>
-      <c r="M3" t="s">
-        <v>190</v>
       </c>
       <c r="N3">
         <v>3</v>
@@ -1237,10 +1183,10 @@
         <v>21</v>
       </c>
       <c r="P3" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="S3" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -1248,7 +1194,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
         <v>68</v>
@@ -1263,19 +1209,19 @@
         <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H4" t="s">
+        <v>152</v>
+      </c>
+      <c r="K4" t="s">
+        <v>170</v>
+      </c>
+      <c r="L4" t="s">
+        <v>168</v>
+      </c>
+      <c r="M4" t="s">
         <v>171</v>
-      </c>
-      <c r="K4" t="s">
-        <v>189</v>
-      </c>
-      <c r="L4" t="s">
-        <v>187</v>
-      </c>
-      <c r="M4" t="s">
-        <v>190</v>
       </c>
       <c r="N4">
         <v>2</v>
@@ -1284,10 +1230,10 @@
         <v>36</v>
       </c>
       <c r="P4" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="S4" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -1295,7 +1241,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C5" t="s">
         <v>68</v>
@@ -1310,19 +1256,19 @@
         <v>71</v>
       </c>
       <c r="G5" t="s">
+        <v>154</v>
+      </c>
+      <c r="H5" t="s">
+        <v>152</v>
+      </c>
+      <c r="K5" t="s">
+        <v>170</v>
+      </c>
+      <c r="L5" t="s">
+        <v>168</v>
+      </c>
+      <c r="M5" t="s">
         <v>173</v>
-      </c>
-      <c r="H5" t="s">
-        <v>171</v>
-      </c>
-      <c r="K5" t="s">
-        <v>189</v>
-      </c>
-      <c r="L5" t="s">
-        <v>187</v>
-      </c>
-      <c r="M5" t="s">
-        <v>192</v>
       </c>
       <c r="N5">
         <v>13</v>
@@ -1331,10 +1277,10 @@
         <v>28</v>
       </c>
       <c r="P5" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="S5" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -1342,7 +1288,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
         <v>68</v>
@@ -1357,19 +1303,19 @@
         <v>70</v>
       </c>
       <c r="G6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H6" t="s">
+        <v>152</v>
+      </c>
+      <c r="K6" t="s">
+        <v>180</v>
+      </c>
+      <c r="L6" t="s">
+        <v>169</v>
+      </c>
+      <c r="M6" t="s">
         <v>173</v>
-      </c>
-      <c r="H6" t="s">
-        <v>171</v>
-      </c>
-      <c r="K6" t="s">
-        <v>200</v>
-      </c>
-      <c r="L6" t="s">
-        <v>188</v>
-      </c>
-      <c r="M6" t="s">
-        <v>192</v>
       </c>
       <c r="N6">
         <v>12</v>
@@ -1378,10 +1324,10 @@
         <v>33</v>
       </c>
       <c r="P6" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="S6" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
@@ -1389,7 +1335,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C7" t="s">
         <v>68</v>
@@ -1404,19 +1350,19 @@
         <v>70</v>
       </c>
       <c r="G7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M7" t="s">
         <v>173</v>
-      </c>
-      <c r="H7" t="s">
-        <v>171</v>
-      </c>
-      <c r="K7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L7" t="s">
-        <v>187</v>
-      </c>
-      <c r="M7" t="s">
-        <v>192</v>
       </c>
       <c r="N7">
         <v>5</v>
@@ -1425,10 +1371,10 @@
         <v>40</v>
       </c>
       <c r="P7" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="S7" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
@@ -1436,7 +1382,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="C8" t="s">
         <v>68</v>
@@ -1451,19 +1397,19 @@
         <v>70</v>
       </c>
       <c r="G8" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H8" t="s">
+        <v>152</v>
+      </c>
+      <c r="K8" t="s">
+        <v>170</v>
+      </c>
+      <c r="L8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M8" t="s">
         <v>171</v>
-      </c>
-      <c r="K8" t="s">
-        <v>189</v>
-      </c>
-      <c r="L8" t="s">
-        <v>188</v>
-      </c>
-      <c r="M8" t="s">
-        <v>190</v>
       </c>
       <c r="N8">
         <v>5</v>
@@ -1472,10 +1418,10 @@
         <v>25</v>
       </c>
       <c r="P8" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="S8" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -1483,7 +1429,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="C9" t="s">
         <v>68</v>
@@ -1498,19 +1444,19 @@
         <v>69</v>
       </c>
       <c r="G9" t="s">
+        <v>154</v>
+      </c>
+      <c r="H9" t="s">
+        <v>152</v>
+      </c>
+      <c r="K9" t="s">
+        <v>170</v>
+      </c>
+      <c r="L9" t="s">
+        <v>169</v>
+      </c>
+      <c r="M9" t="s">
         <v>173</v>
-      </c>
-      <c r="H9" t="s">
-        <v>171</v>
-      </c>
-      <c r="K9" t="s">
-        <v>189</v>
-      </c>
-      <c r="L9" t="s">
-        <v>188</v>
-      </c>
-      <c r="M9" t="s">
-        <v>192</v>
       </c>
       <c r="N9">
         <v>52</v>
@@ -1519,10 +1465,10 @@
         <v>57</v>
       </c>
       <c r="P9" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="S9" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="T9" t="s">
         <v>68</v>
@@ -1536,7 +1482,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s">
         <v>68</v>
@@ -1551,19 +1497,19 @@
         <v>69</v>
       </c>
       <c r="G10" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H10" t="s">
+        <v>152</v>
+      </c>
+      <c r="K10" t="s">
+        <v>170</v>
+      </c>
+      <c r="L10" t="s">
+        <v>169</v>
+      </c>
+      <c r="M10" t="s">
         <v>171</v>
-      </c>
-      <c r="K10" t="s">
-        <v>189</v>
-      </c>
-      <c r="L10" t="s">
-        <v>188</v>
-      </c>
-      <c r="M10" t="s">
-        <v>190</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1572,10 +1518,10 @@
         <v>54</v>
       </c>
       <c r="P10" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="S10" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="T10" t="s">
         <v>68</v>
@@ -1589,7 +1535,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="C11" t="s">
         <v>68</v>
@@ -1604,25 +1550,25 @@
         <v>69</v>
       </c>
       <c r="G11" t="s">
+        <v>154</v>
+      </c>
+      <c r="H11" t="s">
+        <v>152</v>
+      </c>
+      <c r="K11" t="s">
+        <v>170</v>
+      </c>
+      <c r="L11" t="s">
+        <v>169</v>
+      </c>
+      <c r="M11" t="s">
         <v>173</v>
       </c>
-      <c r="H11" t="s">
-        <v>171</v>
-      </c>
-      <c r="K11" t="s">
-        <v>189</v>
-      </c>
-      <c r="L11" t="s">
-        <v>188</v>
-      </c>
-      <c r="M11" t="s">
-        <v>192</v>
-      </c>
       <c r="P11" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="S11" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
@@ -1630,7 +1576,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="C12" t="s">
         <v>68</v>
@@ -1645,19 +1591,19 @@
         <v>70</v>
       </c>
       <c r="G12" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H12" t="s">
+        <v>152</v>
+      </c>
+      <c r="K12" t="s">
+        <v>170</v>
+      </c>
+      <c r="L12" t="s">
+        <v>168</v>
+      </c>
+      <c r="M12" t="s">
         <v>171</v>
-      </c>
-      <c r="K12" t="s">
-        <v>189</v>
-      </c>
-      <c r="L12" t="s">
-        <v>187</v>
-      </c>
-      <c r="M12" t="s">
-        <v>190</v>
       </c>
       <c r="N12">
         <v>34</v>
@@ -1666,10 +1612,10 @@
         <v>56</v>
       </c>
       <c r="P12" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="S12" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="T12" t="s">
         <v>68</v>
@@ -1683,13 +1629,13 @@
         <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="C13" t="s">
         <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>205</v>
       </c>
       <c r="E13" t="s">
         <v>68</v>
@@ -1698,19 +1644,19 @@
         <v>69</v>
       </c>
       <c r="G13" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H13" t="s">
+        <v>152</v>
+      </c>
+      <c r="K13" t="s">
+        <v>175</v>
+      </c>
+      <c r="L13" t="s">
+        <v>169</v>
+      </c>
+      <c r="M13" t="s">
         <v>171</v>
-      </c>
-      <c r="K13" t="s">
-        <v>194</v>
-      </c>
-      <c r="L13" t="s">
-        <v>188</v>
-      </c>
-      <c r="M13" t="s">
-        <v>190</v>
       </c>
       <c r="N13">
         <v>8</v>
@@ -1719,36 +1665,10 @@
         <v>29</v>
       </c>
       <c r="P13" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="S13" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" t="s">
-        <v>155</v>
-      </c>
-      <c r="C14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" t="s">
-        <v>168</v>
-      </c>
-      <c r="F14" t="s">
-        <v>168</v>
-      </c>
-      <c r="G14" t="s">
-        <v>168</v>
-      </c>
-      <c r="H14" t="s">
-        <v>171</v>
-      </c>
-      <c r="L14" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
@@ -1756,13 +1676,13 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="C15" t="s">
         <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>205</v>
       </c>
       <c r="E15" t="s">
         <v>68</v>
@@ -1771,19 +1691,19 @@
         <v>70</v>
       </c>
       <c r="G15" t="s">
+        <v>154</v>
+      </c>
+      <c r="H15" t="s">
+        <v>152</v>
+      </c>
+      <c r="K15" t="s">
+        <v>170</v>
+      </c>
+      <c r="L15" t="s">
+        <v>169</v>
+      </c>
+      <c r="M15" t="s">
         <v>173</v>
-      </c>
-      <c r="H15" t="s">
-        <v>171</v>
-      </c>
-      <c r="K15" t="s">
-        <v>189</v>
-      </c>
-      <c r="L15" t="s">
-        <v>188</v>
-      </c>
-      <c r="M15" t="s">
-        <v>192</v>
       </c>
       <c r="N15">
         <v>17</v>
@@ -1792,10 +1712,10 @@
         <v>25</v>
       </c>
       <c r="P15" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="S15" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="T15" t="s">
         <v>68</v>
@@ -1809,7 +1729,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="C16" t="s">
         <v>68</v>
@@ -1824,19 +1744,19 @@
         <v>70</v>
       </c>
       <c r="G16" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H16" t="s">
+        <v>152</v>
+      </c>
+      <c r="K16" t="s">
+        <v>167</v>
+      </c>
+      <c r="L16" t="s">
+        <v>169</v>
+      </c>
+      <c r="M16" t="s">
         <v>171</v>
-      </c>
-      <c r="K16" t="s">
-        <v>186</v>
-      </c>
-      <c r="L16" t="s">
-        <v>188</v>
-      </c>
-      <c r="M16" t="s">
-        <v>190</v>
       </c>
       <c r="N16">
         <v>19</v>
@@ -1845,10 +1765,10 @@
         <v>24</v>
       </c>
       <c r="P16" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="S16" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="T16" t="s">
         <v>68</v>
@@ -1859,7 +1779,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="C17" t="s">
         <v>68</v>
@@ -1874,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="G17" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H17" t="s">
+        <v>152</v>
+      </c>
+      <c r="K17" t="s">
+        <v>170</v>
+      </c>
+      <c r="L17" t="s">
+        <v>169</v>
+      </c>
+      <c r="M17" t="s">
         <v>171</v>
-      </c>
-      <c r="K17" t="s">
-        <v>189</v>
-      </c>
-      <c r="L17" t="s">
-        <v>188</v>
-      </c>
-      <c r="M17" t="s">
-        <v>190</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1895,10 +1815,10 @@
         <v>35</v>
       </c>
       <c r="P17" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="S17" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="T17" t="s">
         <v>68</v>
@@ -1912,7 +1832,7 @@
         <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C18" t="s">
         <v>68</v>
@@ -1921,10 +1841,10 @@
         <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H18" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
@@ -1932,7 +1852,7 @@
         <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C19" t="s">
         <v>68</v>
@@ -1941,10 +1861,10 @@
         <v>69</v>
       </c>
       <c r="G19" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H19" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
@@ -1952,7 +1872,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C20" t="s">
         <v>68</v>
@@ -1967,19 +1887,19 @@
         <v>70</v>
       </c>
       <c r="G20" t="s">
+        <v>154</v>
+      </c>
+      <c r="H20" t="s">
+        <v>152</v>
+      </c>
+      <c r="K20" t="s">
+        <v>170</v>
+      </c>
+      <c r="L20" t="s">
+        <v>168</v>
+      </c>
+      <c r="M20" t="s">
         <v>173</v>
-      </c>
-      <c r="H20" t="s">
-        <v>171</v>
-      </c>
-      <c r="K20" t="s">
-        <v>189</v>
-      </c>
-      <c r="L20" t="s">
-        <v>187</v>
-      </c>
-      <c r="M20" t="s">
-        <v>192</v>
       </c>
       <c r="N20">
         <v>20</v>
@@ -1988,42 +1908,16 @@
         <v>48</v>
       </c>
       <c r="P20" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="S20" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="T20" t="s">
         <v>68</v>
       </c>
       <c r="V20" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" t="s">
-        <v>148</v>
-      </c>
-      <c r="C21" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" t="s">
-        <v>168</v>
-      </c>
-      <c r="F21" t="s">
-        <v>168</v>
-      </c>
-      <c r="G21" t="s">
-        <v>168</v>
-      </c>
-      <c r="H21" t="s">
-        <v>171</v>
-      </c>
-      <c r="L21" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
@@ -2031,7 +1925,7 @@
         <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C22" t="s">
         <v>68</v>
@@ -2040,10 +1934,10 @@
         <v>70</v>
       </c>
       <c r="G22" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H22" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
@@ -2051,7 +1945,7 @@
         <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="C23" t="s">
         <v>68</v>
@@ -2060,39 +1954,10 @@
         <v>69</v>
       </c>
       <c r="G23" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H23" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" t="s">
-        <v>145</v>
-      </c>
-      <c r="C24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" t="s">
-        <v>168</v>
-      </c>
-      <c r="F24" t="s">
-        <v>168</v>
-      </c>
-      <c r="G24" t="s">
-        <v>168</v>
-      </c>
-      <c r="H24" t="s">
-        <v>171</v>
-      </c>
-      <c r="L24" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
@@ -2100,7 +1965,7 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="C25" t="s">
         <v>68</v>
@@ -2115,19 +1980,19 @@
         <v>70</v>
       </c>
       <c r="G25" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H25" t="s">
+        <v>152</v>
+      </c>
+      <c r="K25" t="s">
+        <v>170</v>
+      </c>
+      <c r="L25" t="s">
+        <v>168</v>
+      </c>
+      <c r="M25" t="s">
         <v>171</v>
-      </c>
-      <c r="K25" t="s">
-        <v>189</v>
-      </c>
-      <c r="L25" t="s">
-        <v>187</v>
-      </c>
-      <c r="M25" t="s">
-        <v>190</v>
       </c>
       <c r="N25">
         <v>27</v>
@@ -2136,10 +2001,10 @@
         <v>39</v>
       </c>
       <c r="P25" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="S25" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="T25" t="s">
         <v>68</v>
@@ -2153,7 +2018,7 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="C26" t="s">
         <v>68</v>
@@ -2168,19 +2033,19 @@
         <v>70</v>
       </c>
       <c r="G26" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" t="s">
+        <v>152</v>
+      </c>
+      <c r="K26" t="s">
+        <v>170</v>
+      </c>
+      <c r="L26" t="s">
+        <v>169</v>
+      </c>
+      <c r="M26" t="s">
         <v>173</v>
-      </c>
-      <c r="H26" t="s">
-        <v>171</v>
-      </c>
-      <c r="K26" t="s">
-        <v>189</v>
-      </c>
-      <c r="L26" t="s">
-        <v>188</v>
-      </c>
-      <c r="M26" t="s">
-        <v>192</v>
       </c>
       <c r="N26">
         <v>24</v>
@@ -2189,10 +2054,10 @@
         <v>45</v>
       </c>
       <c r="P26" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="S26" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="T26" t="s">
         <v>68</v>
@@ -2206,7 +2071,7 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -2221,19 +2086,19 @@
         <v>70</v>
       </c>
       <c r="G27" t="s">
+        <v>154</v>
+      </c>
+      <c r="H27" t="s">
+        <v>152</v>
+      </c>
+      <c r="K27" t="s">
+        <v>170</v>
+      </c>
+      <c r="L27" t="s">
+        <v>168</v>
+      </c>
+      <c r="M27" t="s">
         <v>173</v>
-      </c>
-      <c r="H27" t="s">
-        <v>171</v>
-      </c>
-      <c r="K27" t="s">
-        <v>189</v>
-      </c>
-      <c r="L27" t="s">
-        <v>187</v>
-      </c>
-      <c r="M27" t="s">
-        <v>192</v>
       </c>
       <c r="N27">
         <v>5</v>
@@ -2242,10 +2107,10 @@
         <v>36</v>
       </c>
       <c r="P27" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="S27" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="T27" t="s">
         <v>68</v>
@@ -2256,7 +2121,7 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -2271,19 +2136,19 @@
         <v>70</v>
       </c>
       <c r="G28" t="s">
+        <v>154</v>
+      </c>
+      <c r="H28" t="s">
+        <v>152</v>
+      </c>
+      <c r="K28" t="s">
+        <v>170</v>
+      </c>
+      <c r="L28" t="s">
+        <v>168</v>
+      </c>
+      <c r="M28" t="s">
         <v>173</v>
-      </c>
-      <c r="H28" t="s">
-        <v>171</v>
-      </c>
-      <c r="K28" t="s">
-        <v>189</v>
-      </c>
-      <c r="L28" t="s">
-        <v>187</v>
-      </c>
-      <c r="M28" t="s">
-        <v>192</v>
       </c>
       <c r="N28">
         <v>28</v>
@@ -2292,10 +2157,10 @@
         <v>40</v>
       </c>
       <c r="P28" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="S28" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="T28" t="s">
         <v>68</v>
@@ -2309,7 +2174,7 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -2324,19 +2189,19 @@
         <v>69</v>
       </c>
       <c r="G29" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="H29" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="K29" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="L29" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="M29" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2345,10 +2210,10 @@
         <v>21</v>
       </c>
       <c r="P29" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="Q29" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="T29" t="s">
         <v>68</v>
@@ -2362,7 +2227,7 @@
         <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -2371,10 +2236,10 @@
         <v>71</v>
       </c>
       <c r="G30" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H30" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
@@ -2382,9 +2247,12 @@
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
         <v>68</v>
       </c>
       <c r="E31" t="s">
@@ -2394,10 +2262,22 @@
         <v>69</v>
       </c>
       <c r="G31" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="H31" t="s">
-        <v>171</v>
+        <v>152</v>
+      </c>
+      <c r="N31">
+        <v>23</v>
+      </c>
+      <c r="O31">
+        <v>42</v>
+      </c>
+      <c r="P31" t="s">
+        <v>174</v>
+      </c>
+      <c r="S31" t="s">
+        <v>202</v>
       </c>
       <c r="T31" t="s">
         <v>68</v>
@@ -2411,7 +2291,7 @@
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="C32" t="s">
         <v>68</v>
@@ -2426,25 +2306,25 @@
         <v>70</v>
       </c>
       <c r="G32" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="H32" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="I32" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="J32" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="K32" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="L32" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="M32" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="N32">
         <v>42</v>
@@ -2453,13 +2333,13 @@
         <v>59</v>
       </c>
       <c r="P32" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="Q32" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="S32" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="T32" t="s">
         <v>68</v>
@@ -2473,7 +2353,7 @@
         <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C33" t="s">
         <v>68</v>
@@ -2488,25 +2368,25 @@
         <v>70</v>
       </c>
       <c r="G33" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H33" t="s">
+        <v>151</v>
+      </c>
+      <c r="I33" t="s">
+        <v>188</v>
+      </c>
+      <c r="J33" t="s">
+        <v>187</v>
+      </c>
+      <c r="K33" t="s">
         <v>170</v>
       </c>
-      <c r="I33" t="s">
-        <v>208</v>
-      </c>
-      <c r="J33" t="s">
-        <v>207</v>
-      </c>
-      <c r="K33" t="s">
-        <v>189</v>
-      </c>
       <c r="L33" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="M33" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="N33">
         <v>12</v>
@@ -2515,42 +2395,19 @@
         <v>39</v>
       </c>
       <c r="P33" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="Q33" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="S33" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="T33" t="s">
         <v>68</v>
       </c>
       <c r="V33" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>85</v>
-      </c>
-      <c r="B34" t="s">
-        <v>136</v>
-      </c>
-      <c r="C34" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" t="s">
-        <v>168</v>
-      </c>
-      <c r="F34" t="s">
-        <v>168</v>
-      </c>
-      <c r="G34" t="s">
-        <v>168</v>
-      </c>
-      <c r="L34" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
@@ -2558,19 +2415,34 @@
         <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" t="s">
         <v>68</v>
       </c>
       <c r="F35" t="s">
         <v>70</v>
       </c>
       <c r="G35" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H35" t="s">
-        <v>171</v>
+        <v>152</v>
+      </c>
+      <c r="N35">
+        <v>33</v>
+      </c>
+      <c r="O35">
+        <v>36</v>
+      </c>
+      <c r="P35" t="s">
+        <v>172</v>
       </c>
       <c r="T35" t="s">
         <v>68</v>
@@ -2581,7 +2453,7 @@
         <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C36" t="s">
         <v>68</v>
@@ -2596,10 +2468,19 @@
         <v>70</v>
       </c>
       <c r="G36" t="s">
+        <v>153</v>
+      </c>
+      <c r="H36" t="s">
+        <v>152</v>
+      </c>
+      <c r="N36">
+        <v>44</v>
+      </c>
+      <c r="O36">
+        <v>45</v>
+      </c>
+      <c r="P36" t="s">
         <v>172</v>
-      </c>
-      <c r="H36" t="s">
-        <v>171</v>
       </c>
       <c r="T36" t="s">
         <v>68</v>
@@ -2613,7 +2494,7 @@
         <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C37" t="s">
         <v>68</v>
@@ -2628,19 +2509,19 @@
         <v>71</v>
       </c>
       <c r="G37" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="H37" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="K37" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="L37" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="M37" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="N37">
         <v>48</v>
@@ -2649,7 +2530,7 @@
         <v>57</v>
       </c>
       <c r="P37" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="T37" t="s">
         <v>68</v>
@@ -2663,7 +2544,7 @@
         <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C38" t="s">
         <v>68</v>
@@ -2678,42 +2559,22 @@
         <v>71</v>
       </c>
       <c r="G38" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="H38" t="s">
-        <v>171</v>
+        <v>152</v>
+      </c>
+      <c r="N38">
+        <v>22</v>
+      </c>
+      <c r="O38">
+        <v>26</v>
+      </c>
+      <c r="P38" t="s">
+        <v>174</v>
       </c>
       <c r="T38" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>86</v>
-      </c>
-      <c r="B39" t="s">
-        <v>131</v>
-      </c>
-      <c r="C39" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" t="s">
-        <v>68</v>
-      </c>
-      <c r="E39" t="s">
-        <v>168</v>
-      </c>
-      <c r="F39" t="s">
-        <v>168</v>
-      </c>
-      <c r="G39" t="s">
-        <v>168</v>
-      </c>
-      <c r="H39" t="s">
-        <v>170</v>
-      </c>
-      <c r="L39" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
@@ -2721,7 +2582,7 @@
         <v>33</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C40" t="s">
         <v>68</v>
@@ -2736,25 +2597,25 @@
         <v>70</v>
       </c>
       <c r="G40" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="H40" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="I40" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="J40" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="K40" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="L40" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="M40" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="N40">
         <v>20</v>
@@ -2763,13 +2624,13 @@
         <v>46</v>
       </c>
       <c r="P40" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="Q40" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="S40" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="T40" t="s">
         <v>68</v>
@@ -2783,19 +2644,22 @@
         <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C41" t="s">
         <v>68</v>
+      </c>
+      <c r="E41" t="s">
+        <v>204</v>
       </c>
       <c r="F41" t="s">
         <v>69</v>
       </c>
       <c r="G41" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="H41" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="T41" t="s">
         <v>68</v>
@@ -2809,7 +2673,7 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C42" t="s">
         <v>68</v>
@@ -2824,19 +2688,19 @@
         <v>69</v>
       </c>
       <c r="G42" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="H42" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="K42" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="L42" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="M42" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="N42">
         <v>47</v>
@@ -2845,13 +2709,13 @@
         <v>52</v>
       </c>
       <c r="P42" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="Q42" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="S42" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="T42" t="s">
         <v>68</v>
@@ -2865,7 +2729,7 @@
         <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C43" t="s">
         <v>68</v>
@@ -2880,10 +2744,25 @@
         <v>71</v>
       </c>
       <c r="G43" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H43" t="s">
-        <v>170</v>
+        <v>151</v>
+      </c>
+      <c r="K43" t="s">
+        <v>167</v>
+      </c>
+      <c r="M43" t="s">
+        <v>171</v>
+      </c>
+      <c r="N43">
+        <v>8</v>
+      </c>
+      <c r="O43">
+        <v>32</v>
+      </c>
+      <c r="P43" t="s">
+        <v>172</v>
       </c>
       <c r="T43" t="s">
         <v>68</v>
@@ -2897,10 +2776,13 @@
         <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C44" t="s">
         <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>205</v>
       </c>
       <c r="E44" t="s">
         <v>68</v>
@@ -2909,25 +2791,25 @@
         <v>69</v>
       </c>
       <c r="G44" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="H44" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="I44" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="J44" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="K44" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="L44" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="M44" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="N44">
         <v>34</v>
@@ -2936,48 +2818,19 @@
         <v>37</v>
       </c>
       <c r="P44" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="Q44" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="S44" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="T44" t="s">
         <v>68</v>
       </c>
       <c r="V44" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>87</v>
-      </c>
-      <c r="B45" t="s">
-        <v>128</v>
-      </c>
-      <c r="C45" t="s">
-        <v>68</v>
-      </c>
-      <c r="D45" t="s">
-        <v>68</v>
-      </c>
-      <c r="E45" t="s">
-        <v>168</v>
-      </c>
-      <c r="F45" t="s">
-        <v>168</v>
-      </c>
-      <c r="G45" t="s">
-        <v>168</v>
-      </c>
-      <c r="H45" t="s">
-        <v>170</v>
-      </c>
-      <c r="L45" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
@@ -2985,7 +2838,7 @@
         <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C46" t="s">
         <v>68</v>
@@ -3000,25 +2853,25 @@
         <v>69</v>
       </c>
       <c r="G46" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="H46" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="I46" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="J46" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="K46" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="L46" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="M46" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="N46">
         <v>29</v>
@@ -3027,13 +2880,13 @@
         <v>38</v>
       </c>
       <c r="P46" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="Q46" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="S46" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="T46" t="s">
         <v>68</v>
@@ -3047,7 +2900,7 @@
         <v>39</v>
       </c>
       <c r="B47" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C47" t="s">
         <v>68</v>
@@ -3062,25 +2915,25 @@
         <v>70</v>
       </c>
       <c r="G47" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="H47" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="I47" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="J47" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="K47" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="L47" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="M47" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3089,13 +2942,13 @@
         <v>20</v>
       </c>
       <c r="P47" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="Q47" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="S47" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="T47" t="s">
         <v>68</v>
@@ -3109,7 +2962,7 @@
         <v>40</v>
       </c>
       <c r="B48" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C48" t="s">
         <v>68</v>
@@ -3124,25 +2977,25 @@
         <v>70</v>
       </c>
       <c r="G48" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="H48" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="I48" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="J48" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="K48" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="L48" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="M48" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="N48">
         <v>26</v>
@@ -3151,13 +3004,13 @@
         <v>47</v>
       </c>
       <c r="P48" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="Q48" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="S48" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="T48" t="s">
         <v>68</v>
@@ -3171,7 +3024,7 @@
         <v>41</v>
       </c>
       <c r="B49" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C49" t="s">
         <v>68</v>
@@ -3186,25 +3039,25 @@
         <v>69</v>
       </c>
       <c r="G49" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="H49" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="I49" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="J49" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="K49" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="L49" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="M49" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="N49">
         <v>14</v>
@@ -3213,13 +3066,13 @@
         <v>30</v>
       </c>
       <c r="P49" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="Q49" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="S49" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="T49" t="s">
         <v>68</v>
@@ -3233,54 +3086,43 @@
         <v>42</v>
       </c>
       <c r="B50" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="E50" t="s">
         <v>68</v>
       </c>
       <c r="F50" t="s">
         <v>69</v>
       </c>
       <c r="G50" t="s">
+        <v>153</v>
+      </c>
+      <c r="H50" t="s">
+        <v>151</v>
+      </c>
+      <c r="M50" t="s">
+        <v>171</v>
+      </c>
+      <c r="N50">
+        <v>15</v>
+      </c>
+      <c r="O50">
+        <v>30</v>
+      </c>
+      <c r="P50" t="s">
         <v>172</v>
       </c>
-      <c r="H50" t="s">
-        <v>170</v>
+      <c r="Q50" t="s">
+        <v>203</v>
       </c>
       <c r="T50" t="s">
         <v>68</v>
       </c>
       <c r="V50" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>88</v>
-      </c>
-      <c r="B51" t="s">
-        <v>125</v>
-      </c>
-      <c r="C51" t="s">
-        <v>68</v>
-      </c>
-      <c r="D51" t="s">
-        <v>68</v>
-      </c>
-      <c r="E51" t="s">
-        <v>168</v>
-      </c>
-      <c r="F51" t="s">
-        <v>168</v>
-      </c>
-      <c r="G51" t="s">
-        <v>168</v>
-      </c>
-      <c r="H51" t="s">
-        <v>170</v>
-      </c>
-      <c r="L51" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.2">
@@ -3288,19 +3130,40 @@
         <v>43</v>
       </c>
       <c r="B52" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E52" t="s">
         <v>68</v>
       </c>
       <c r="F52" t="s">
         <v>71</v>
       </c>
       <c r="G52" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H52" t="s">
-        <v>170</v>
+        <v>151</v>
+      </c>
+      <c r="M52" t="s">
+        <v>171</v>
+      </c>
+      <c r="N52">
+        <v>5</v>
+      </c>
+      <c r="O52">
+        <v>31</v>
+      </c>
+      <c r="P52" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>202</v>
       </c>
       <c r="T52" t="s">
         <v>68</v>
@@ -3314,19 +3177,40 @@
         <v>45</v>
       </c>
       <c r="B53" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>68</v>
+      </c>
+      <c r="E53" t="s">
         <v>68</v>
       </c>
       <c r="F53" t="s">
         <v>70</v>
       </c>
       <c r="G53" t="s">
+        <v>154</v>
+      </c>
+      <c r="H53" t="s">
+        <v>151</v>
+      </c>
+      <c r="K53" t="s">
+        <v>170</v>
+      </c>
+      <c r="M53" t="s">
         <v>173</v>
       </c>
-      <c r="H53" t="s">
-        <v>170</v>
+      <c r="N53">
+        <v>4</v>
+      </c>
+      <c r="O53">
+        <v>16</v>
+      </c>
+      <c r="P53" t="s">
+        <v>172</v>
       </c>
       <c r="T53" t="s">
         <v>68</v>
@@ -3340,10 +3224,13 @@
         <v>44</v>
       </c>
       <c r="B54" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C54" t="s">
         <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>205</v>
       </c>
       <c r="E54" t="s">
         <v>68</v>
@@ -3352,13 +3239,25 @@
         <v>70</v>
       </c>
       <c r="G54" t="s">
+        <v>153</v>
+      </c>
+      <c r="H54" t="s">
+        <v>151</v>
+      </c>
+      <c r="M54" t="s">
+        <v>171</v>
+      </c>
+      <c r="N54">
+        <v>16</v>
+      </c>
+      <c r="O54">
+        <v>23</v>
+      </c>
+      <c r="P54" t="s">
         <v>172</v>
       </c>
-      <c r="H54" t="s">
-        <v>170</v>
-      </c>
       <c r="Q54" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="T54" t="s">
         <v>68</v>
@@ -3372,7 +3271,7 @@
         <v>46</v>
       </c>
       <c r="B55" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C55" t="s">
         <v>68</v>
@@ -3387,25 +3286,25 @@
         <v>70</v>
       </c>
       <c r="G55" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="H55" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="I55" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="J55" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="K55" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="L55" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="M55" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="N55">
         <v>4</v>
@@ -3414,13 +3313,13 @@
         <v>17</v>
       </c>
       <c r="P55" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="Q55" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="S55" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="T55" t="s">
         <v>68</v>
@@ -3434,7 +3333,7 @@
         <v>47</v>
       </c>
       <c r="B56" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C56" t="s">
         <v>68</v>
@@ -3449,60 +3348,37 @@
         <v>70</v>
       </c>
       <c r="G56" t="s">
+        <v>153</v>
+      </c>
+      <c r="H56" t="s">
+        <v>151</v>
+      </c>
+      <c r="I56" t="s">
+        <v>194</v>
+      </c>
+      <c r="K56" t="s">
+        <v>182</v>
+      </c>
+      <c r="L56" t="s">
+        <v>168</v>
+      </c>
+      <c r="M56" t="s">
+        <v>173</v>
+      </c>
+      <c r="P56" t="s">
         <v>172</v>
       </c>
-      <c r="H56" t="s">
-        <v>170</v>
-      </c>
-      <c r="I56" t="s">
-        <v>214</v>
-      </c>
-      <c r="K56" t="s">
+      <c r="Q56" t="s">
+        <v>203</v>
+      </c>
+      <c r="S56" t="s">
         <v>202</v>
       </c>
-      <c r="L56" t="s">
-        <v>187</v>
-      </c>
-      <c r="M56" t="s">
-        <v>192</v>
-      </c>
-      <c r="P56" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>223</v>
-      </c>
-      <c r="S56" t="s">
-        <v>222</v>
-      </c>
       <c r="T56" t="s">
         <v>68</v>
       </c>
       <c r="V56" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>89</v>
-      </c>
-      <c r="B57" t="s">
-        <v>122</v>
-      </c>
-      <c r="E57" t="s">
-        <v>168</v>
-      </c>
-      <c r="F57" t="s">
-        <v>168</v>
-      </c>
-      <c r="G57" t="s">
-        <v>168</v>
-      </c>
-      <c r="H57" t="s">
-        <v>170</v>
-      </c>
-      <c r="L57" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.2">
@@ -3510,7 +3386,7 @@
         <v>48</v>
       </c>
       <c r="B58" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C58" t="s">
         <v>68</v>
@@ -3525,25 +3401,25 @@
         <v>70</v>
       </c>
       <c r="G58" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="H58" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="I58" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="J58" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="K58" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="L58" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="M58" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="N58">
         <v>16</v>
@@ -3552,13 +3428,13 @@
         <v>25</v>
       </c>
       <c r="P58" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="Q58" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="S58" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="T58" t="s">
         <v>68</v>
@@ -3572,7 +3448,7 @@
         <v>49</v>
       </c>
       <c r="B59" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C59" t="s">
         <v>68</v>
@@ -3587,25 +3463,25 @@
         <v>69</v>
       </c>
       <c r="G59" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="H59" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="I59" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="J59" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="K59" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="L59" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="M59" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="N59">
         <v>7</v>
@@ -3614,13 +3490,13 @@
         <v>32</v>
       </c>
       <c r="P59" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="Q59" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="S59" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="T59" t="s">
         <v>68</v>
@@ -3634,19 +3510,43 @@
         <v>50</v>
       </c>
       <c r="B60" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>68</v>
+      </c>
+      <c r="E60" t="s">
         <v>68</v>
       </c>
       <c r="F60" t="s">
         <v>71</v>
       </c>
       <c r="G60" t="s">
+        <v>154</v>
+      </c>
+      <c r="H60" t="s">
+        <v>151</v>
+      </c>
+      <c r="K60" t="s">
+        <v>170</v>
+      </c>
+      <c r="M60" t="s">
         <v>173</v>
       </c>
-      <c r="H60" t="s">
-        <v>170</v>
+      <c r="N60">
+        <v>15</v>
+      </c>
+      <c r="O60">
+        <v>45</v>
+      </c>
+      <c r="P60" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>203</v>
       </c>
       <c r="T60" t="s">
         <v>68</v>
@@ -3660,22 +3560,43 @@
         <v>51</v>
       </c>
       <c r="B61" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
       </c>
       <c r="D61" t="s">
+        <v>68</v>
+      </c>
+      <c r="E61" t="s">
         <v>68</v>
       </c>
       <c r="F61" t="s">
         <v>69</v>
       </c>
       <c r="G61" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="H61" t="s">
-        <v>170</v>
+        <v>151</v>
+      </c>
+      <c r="K61" t="s">
+        <v>181</v>
+      </c>
+      <c r="M61" t="s">
+        <v>173</v>
+      </c>
+      <c r="N61">
+        <v>21</v>
+      </c>
+      <c r="O61">
+        <v>35</v>
+      </c>
+      <c r="P61" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>203</v>
       </c>
       <c r="T61" t="s">
         <v>68</v>
@@ -3689,7 +3610,7 @@
         <v>52</v>
       </c>
       <c r="B62" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C62" t="s">
         <v>68</v>
@@ -3704,25 +3625,25 @@
         <v>70</v>
       </c>
       <c r="G62" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="H62" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="I62" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="J62" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="K62" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="L62" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="M62" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="N62">
         <v>32</v>
@@ -3731,13 +3652,13 @@
         <v>42</v>
       </c>
       <c r="P62" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="Q62" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="S62" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="T62" t="s">
         <v>68</v>
@@ -3751,7 +3672,7 @@
         <v>53</v>
       </c>
       <c r="B63" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C63" t="s">
         <v>68</v>
@@ -3766,25 +3687,25 @@
         <v>70</v>
       </c>
       <c r="G63" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="H63" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="I63" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="J63" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="K63" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="L63" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="M63" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="N63">
         <v>14</v>
@@ -3793,13 +3714,13 @@
         <v>34</v>
       </c>
       <c r="P63" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="Q63" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="S63" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="T63" t="s">
         <v>68</v>
@@ -3813,7 +3734,7 @@
         <v>54</v>
       </c>
       <c r="B64" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C64" t="s">
         <v>68</v>
@@ -3828,25 +3749,25 @@
         <v>70</v>
       </c>
       <c r="G64" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="H64" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="I64" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="J64" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="K64" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="L64" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="M64" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="N64">
         <v>12</v>
@@ -3855,7 +3776,7 @@
         <v>21</v>
       </c>
       <c r="P64" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="T64" t="s">
         <v>68</v>
@@ -3869,22 +3790,40 @@
         <v>55</v>
       </c>
       <c r="B65" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C65" t="s">
         <v>68</v>
       </c>
       <c r="D65" t="s">
+        <v>68</v>
+      </c>
+      <c r="E65" t="s">
         <v>68</v>
       </c>
       <c r="F65" t="s">
         <v>70</v>
       </c>
       <c r="G65" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H65" t="s">
+        <v>151</v>
+      </c>
+      <c r="K65" t="s">
         <v>170</v>
+      </c>
+      <c r="N65">
+        <v>4</v>
+      </c>
+      <c r="O65">
+        <v>26</v>
+      </c>
+      <c r="P65" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>202</v>
       </c>
       <c r="T65" t="s">
         <v>68</v>
@@ -3898,7 +3837,7 @@
         <v>56</v>
       </c>
       <c r="B66" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C66" t="s">
         <v>68</v>
@@ -3913,25 +3852,25 @@
         <v>69</v>
       </c>
       <c r="G66" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="H66" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="I66" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="J66" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="K66" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="L66" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="M66" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="N66">
         <v>3</v>
@@ -3940,13 +3879,13 @@
         <v>21</v>
       </c>
       <c r="P66" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="Q66" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="S66" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
@@ -3954,7 +3893,7 @@
         <v>57</v>
       </c>
       <c r="B67" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C67" t="s">
         <v>68</v>
@@ -3969,25 +3908,25 @@
         <v>69</v>
       </c>
       <c r="G67" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="H67" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="I67" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="J67" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="K67" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="L67" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="M67" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="N67">
         <v>6</v>
@@ -3996,13 +3935,13 @@
         <v>50</v>
       </c>
       <c r="P67" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="Q67" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="S67" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
@@ -4010,7 +3949,7 @@
         <v>58</v>
       </c>
       <c r="B68" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C68" t="s">
         <v>68</v>
@@ -4025,25 +3964,25 @@
         <v>69</v>
       </c>
       <c r="G68" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="H68" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="I68" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="J68" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="K68" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="L68" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="M68" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="N68">
         <v>2</v>
@@ -4052,13 +3991,13 @@
         <v>28</v>
       </c>
       <c r="P68" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="Q68" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="S68" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.2">
@@ -4066,7 +4005,7 @@
         <v>59</v>
       </c>
       <c r="B69" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C69" t="s">
         <v>68</v>
@@ -4081,25 +4020,25 @@
         <v>70</v>
       </c>
       <c r="G69" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H69" t="s">
+        <v>151</v>
+      </c>
+      <c r="I69" t="s">
+        <v>185</v>
+      </c>
+      <c r="J69" t="s">
+        <v>190</v>
+      </c>
+      <c r="K69" t="s">
         <v>170</v>
       </c>
-      <c r="I69" t="s">
-        <v>205</v>
-      </c>
-      <c r="J69" t="s">
-        <v>210</v>
-      </c>
-      <c r="K69" t="s">
-        <v>189</v>
-      </c>
       <c r="L69" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="M69" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="N69">
         <v>12</v>
@@ -4108,10 +4047,10 @@
         <v>24</v>
       </c>
       <c r="P69" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="Q69" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
@@ -4119,7 +4058,7 @@
         <v>60</v>
       </c>
       <c r="B70" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C70" t="s">
         <v>68</v>
@@ -4134,25 +4073,25 @@
         <v>70</v>
       </c>
       <c r="G70" t="s">
+        <v>154</v>
+      </c>
+      <c r="H70" t="s">
+        <v>151</v>
+      </c>
+      <c r="I70" t="s">
+        <v>197</v>
+      </c>
+      <c r="J70" t="s">
+        <v>196</v>
+      </c>
+      <c r="K70" t="s">
+        <v>170</v>
+      </c>
+      <c r="L70" t="s">
+        <v>168</v>
+      </c>
+      <c r="M70" t="s">
         <v>173</v>
-      </c>
-      <c r="H70" t="s">
-        <v>170</v>
-      </c>
-      <c r="I70" t="s">
-        <v>217</v>
-      </c>
-      <c r="J70" t="s">
-        <v>216</v>
-      </c>
-      <c r="K70" t="s">
-        <v>189</v>
-      </c>
-      <c r="L70" t="s">
-        <v>187</v>
-      </c>
-      <c r="M70" t="s">
-        <v>192</v>
       </c>
       <c r="N70">
         <v>5</v>
@@ -4161,13 +4100,13 @@
         <v>42</v>
       </c>
       <c r="P70" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="Q70" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="S70" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
@@ -4175,7 +4114,7 @@
         <v>61</v>
       </c>
       <c r="B71" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C71" t="s">
         <v>68</v>
@@ -4190,19 +4129,19 @@
         <v>71</v>
       </c>
       <c r="G71" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H71" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="K71" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="L71" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="M71" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="N71">
         <v>13</v>
@@ -4211,10 +4150,10 @@
         <v>20</v>
       </c>
       <c r="P71" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="Q71" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
@@ -4222,7 +4161,7 @@
         <v>62</v>
       </c>
       <c r="B72" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C72" t="s">
         <v>68</v>
@@ -4237,19 +4176,19 @@
         <v>70</v>
       </c>
       <c r="G72" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="H72" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="K72" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="L72" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="M72" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="N72">
         <v>2</v>
@@ -4258,10 +4197,10 @@
         <v>28</v>
       </c>
       <c r="P72" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="Q72" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
@@ -4269,7 +4208,7 @@
         <v>63</v>
       </c>
       <c r="B73" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C73" t="s">
         <v>68</v>
@@ -4284,25 +4223,25 @@
         <v>71</v>
       </c>
       <c r="G73" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="H73" t="s">
+        <v>151</v>
+      </c>
+      <c r="I73" t="s">
+        <v>190</v>
+      </c>
+      <c r="J73" t="s">
+        <v>195</v>
+      </c>
+      <c r="K73" t="s">
         <v>170</v>
       </c>
-      <c r="I73" t="s">
-        <v>210</v>
-      </c>
-      <c r="J73" t="s">
-        <v>215</v>
-      </c>
-      <c r="K73" t="s">
-        <v>189</v>
-      </c>
       <c r="L73" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="M73" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="N73">
         <v>16</v>
@@ -4311,42 +4250,13 @@
         <v>31</v>
       </c>
       <c r="P73" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="Q73" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="S73" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>90</v>
-      </c>
-      <c r="B74" t="s">
-        <v>117</v>
-      </c>
-      <c r="C74" t="s">
-        <v>68</v>
-      </c>
-      <c r="D74" t="s">
-        <v>68</v>
-      </c>
-      <c r="E74" t="s">
-        <v>168</v>
-      </c>
-      <c r="F74" t="s">
-        <v>168</v>
-      </c>
-      <c r="G74" t="s">
-        <v>168</v>
-      </c>
-      <c r="H74" t="s">
-        <v>170</v>
-      </c>
-      <c r="L74" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
@@ -4354,7 +4264,7 @@
         <v>64</v>
       </c>
       <c r="B75" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C75" t="s">
         <v>68</v>
@@ -4369,25 +4279,25 @@
         <v>70</v>
       </c>
       <c r="G75" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="H75" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="I75" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="J75" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="K75" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="L75" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="M75" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="N75">
         <v>9</v>
@@ -4396,13 +4306,13 @@
         <v>38</v>
       </c>
       <c r="P75" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="Q75" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="S75" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
@@ -4410,7 +4320,7 @@
         <v>65</v>
       </c>
       <c r="B76" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C76" t="s">
         <v>68</v>
@@ -4425,10 +4335,28 @@
         <v>71</v>
       </c>
       <c r="G76" t="s">
+        <v>153</v>
+      </c>
+      <c r="H76" t="s">
+        <v>151</v>
+      </c>
+      <c r="K76" t="s">
+        <v>181</v>
+      </c>
+      <c r="M76" t="s">
+        <v>173</v>
+      </c>
+      <c r="N76">
+        <v>18</v>
+      </c>
+      <c r="O76">
+        <v>25</v>
+      </c>
+      <c r="P76" t="s">
         <v>172</v>
       </c>
-      <c r="H76" t="s">
-        <v>170</v>
+      <c r="Q76" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
@@ -4436,7 +4364,7 @@
         <v>66</v>
       </c>
       <c r="B77" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C77" t="s">
         <v>68</v>
@@ -4451,25 +4379,25 @@
         <v>69</v>
       </c>
       <c r="G77" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H77" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="I77" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="J77" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="K77" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="L77" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="M77" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="N77">
         <v>9</v>
@@ -4478,10 +4406,10 @@
         <v>24</v>
       </c>
       <c r="P77" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="Q77" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
@@ -4489,34 +4417,40 @@
         <v>67</v>
       </c>
       <c r="B78" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C78" t="s">
         <v>68</v>
       </c>
+      <c r="D78" t="s">
+        <v>205</v>
+      </c>
       <c r="E78" t="s">
         <v>68</v>
       </c>
+      <c r="F78" t="s">
+        <v>70</v>
+      </c>
       <c r="G78" t="s">
+        <v>154</v>
+      </c>
+      <c r="H78" t="s">
+        <v>151</v>
+      </c>
+      <c r="I78" t="s">
+        <v>191</v>
+      </c>
+      <c r="J78" t="s">
+        <v>188</v>
+      </c>
+      <c r="K78" t="s">
+        <v>181</v>
+      </c>
+      <c r="L78" t="s">
+        <v>169</v>
+      </c>
+      <c r="M78" t="s">
         <v>173</v>
-      </c>
-      <c r="H78" t="s">
-        <v>170</v>
-      </c>
-      <c r="I78" t="s">
-        <v>211</v>
-      </c>
-      <c r="J78" t="s">
-        <v>208</v>
-      </c>
-      <c r="K78" t="s">
-        <v>201</v>
-      </c>
-      <c r="L78" t="s">
-        <v>188</v>
-      </c>
-      <c r="M78" t="s">
-        <v>192</v>
       </c>
       <c r="N78">
         <v>12</v>
@@ -4525,21 +4459,21 @@
         <v>25</v>
       </c>
       <c r="P78" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="Q78" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="S78" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="B79" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="C79" t="s">
         <v>68</v>
@@ -4554,16 +4488,16 @@
         <v>71</v>
       </c>
       <c r="G79" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H79" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="K79" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="L79" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="N79">
         <v>23</v>
@@ -4572,18 +4506,18 @@
         <v>37</v>
       </c>
       <c r="P79" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="S79" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="B80" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="C80" t="s">
         <v>68</v>
@@ -4598,16 +4532,16 @@
         <v>69</v>
       </c>
       <c r="G80" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H80" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="K80" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="L80" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="N80">
         <v>5</v>
@@ -4616,18 +4550,18 @@
         <v>36</v>
       </c>
       <c r="P80" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="S80" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="B81" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="C81" t="s">
         <v>68</v>
@@ -4642,30 +4576,30 @@
         <v>69</v>
       </c>
       <c r="G81" t="s">
+        <v>154</v>
+      </c>
+      <c r="H81" t="s">
+        <v>152</v>
+      </c>
+      <c r="K81" t="s">
+        <v>170</v>
+      </c>
+      <c r="L81" t="s">
+        <v>168</v>
+      </c>
+      <c r="M81" t="s">
         <v>173</v>
       </c>
-      <c r="H81" t="s">
-        <v>171</v>
-      </c>
-      <c r="K81" t="s">
-        <v>189</v>
-      </c>
-      <c r="L81" t="s">
-        <v>187</v>
-      </c>
-      <c r="M81" t="s">
-        <v>192</v>
-      </c>
       <c r="P81" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="B82" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="C82" t="s">
         <v>68</v>
@@ -4680,19 +4614,19 @@
         <v>69</v>
       </c>
       <c r="G82" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H82" t="s">
+        <v>152</v>
+      </c>
+      <c r="K82" t="s">
+        <v>170</v>
+      </c>
+      <c r="L82" t="s">
+        <v>169</v>
+      </c>
+      <c r="M82" t="s">
         <v>171</v>
-      </c>
-      <c r="K82" t="s">
-        <v>189</v>
-      </c>
-      <c r="L82" t="s">
-        <v>188</v>
-      </c>
-      <c r="M82" t="s">
-        <v>190</v>
       </c>
       <c r="N82">
         <v>31</v>
@@ -4701,18 +4635,18 @@
         <v>33</v>
       </c>
       <c r="P82" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="S82" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="B83" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="C83" t="s">
         <v>68</v>
@@ -4727,16 +4661,16 @@
         <v>69</v>
       </c>
       <c r="G83" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H83" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="K83" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="L83" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="N83">
         <v>5</v>
@@ -4745,15 +4679,15 @@
         <v>10</v>
       </c>
       <c r="P83" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="B84" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="C84" t="s">
         <v>68</v>
@@ -4768,30 +4702,30 @@
         <v>69</v>
       </c>
       <c r="G84" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H84" t="s">
+        <v>152</v>
+      </c>
+      <c r="K84" t="s">
+        <v>170</v>
+      </c>
+      <c r="L84" t="s">
+        <v>169</v>
+      </c>
+      <c r="M84" t="s">
         <v>171</v>
       </c>
-      <c r="K84" t="s">
-        <v>189</v>
-      </c>
-      <c r="L84" t="s">
-        <v>188</v>
-      </c>
-      <c r="M84" t="s">
-        <v>190</v>
-      </c>
       <c r="P84" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="B85" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="C85" t="s">
         <v>68</v>
@@ -4806,19 +4740,19 @@
         <v>69</v>
       </c>
       <c r="G85" t="s">
+        <v>154</v>
+      </c>
+      <c r="H85" t="s">
+        <v>152</v>
+      </c>
+      <c r="K85" t="s">
+        <v>180</v>
+      </c>
+      <c r="L85" t="s">
+        <v>169</v>
+      </c>
+      <c r="M85" t="s">
         <v>173</v>
-      </c>
-      <c r="H85" t="s">
-        <v>171</v>
-      </c>
-      <c r="K85" t="s">
-        <v>200</v>
-      </c>
-      <c r="L85" t="s">
-        <v>188</v>
-      </c>
-      <c r="M85" t="s">
-        <v>192</v>
       </c>
       <c r="N85">
         <v>4</v>
@@ -4827,15 +4761,15 @@
         <v>5</v>
       </c>
       <c r="P85" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="B86" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="C86" t="s">
         <v>68</v>
@@ -4850,28 +4784,29 @@
         <v>69</v>
       </c>
       <c r="G86" t="s">
+        <v>154</v>
+      </c>
+      <c r="H86" t="s">
+        <v>152</v>
+      </c>
+      <c r="K86" t="s">
+        <v>170</v>
+      </c>
+      <c r="L86" t="s">
+        <v>168</v>
+      </c>
+      <c r="M86" t="s">
         <v>173</v>
       </c>
-      <c r="H86" t="s">
-        <v>171</v>
-      </c>
-      <c r="K86" t="s">
-        <v>189</v>
-      </c>
-      <c r="L86" t="s">
-        <v>187</v>
-      </c>
-      <c r="M86" t="s">
-        <v>192</v>
-      </c>
       <c r="P86" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="S86" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/atlas_project_metadata.xlsx
+++ b/data/atlas_project_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbernabei/Documents/PhD_Research/atlas_project/iEEG_atlas/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84B5DA9-997F-7442-9214-FC1DA2E61279}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD8B7EE-68ED-A549-BD09-1D9C167F12B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="1620" windowWidth="25260" windowHeight="17720" xr2:uid="{55386E59-C2B1-FE47-8A03-2662CFD6A014}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="209">
   <si>
     <t>Patient</t>
   </si>
@@ -640,6 +640,18 @@
   </si>
   <si>
     <t>segmentation</t>
+  </si>
+  <si>
+    <t>Engel_Score</t>
+  </si>
+  <si>
+    <t>ILAE1</t>
+  </si>
+  <si>
+    <t>ILAE4</t>
+  </si>
+  <si>
+    <t>ILAE5</t>
   </si>
 </sst>
 </file>
@@ -999,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEE15CE-15A7-E440-8B77-868E4F33ECBC}">
-  <dimension ref="A1:V77"/>
+  <dimension ref="A1:W77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="89" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1025,7 +1037,7 @@
     <col min="19" max="19" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1054,46 +1066,49 @@
         <v>2</v>
       </c>
       <c r="J1" t="s">
+        <v>205</v>
+      </c>
+      <c r="K1" t="s">
         <v>72</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>152</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>180</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>181</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>73</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>163</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>174</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>175</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>176</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>153</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>196</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>197</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1121,35 +1136,41 @@
       <c r="I2" t="s">
         <v>66</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2">
+        <v>3.1</v>
+      </c>
+      <c r="K2" t="s">
         <v>150</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>148</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>164</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>165</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="s">
+        <v>170</v>
+      </c>
+      <c r="R2">
         <v>12</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>42</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>171</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>199</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1177,35 +1198,38 @@
       <c r="I3" t="s">
         <v>68</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3">
+        <v>1.4</v>
+      </c>
+      <c r="K3" t="s">
         <v>151</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>149</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>164</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>166</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>168</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>3</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>21</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>169</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1233,35 +1257,38 @@
       <c r="I4" t="s">
         <v>67</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4">
+        <v>1.2</v>
+      </c>
+      <c r="K4" t="s">
         <v>151</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>149</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>167</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>165</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>168</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>2</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>36</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>169</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1289,35 +1316,38 @@
       <c r="I5" t="s">
         <v>68</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K5" t="s">
         <v>151</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>149</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>167</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>165</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>170</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>13</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>28</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>171</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1345,35 +1375,38 @@
       <c r="I6" t="s">
         <v>67</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6">
+        <v>1.2</v>
+      </c>
+      <c r="K6" t="s">
         <v>151</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>149</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>177</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>166</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>170</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>12</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>33</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>169</v>
       </c>
-      <c r="V6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1401,35 +1434,38 @@
       <c r="I7" t="s">
         <v>67</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7">
+        <v>1.3</v>
+      </c>
+      <c r="K7" t="s">
         <v>151</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>149</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>164</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>165</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>170</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>5</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>40</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>169</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1457,35 +1493,38 @@
       <c r="I8" t="s">
         <v>67</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8">
+        <v>1.3</v>
+      </c>
+      <c r="K8" t="s">
         <v>151</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>149</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>167</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>166</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>168</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>5</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>25</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>171</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1513,35 +1552,38 @@
       <c r="I9" t="s">
         <v>66</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9">
+        <v>2.4</v>
+      </c>
+      <c r="K9" t="s">
         <v>151</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>149</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>167</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>166</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>170</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>52</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>57</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>171</v>
       </c>
-      <c r="V9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1569,35 +1611,38 @@
       <c r="I10" t="s">
         <v>66</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10">
+        <v>2.1</v>
+      </c>
+      <c r="K10" t="s">
         <v>151</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>149</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>167</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>166</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>168</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>0</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>54</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>169</v>
       </c>
-      <c r="V10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1625,29 +1670,35 @@
       <c r="I11" t="s">
         <v>66</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K11" t="s">
         <v>151</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>149</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>167</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>166</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>170</v>
       </c>
-      <c r="S11" t="s">
+      <c r="S11">
+        <v>41</v>
+      </c>
+      <c r="T11" t="s">
         <v>171</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1675,35 +1726,38 @@
       <c r="I12" t="s">
         <v>67</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K12" t="s">
         <v>151</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>149</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>167</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>165</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>168</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>34</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>56</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>171</v>
       </c>
-      <c r="V12" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -1731,35 +1785,38 @@
       <c r="I13" t="s">
         <v>66</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13">
+        <v>2.1</v>
+      </c>
+      <c r="K13" t="s">
         <v>151</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>149</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>172</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>166</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>168</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>8</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>29</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>169</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1787,35 +1844,38 @@
       <c r="I14" t="s">
         <v>67</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14">
+        <v>1.3</v>
+      </c>
+      <c r="K14" t="s">
         <v>151</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>149</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>167</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>166</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>170</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>17</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>25</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>171</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1843,35 +1903,38 @@
       <c r="I15" t="s">
         <v>67</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15">
+        <v>1.4</v>
+      </c>
+      <c r="K15" t="s">
         <v>151</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>149</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>164</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>166</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>168</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>19</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>24</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>169</v>
       </c>
-      <c r="V15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1899,35 +1962,38 @@
       <c r="I16" t="s">
         <v>67</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16">
+        <v>1.4</v>
+      </c>
+      <c r="K16" t="s">
         <v>151</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>149</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>167</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>166</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>168</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>1</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>35</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>171</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -1952,14 +2018,14 @@
       <c r="I17" t="s">
         <v>67</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>151</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>75</v>
       </c>
@@ -1984,14 +2050,14 @@
       <c r="I18" t="s">
         <v>66</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>151</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -2019,35 +2085,38 @@
       <c r="I19" t="s">
         <v>67</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19">
+        <v>1.2</v>
+      </c>
+      <c r="K19" t="s">
         <v>151</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>149</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>167</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>165</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>170</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>20</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>48</v>
       </c>
-      <c r="S19" t="s">
+      <c r="T19" t="s">
         <v>171</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>76</v>
       </c>
@@ -2072,14 +2141,14 @@
       <c r="I20" t="s">
         <v>67</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>151</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -2104,14 +2173,14 @@
       <c r="I21" t="s">
         <v>66</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>151</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -2139,35 +2208,38 @@
       <c r="I22" t="s">
         <v>67</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K22" t="s">
         <v>151</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>149</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>167</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>165</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>168</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>27</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>39</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
         <v>169</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -2195,35 +2267,38 @@
       <c r="I23" t="s">
         <v>67</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23">
+        <v>1.2</v>
+      </c>
+      <c r="K23" t="s">
         <v>151</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>149</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>167</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>166</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>170</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>24</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>45</v>
       </c>
-      <c r="S23" t="s">
+      <c r="T23" t="s">
         <v>171</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -2251,35 +2326,38 @@
       <c r="I24" t="s">
         <v>67</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K24" t="s">
         <v>151</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>149</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>167</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>165</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>170</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>5</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>36</v>
       </c>
-      <c r="S24" t="s">
+      <c r="T24" t="s">
         <v>169</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -2307,35 +2385,38 @@
       <c r="I25" t="s">
         <v>67</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25">
+        <v>1.2</v>
+      </c>
+      <c r="K25" t="s">
         <v>151</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>149</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>167</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>165</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>170</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>28</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>40</v>
       </c>
-      <c r="S25" t="s">
+      <c r="T25" t="s">
         <v>171</v>
       </c>
-      <c r="V25" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -2363,35 +2444,38 @@
       <c r="I26" t="s">
         <v>66</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26">
+        <v>3.1</v>
+      </c>
+      <c r="K26" t="s">
         <v>150</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>148</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>164</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>165</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>168</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>0</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>21</v>
       </c>
-      <c r="S26" t="s">
+      <c r="T26" t="s">
         <v>171</v>
       </c>
-      <c r="T26" t="s">
+      <c r="U26" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>78</v>
       </c>
@@ -2416,14 +2500,14 @@
       <c r="I27" t="s">
         <v>68</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>151</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -2451,26 +2535,26 @@
       <c r="I28" t="s">
         <v>66</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>150</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>149</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>23</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>42</v>
       </c>
-      <c r="S28" t="s">
+      <c r="T28" t="s">
         <v>171</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -2498,44 +2582,47 @@
       <c r="I29" t="s">
         <v>67</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K29" t="s">
         <v>150</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>148</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>182</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>183</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>178</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>165</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>168</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>42</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>59</v>
       </c>
-      <c r="S29" t="s">
+      <c r="T29" t="s">
         <v>171</v>
       </c>
-      <c r="T29" t="s">
-        <v>200</v>
-      </c>
-      <c r="V29" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U29" t="s">
+        <v>200</v>
+      </c>
+      <c r="W29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -2563,44 +2650,47 @@
       <c r="I30" t="s">
         <v>67</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K30" t="s">
         <v>151</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>148</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>185</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>184</v>
       </c>
-      <c r="N30" t="s">
+      <c r="O30" t="s">
         <v>167</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>166</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>168</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>12</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>39</v>
       </c>
-      <c r="S30" t="s">
+      <c r="T30" t="s">
         <v>169</v>
       </c>
-      <c r="T30" t="s">
+      <c r="U30" t="s">
         <v>199</v>
       </c>
-      <c r="V30" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W30" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -2628,23 +2718,23 @@
       <c r="I31" t="s">
         <v>67</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>151</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>149</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>33</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>36</v>
       </c>
-      <c r="S31" t="s">
+      <c r="T31" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -2672,23 +2762,23 @@
       <c r="I32" t="s">
         <v>67</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>150</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>149</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>44</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>45</v>
       </c>
-      <c r="S32" t="s">
+      <c r="T32" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -2716,32 +2806,32 @@
       <c r="I33" t="s">
         <v>68</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>150</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>149</v>
       </c>
-      <c r="N33" t="s">
+      <c r="O33" t="s">
         <v>167</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>166</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>170</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>48</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>57</v>
       </c>
-      <c r="S33" t="s">
+      <c r="T33" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -2769,23 +2859,23 @@
       <c r="I34" t="s">
         <v>68</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>150</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>149</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>22</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>26</v>
       </c>
-      <c r="S34" t="s">
+      <c r="T34" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -2813,44 +2903,47 @@
       <c r="I35" t="s">
         <v>67</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J35">
+        <v>1.2</v>
+      </c>
+      <c r="K35" t="s">
         <v>150</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>148</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>184</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>186</v>
       </c>
-      <c r="N35" t="s">
+      <c r="O35" t="s">
         <v>179</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>166</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
         <v>170</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>20</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>46</v>
       </c>
-      <c r="S35" t="s">
+      <c r="T35" t="s">
         <v>171</v>
       </c>
-      <c r="T35" t="s">
-        <v>200</v>
-      </c>
-      <c r="V35" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U35" t="s">
+        <v>200</v>
+      </c>
+      <c r="W35" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -2875,14 +2968,14 @@
       <c r="I36" t="s">
         <v>66</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>150</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -2910,38 +3003,41 @@
       <c r="I37" t="s">
         <v>66</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37">
+        <v>3.1</v>
+      </c>
+      <c r="K37" t="s">
         <v>150</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>148</v>
       </c>
-      <c r="N37" t="s">
+      <c r="O37" t="s">
         <v>178</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>166</v>
       </c>
-      <c r="P37" t="s">
+      <c r="Q37" t="s">
         <v>170</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>47</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>52</v>
       </c>
-      <c r="S37" t="s">
+      <c r="T37" t="s">
         <v>171</v>
       </c>
-      <c r="T37" t="s">
-        <v>200</v>
-      </c>
-      <c r="V37" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U37" t="s">
+        <v>200</v>
+      </c>
+      <c r="W37" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>33</v>
       </c>
@@ -2969,29 +3065,29 @@
       <c r="I38" t="s">
         <v>68</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>151</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>148</v>
       </c>
-      <c r="N38" t="s">
+      <c r="O38" t="s">
         <v>164</v>
       </c>
-      <c r="P38" t="s">
+      <c r="Q38" t="s">
         <v>168</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>8</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>32</v>
       </c>
-      <c r="S38" t="s">
+      <c r="T38" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>34</v>
       </c>
@@ -3019,44 +3115,47 @@
       <c r="I39" t="s">
         <v>66</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39">
+        <v>3.2</v>
+      </c>
+      <c r="K39" t="s">
         <v>150</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>148</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>183</v>
       </c>
-      <c r="M39" t="s">
+      <c r="N39" t="s">
         <v>182</v>
       </c>
-      <c r="N39" t="s">
+      <c r="O39" t="s">
         <v>178</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
         <v>165</v>
       </c>
-      <c r="P39" t="s">
+      <c r="Q39" t="s">
         <v>170</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>34</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>37</v>
       </c>
-      <c r="S39" t="s">
+      <c r="T39" t="s">
         <v>169</v>
       </c>
-      <c r="T39" t="s">
-        <v>200</v>
-      </c>
-      <c r="V39" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U39" t="s">
+        <v>200</v>
+      </c>
+      <c r="W39" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -3084,44 +3183,47 @@
       <c r="I40" t="s">
         <v>66</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J40">
+        <v>2.1</v>
+      </c>
+      <c r="K40" t="s">
         <v>150</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>148</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>187</v>
       </c>
-      <c r="M40" t="s">
+      <c r="N40" t="s">
         <v>182</v>
       </c>
-      <c r="N40" t="s">
+      <c r="O40" t="s">
         <v>178</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>166</v>
       </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
         <v>168</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>29</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>38</v>
       </c>
-      <c r="S40" t="s">
+      <c r="T40" t="s">
         <v>169</v>
       </c>
-      <c r="T40" t="s">
-        <v>200</v>
-      </c>
-      <c r="V40" t="s">
+      <c r="U40" t="s">
+        <v>200</v>
+      </c>
+      <c r="W40" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>36</v>
       </c>
@@ -3149,44 +3251,47 @@
       <c r="I41" t="s">
         <v>67</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J41">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K41" t="s">
         <v>150</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>148</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>188</v>
       </c>
-      <c r="M41" t="s">
+      <c r="N41" t="s">
         <v>185</v>
       </c>
-      <c r="N41" t="s">
+      <c r="O41" t="s">
         <v>172</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
         <v>166</v>
       </c>
-      <c r="P41" t="s">
+      <c r="Q41" t="s">
         <v>168</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>0</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <v>20</v>
       </c>
-      <c r="S41" t="s">
+      <c r="T41" t="s">
         <v>169</v>
       </c>
-      <c r="T41" t="s">
+      <c r="U41" t="s">
         <v>199</v>
       </c>
-      <c r="V41" t="s">
+      <c r="W41" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -3214,44 +3319,47 @@
       <c r="I42" t="s">
         <v>67</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J42">
+        <v>1.2</v>
+      </c>
+      <c r="K42" t="s">
         <v>150</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>148</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>187</v>
       </c>
-      <c r="M42" t="s">
+      <c r="N42" t="s">
         <v>184</v>
       </c>
-      <c r="N42" t="s">
+      <c r="O42" t="s">
         <v>178</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
         <v>166</v>
       </c>
-      <c r="P42" t="s">
+      <c r="Q42" t="s">
         <v>170</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>26</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <v>47</v>
       </c>
-      <c r="S42" t="s">
+      <c r="T42" t="s">
         <v>171</v>
       </c>
-      <c r="T42" t="s">
-        <v>200</v>
-      </c>
-      <c r="V42" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U42" t="s">
+        <v>200</v>
+      </c>
+      <c r="W42" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -3279,44 +3387,47 @@
       <c r="I43" t="s">
         <v>66</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J43">
+        <v>1.3</v>
+      </c>
+      <c r="K43" t="s">
         <v>150</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>148</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
         <v>183</v>
       </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
         <v>182</v>
       </c>
-      <c r="N43" t="s">
+      <c r="O43" t="s">
         <v>178</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
         <v>165</v>
       </c>
-      <c r="P43" t="s">
+      <c r="Q43" t="s">
         <v>170</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <v>14</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <v>30</v>
       </c>
-      <c r="S43" t="s">
+      <c r="T43" t="s">
         <v>169</v>
       </c>
-      <c r="T43" t="s">
-        <v>200</v>
-      </c>
-      <c r="V43" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U43" t="s">
+        <v>200</v>
+      </c>
+      <c r="W43" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>39</v>
       </c>
@@ -3341,29 +3452,29 @@
       <c r="I44" t="s">
         <v>66</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>150</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>148</v>
       </c>
-      <c r="P44" t="s">
+      <c r="Q44" t="s">
         <v>168</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <v>15</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <v>30</v>
       </c>
-      <c r="S44" t="s">
+      <c r="T44" t="s">
         <v>169</v>
       </c>
-      <c r="T44" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U44" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>40</v>
       </c>
@@ -3391,29 +3502,29 @@
       <c r="I45" t="s">
         <v>68</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>151</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>148</v>
       </c>
-      <c r="P45" t="s">
+      <c r="Q45" t="s">
         <v>168</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <v>5</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <v>31</v>
       </c>
-      <c r="S45" t="s">
+      <c r="T45" t="s">
         <v>169</v>
       </c>
-      <c r="T45" t="s">
+      <c r="U45" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>42</v>
       </c>
@@ -3441,29 +3552,29 @@
       <c r="I46" t="s">
         <v>67</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>151</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>148</v>
       </c>
-      <c r="N46" t="s">
+      <c r="O46" t="s">
         <v>167</v>
       </c>
-      <c r="P46" t="s">
+      <c r="Q46" t="s">
         <v>170</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <v>4</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <v>16</v>
       </c>
-      <c r="S46" t="s">
+      <c r="T46" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>41</v>
       </c>
@@ -3491,29 +3602,32 @@
       <c r="I47" t="s">
         <v>67</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J47">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K47" t="s">
         <v>150</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>148</v>
       </c>
-      <c r="P47" t="s">
+      <c r="Q47" t="s">
         <v>168</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <v>16</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <v>23</v>
       </c>
-      <c r="S47" t="s">
+      <c r="T47" t="s">
         <v>169</v>
       </c>
-      <c r="T47" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U47" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>43</v>
       </c>
@@ -3539,46 +3653,49 @@
         <v>65</v>
       </c>
       <c r="I48" t="s">
-        <v>67</v>
-      </c>
-      <c r="J48" t="s">
+        <v>66</v>
+      </c>
+      <c r="J48">
+        <v>2.1</v>
+      </c>
+      <c r="K48" t="s">
         <v>150</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>148</v>
       </c>
-      <c r="L48" t="s">
+      <c r="M48" t="s">
         <v>190</v>
       </c>
-      <c r="M48" t="s">
+      <c r="N48" t="s">
         <v>189</v>
       </c>
-      <c r="N48" t="s">
+      <c r="O48" t="s">
         <v>173</v>
       </c>
-      <c r="O48" t="s">
+      <c r="P48" t="s">
         <v>165</v>
       </c>
-      <c r="P48" t="s">
+      <c r="Q48" t="s">
         <v>168</v>
       </c>
-      <c r="Q48">
+      <c r="R48">
         <v>4</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <v>17</v>
       </c>
-      <c r="S48" t="s">
+      <c r="T48" t="s">
         <v>169</v>
       </c>
-      <c r="T48" t="s">
-        <v>200</v>
-      </c>
-      <c r="V48" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U48" t="s">
+        <v>200</v>
+      </c>
+      <c r="W48" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>44</v>
       </c>
@@ -3604,37 +3721,40 @@
         <v>65</v>
       </c>
       <c r="I49" t="s">
-        <v>67</v>
-      </c>
-      <c r="J49" t="s">
+        <v>66</v>
+      </c>
+      <c r="J49">
+        <v>2.1</v>
+      </c>
+      <c r="K49" t="s">
         <v>150</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>148</v>
       </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
         <v>191</v>
       </c>
-      <c r="N49" t="s">
+      <c r="O49" t="s">
         <v>179</v>
       </c>
-      <c r="O49" t="s">
+      <c r="P49" t="s">
         <v>165</v>
       </c>
-      <c r="P49" t="s">
+      <c r="Q49" t="s">
         <v>170</v>
       </c>
-      <c r="S49" t="s">
+      <c r="T49" t="s">
         <v>169</v>
       </c>
-      <c r="T49" t="s">
-        <v>200</v>
-      </c>
-      <c r="V49" t="s">
+      <c r="U49" t="s">
+        <v>200</v>
+      </c>
+      <c r="W49" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>45</v>
       </c>
@@ -3662,44 +3782,47 @@
       <c r="I50" t="s">
         <v>67</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J50">
+        <v>1.2</v>
+      </c>
+      <c r="K50" t="s">
         <v>150</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>148</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" t="s">
         <v>187</v>
       </c>
-      <c r="M50" t="s">
+      <c r="N50" t="s">
         <v>185</v>
       </c>
-      <c r="N50" t="s">
+      <c r="O50" t="s">
         <v>178</v>
       </c>
-      <c r="O50" t="s">
+      <c r="P50" t="s">
         <v>166</v>
       </c>
-      <c r="P50" t="s">
+      <c r="Q50" t="s">
         <v>170</v>
       </c>
-      <c r="Q50">
+      <c r="R50">
         <v>16</v>
       </c>
-      <c r="R50">
+      <c r="S50">
         <v>25</v>
       </c>
-      <c r="S50" t="s">
+      <c r="T50" t="s">
         <v>169</v>
       </c>
-      <c r="T50" t="s">
-        <v>200</v>
-      </c>
-      <c r="V50" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U50" t="s">
+        <v>200</v>
+      </c>
+      <c r="W50" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>46</v>
       </c>
@@ -3727,44 +3850,47 @@
       <c r="I51" t="s">
         <v>66</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J51">
+        <v>2.1</v>
+      </c>
+      <c r="K51" t="s">
         <v>150</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>148</v>
       </c>
-      <c r="L51" t="s">
+      <c r="M51" t="s">
         <v>183</v>
       </c>
-      <c r="M51" t="s">
+      <c r="N51" t="s">
         <v>192</v>
       </c>
-      <c r="N51" t="s">
+      <c r="O51" t="s">
         <v>173</v>
       </c>
-      <c r="O51" t="s">
+      <c r="P51" t="s">
         <v>165</v>
       </c>
-      <c r="P51" t="s">
+      <c r="Q51" t="s">
         <v>170</v>
       </c>
-      <c r="Q51">
+      <c r="R51">
         <v>7</v>
       </c>
-      <c r="R51">
+      <c r="S51">
         <v>32</v>
       </c>
-      <c r="S51" t="s">
+      <c r="T51" t="s">
         <v>169</v>
       </c>
-      <c r="T51" t="s">
-        <v>200</v>
-      </c>
-      <c r="V51" t="s">
+      <c r="U51" t="s">
+        <v>200</v>
+      </c>
+      <c r="W51" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>47</v>
       </c>
@@ -3792,32 +3918,32 @@
       <c r="I52" t="s">
         <v>68</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>151</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
         <v>148</v>
       </c>
-      <c r="N52" t="s">
+      <c r="O52" t="s">
         <v>167</v>
       </c>
-      <c r="P52" t="s">
+      <c r="Q52" t="s">
         <v>170</v>
       </c>
-      <c r="Q52">
+      <c r="R52">
         <v>15</v>
       </c>
-      <c r="R52">
+      <c r="S52">
         <v>45</v>
       </c>
-      <c r="S52" t="s">
+      <c r="T52" t="s">
         <v>171</v>
       </c>
-      <c r="T52" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U52" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>48</v>
       </c>
@@ -3845,32 +3971,32 @@
       <c r="I53" t="s">
         <v>66</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>150</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
         <v>148</v>
       </c>
-      <c r="N53" t="s">
+      <c r="O53" t="s">
         <v>178</v>
       </c>
-      <c r="P53" t="s">
+      <c r="Q53" t="s">
         <v>170</v>
       </c>
-      <c r="Q53">
+      <c r="R53">
         <v>21</v>
       </c>
-      <c r="R53">
+      <c r="S53">
         <v>35</v>
       </c>
-      <c r="S53" t="s">
+      <c r="T53" t="s">
         <v>171</v>
       </c>
-      <c r="T53" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U53" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>49</v>
       </c>
@@ -3898,44 +4024,47 @@
       <c r="I54" t="s">
         <v>67</v>
       </c>
-      <c r="J54" t="s">
+      <c r="J54">
+        <v>1.4</v>
+      </c>
+      <c r="K54" t="s">
         <v>150</v>
       </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
         <v>148</v>
       </c>
-      <c r="L54" t="s">
+      <c r="M54" t="s">
         <v>185</v>
       </c>
-      <c r="M54" t="s">
+      <c r="N54" t="s">
         <v>184</v>
       </c>
-      <c r="N54" t="s">
+      <c r="O54" t="s">
         <v>178</v>
       </c>
-      <c r="O54" t="s">
+      <c r="P54" t="s">
         <v>166</v>
       </c>
-      <c r="P54" t="s">
+      <c r="Q54" t="s">
         <v>170</v>
       </c>
-      <c r="Q54">
+      <c r="R54">
         <v>32</v>
       </c>
-      <c r="R54">
+      <c r="S54">
         <v>42</v>
       </c>
-      <c r="S54" t="s">
+      <c r="T54" t="s">
         <v>171</v>
       </c>
-      <c r="T54" t="s">
-        <v>200</v>
-      </c>
-      <c r="V54" t="s">
+      <c r="U54" t="s">
+        <v>200</v>
+      </c>
+      <c r="W54" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>50</v>
       </c>
@@ -3963,44 +4092,47 @@
       <c r="I55" t="s">
         <v>67</v>
       </c>
-      <c r="J55" t="s">
+      <c r="J55">
+        <v>1.4</v>
+      </c>
+      <c r="K55" t="s">
         <v>150</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>148</v>
       </c>
-      <c r="L55" t="s">
+      <c r="M55" t="s">
         <v>187</v>
       </c>
-      <c r="M55" t="s">
+      <c r="N55" t="s">
         <v>185</v>
       </c>
-      <c r="N55" t="s">
+      <c r="O55" t="s">
         <v>178</v>
       </c>
-      <c r="O55" t="s">
+      <c r="P55" t="s">
         <v>166</v>
       </c>
-      <c r="P55" t="s">
+      <c r="Q55" t="s">
         <v>168</v>
       </c>
-      <c r="Q55">
+      <c r="R55">
         <v>14</v>
       </c>
-      <c r="R55">
+      <c r="S55">
         <v>34</v>
       </c>
-      <c r="S55" t="s">
+      <c r="T55" t="s">
         <v>171</v>
       </c>
-      <c r="T55" t="s">
-        <v>200</v>
-      </c>
-      <c r="V55" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U55" t="s">
+        <v>200</v>
+      </c>
+      <c r="W55" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>51</v>
       </c>
@@ -4028,38 +4160,41 @@
       <c r="I56" t="s">
         <v>67</v>
       </c>
-      <c r="J56" t="s">
+      <c r="J56">
+        <v>1.4</v>
+      </c>
+      <c r="K56" t="s">
         <v>150</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>148</v>
       </c>
-      <c r="L56" t="s">
+      <c r="M56" t="s">
         <v>182</v>
       </c>
-      <c r="M56" t="s">
+      <c r="N56" t="s">
         <v>187</v>
       </c>
-      <c r="N56" t="s">
+      <c r="O56" t="s">
         <v>178</v>
       </c>
-      <c r="O56" t="s">
+      <c r="P56" t="s">
         <v>165</v>
       </c>
-      <c r="P56" t="s">
+      <c r="Q56" t="s">
         <v>170</v>
       </c>
-      <c r="Q56">
+      <c r="R56">
         <v>12</v>
       </c>
-      <c r="R56">
+      <c r="S56">
         <v>21</v>
       </c>
-      <c r="S56" t="s">
+      <c r="T56" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>52</v>
       </c>
@@ -4087,29 +4222,32 @@
       <c r="I57" t="s">
         <v>67</v>
       </c>
-      <c r="J57" t="s">
+      <c r="J57">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K57" t="s">
         <v>151</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>148</v>
       </c>
-      <c r="N57" t="s">
+      <c r="O57" t="s">
         <v>167</v>
       </c>
-      <c r="Q57">
+      <c r="R57">
         <v>4</v>
       </c>
-      <c r="R57">
+      <c r="S57">
         <v>26</v>
       </c>
-      <c r="S57" t="s">
+      <c r="T57" t="s">
         <v>169</v>
       </c>
-      <c r="T57" t="s">
+      <c r="U57" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>53</v>
       </c>
@@ -4137,44 +4275,47 @@
       <c r="I58" t="s">
         <v>66</v>
       </c>
-      <c r="J58" t="s">
+      <c r="J58">
+        <v>2.1</v>
+      </c>
+      <c r="K58" t="s">
         <v>150</v>
       </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
         <v>148</v>
       </c>
-      <c r="L58" t="s">
+      <c r="M58" t="s">
         <v>191</v>
       </c>
-      <c r="M58" t="s">
+      <c r="N58" t="s">
         <v>193</v>
       </c>
-      <c r="N58" t="s">
+      <c r="O58" t="s">
         <v>173</v>
       </c>
-      <c r="O58" t="s">
+      <c r="P58" t="s">
         <v>165</v>
       </c>
-      <c r="P58" t="s">
+      <c r="Q58" t="s">
         <v>170</v>
       </c>
-      <c r="Q58">
+      <c r="R58">
         <v>3</v>
       </c>
-      <c r="R58">
+      <c r="S58">
         <v>21</v>
       </c>
-      <c r="S58" t="s">
+      <c r="T58" t="s">
         <v>169</v>
       </c>
-      <c r="T58" t="s">
-        <v>200</v>
-      </c>
-      <c r="V58" t="s">
+      <c r="U58" t="s">
+        <v>200</v>
+      </c>
+      <c r="W58" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>54</v>
       </c>
@@ -4202,44 +4343,47 @@
       <c r="I59" t="s">
         <v>66</v>
       </c>
-      <c r="J59" t="s">
+      <c r="J59">
+        <v>2.1</v>
+      </c>
+      <c r="K59" t="s">
         <v>150</v>
       </c>
-      <c r="K59" t="s">
+      <c r="L59" t="s">
         <v>148</v>
       </c>
-      <c r="L59" t="s">
+      <c r="M59" t="s">
         <v>184</v>
       </c>
-      <c r="M59" t="s">
+      <c r="N59" t="s">
         <v>186</v>
       </c>
-      <c r="N59" t="s">
+      <c r="O59" t="s">
         <v>164</v>
       </c>
-      <c r="O59" t="s">
+      <c r="P59" t="s">
         <v>166</v>
       </c>
-      <c r="P59" t="s">
+      <c r="Q59" t="s">
         <v>170</v>
       </c>
-      <c r="Q59">
+      <c r="R59">
         <v>6</v>
       </c>
-      <c r="R59">
+      <c r="S59">
         <v>50</v>
       </c>
-      <c r="S59" t="s">
+      <c r="T59" t="s">
         <v>169</v>
       </c>
-      <c r="T59" t="s">
-        <v>200</v>
-      </c>
-      <c r="V59" t="s">
+      <c r="U59" t="s">
+        <v>200</v>
+      </c>
+      <c r="W59" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>55</v>
       </c>
@@ -4267,44 +4411,47 @@
       <c r="I60" t="s">
         <v>66</v>
       </c>
-      <c r="J60" t="s">
+      <c r="J60">
+        <v>2.1</v>
+      </c>
+      <c r="K60" t="s">
         <v>150</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L60" t="s">
         <v>148</v>
       </c>
-      <c r="L60" t="s">
+      <c r="M60" t="s">
         <v>186</v>
       </c>
-      <c r="M60" t="s">
+      <c r="N60" t="s">
         <v>188</v>
       </c>
-      <c r="N60" t="s">
+      <c r="O60" t="s">
         <v>164</v>
       </c>
-      <c r="O60" t="s">
+      <c r="P60" t="s">
         <v>166</v>
       </c>
-      <c r="P60" t="s">
+      <c r="Q60" t="s">
         <v>170</v>
       </c>
-      <c r="Q60">
+      <c r="R60">
         <v>2</v>
       </c>
-      <c r="R60">
+      <c r="S60">
         <v>28</v>
       </c>
-      <c r="S60" t="s">
+      <c r="T60" t="s">
         <v>171</v>
       </c>
-      <c r="T60" t="s">
-        <v>200</v>
-      </c>
-      <c r="V60" t="s">
+      <c r="U60" t="s">
+        <v>200</v>
+      </c>
+      <c r="W60" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>56</v>
       </c>
@@ -4332,41 +4479,44 @@
       <c r="I61" t="s">
         <v>67</v>
       </c>
-      <c r="J61" t="s">
+      <c r="J61">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K61" t="s">
         <v>151</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>148</v>
       </c>
-      <c r="L61" t="s">
+      <c r="M61" t="s">
         <v>182</v>
       </c>
-      <c r="M61" t="s">
+      <c r="N61" t="s">
         <v>187</v>
       </c>
-      <c r="N61" t="s">
+      <c r="O61" t="s">
         <v>167</v>
       </c>
-      <c r="O61" t="s">
+      <c r="P61" t="s">
         <v>165</v>
       </c>
-      <c r="P61" t="s">
+      <c r="Q61" t="s">
         <v>168</v>
       </c>
-      <c r="Q61">
+      <c r="R61">
         <v>12</v>
       </c>
-      <c r="R61">
+      <c r="S61">
         <v>24</v>
       </c>
-      <c r="S61" t="s">
+      <c r="T61" t="s">
         <v>171</v>
       </c>
-      <c r="T61" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U61" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>57</v>
       </c>
@@ -4394,44 +4544,47 @@
       <c r="I62" t="s">
         <v>67</v>
       </c>
-      <c r="J62" t="s">
+      <c r="J62">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K62" t="s">
         <v>151</v>
       </c>
-      <c r="K62" t="s">
+      <c r="L62" t="s">
         <v>148</v>
       </c>
-      <c r="L62" t="s">
+      <c r="M62" t="s">
         <v>194</v>
       </c>
-      <c r="M62" t="s">
+      <c r="N62" t="s">
         <v>193</v>
       </c>
-      <c r="N62" t="s">
+      <c r="O62" t="s">
         <v>167</v>
       </c>
-      <c r="O62" t="s">
+      <c r="P62" t="s">
         <v>165</v>
       </c>
-      <c r="P62" t="s">
+      <c r="Q62" t="s">
         <v>170</v>
       </c>
-      <c r="Q62">
+      <c r="R62">
         <v>5</v>
       </c>
-      <c r="R62">
+      <c r="S62">
         <v>42</v>
       </c>
-      <c r="S62" t="s">
+      <c r="T62" t="s">
         <v>171</v>
       </c>
-      <c r="T62" t="s">
-        <v>200</v>
-      </c>
-      <c r="V62" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U62" t="s">
+        <v>200</v>
+      </c>
+      <c r="W62" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>58</v>
       </c>
@@ -4457,37 +4610,40 @@
         <v>65</v>
       </c>
       <c r="I63" t="s">
-        <v>68</v>
-      </c>
-      <c r="J63" t="s">
+        <v>66</v>
+      </c>
+      <c r="J63">
+        <v>2.1</v>
+      </c>
+      <c r="K63" t="s">
         <v>151</v>
       </c>
-      <c r="K63" t="s">
+      <c r="L63" t="s">
         <v>148</v>
       </c>
-      <c r="N63" t="s">
+      <c r="O63" t="s">
         <v>164</v>
       </c>
-      <c r="O63" t="s">
+      <c r="P63" t="s">
         <v>166</v>
       </c>
-      <c r="P63" t="s">
+      <c r="Q63" t="s">
         <v>168</v>
       </c>
-      <c r="Q63">
+      <c r="R63">
         <v>13</v>
       </c>
-      <c r="R63">
+      <c r="S63">
         <v>20</v>
       </c>
-      <c r="S63" t="s">
+      <c r="T63" t="s">
         <v>171</v>
       </c>
-      <c r="T63" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U63" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>59</v>
       </c>
@@ -4515,35 +4671,38 @@
       <c r="I64" t="s">
         <v>67</v>
       </c>
-      <c r="J64" t="s">
+      <c r="J64">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K64" t="s">
         <v>150</v>
       </c>
-      <c r="K64" t="s">
+      <c r="L64" t="s">
         <v>148</v>
       </c>
-      <c r="N64" t="s">
+      <c r="O64" t="s">
         <v>164</v>
       </c>
-      <c r="O64" t="s">
+      <c r="P64" t="s">
         <v>166</v>
       </c>
-      <c r="P64" t="s">
+      <c r="Q64" t="s">
         <v>168</v>
       </c>
-      <c r="Q64">
+      <c r="R64">
         <v>2</v>
       </c>
-      <c r="R64">
+      <c r="S64">
         <v>28</v>
       </c>
-      <c r="S64" t="s">
+      <c r="T64" t="s">
         <v>171</v>
       </c>
-      <c r="T64" t="s">
+      <c r="U64" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>60</v>
       </c>
@@ -4569,46 +4728,49 @@
         <v>65</v>
       </c>
       <c r="I65" t="s">
-        <v>68</v>
-      </c>
-      <c r="J65" t="s">
+        <v>66</v>
+      </c>
+      <c r="J65">
+        <v>2.1</v>
+      </c>
+      <c r="K65" t="s">
         <v>150</v>
       </c>
-      <c r="K65" t="s">
+      <c r="L65" t="s">
         <v>148</v>
       </c>
-      <c r="L65" t="s">
+      <c r="M65" t="s">
         <v>187</v>
       </c>
-      <c r="M65" t="s">
+      <c r="N65" t="s">
         <v>192</v>
       </c>
-      <c r="N65" t="s">
+      <c r="O65" t="s">
         <v>167</v>
       </c>
-      <c r="O65" t="s">
+      <c r="P65" t="s">
         <v>166</v>
       </c>
-      <c r="P65" t="s">
+      <c r="Q65" t="s">
         <v>168</v>
       </c>
-      <c r="Q65">
+      <c r="R65">
         <v>16</v>
       </c>
-      <c r="R65">
+      <c r="S65">
         <v>31</v>
       </c>
-      <c r="S65" t="s">
+      <c r="T65" t="s">
         <v>171</v>
       </c>
-      <c r="T65" t="s">
-        <v>200</v>
-      </c>
-      <c r="V65" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U65" t="s">
+        <v>200</v>
+      </c>
+      <c r="W65" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>61</v>
       </c>
@@ -4636,44 +4798,47 @@
       <c r="I66" t="s">
         <v>67</v>
       </c>
-      <c r="J66" t="s">
+      <c r="J66">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K66" t="s">
         <v>150</v>
       </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
         <v>148</v>
       </c>
-      <c r="L66" t="s">
+      <c r="M66" t="s">
         <v>195</v>
       </c>
-      <c r="M66" t="s">
+      <c r="N66" t="s">
         <v>187</v>
       </c>
-      <c r="N66" t="s">
+      <c r="O66" t="s">
         <v>178</v>
       </c>
-      <c r="O66" t="s">
+      <c r="P66" t="s">
         <v>166</v>
       </c>
-      <c r="P66" t="s">
+      <c r="Q66" t="s">
         <v>168</v>
       </c>
-      <c r="Q66">
+      <c r="R66">
         <v>9</v>
       </c>
-      <c r="R66">
+      <c r="S66">
         <v>38</v>
       </c>
-      <c r="S66" t="s">
+      <c r="T66" t="s">
         <v>169</v>
       </c>
-      <c r="T66" t="s">
-        <v>200</v>
-      </c>
-      <c r="V66" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U66" t="s">
+        <v>200</v>
+      </c>
+      <c r="W66" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>62</v>
       </c>
@@ -4699,34 +4864,37 @@
         <v>65</v>
       </c>
       <c r="I67" t="s">
-        <v>68</v>
-      </c>
-      <c r="J67" t="s">
+        <v>66</v>
+      </c>
+      <c r="J67">
+        <v>2.1</v>
+      </c>
+      <c r="K67" t="s">
         <v>150</v>
       </c>
-      <c r="K67" t="s">
+      <c r="L67" t="s">
         <v>148</v>
       </c>
-      <c r="N67" t="s">
+      <c r="O67" t="s">
         <v>178</v>
       </c>
-      <c r="P67" t="s">
+      <c r="Q67" t="s">
         <v>170</v>
       </c>
-      <c r="Q67">
+      <c r="R67">
         <v>18</v>
       </c>
-      <c r="R67">
+      <c r="S67">
         <v>25</v>
       </c>
-      <c r="S67" t="s">
+      <c r="T67" t="s">
         <v>169</v>
       </c>
-      <c r="T67" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U67" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>63</v>
       </c>
@@ -4754,41 +4922,44 @@
       <c r="I68" t="s">
         <v>66</v>
       </c>
-      <c r="J68" t="s">
+      <c r="J68">
+        <v>3.1</v>
+      </c>
+      <c r="K68" t="s">
         <v>151</v>
       </c>
-      <c r="K68" t="s">
+      <c r="L68" t="s">
         <v>148</v>
       </c>
-      <c r="L68" t="s">
+      <c r="M68" t="s">
         <v>184</v>
       </c>
-      <c r="M68" t="s">
+      <c r="N68" t="s">
         <v>185</v>
       </c>
-      <c r="N68" t="s">
+      <c r="O68" t="s">
         <v>164</v>
       </c>
-      <c r="O68" t="s">
+      <c r="P68" t="s">
         <v>166</v>
       </c>
-      <c r="P68" t="s">
+      <c r="Q68" t="s">
         <v>168</v>
       </c>
-      <c r="Q68">
+      <c r="R68">
         <v>9</v>
       </c>
-      <c r="R68">
+      <c r="S68">
         <v>24</v>
       </c>
-      <c r="S68" t="s">
+      <c r="T68" t="s">
         <v>171</v>
       </c>
-      <c r="T68" t="s">
+      <c r="U68" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>64</v>
       </c>
@@ -4814,46 +4985,49 @@
         <v>65</v>
       </c>
       <c r="I69" t="s">
-        <v>67</v>
-      </c>
-      <c r="J69" t="s">
+        <v>66</v>
+      </c>
+      <c r="J69">
+        <v>3.1</v>
+      </c>
+      <c r="K69" t="s">
         <v>151</v>
       </c>
-      <c r="K69" t="s">
+      <c r="L69" t="s">
         <v>148</v>
       </c>
-      <c r="L69" t="s">
+      <c r="M69" t="s">
         <v>188</v>
       </c>
-      <c r="M69" t="s">
+      <c r="N69" t="s">
         <v>185</v>
       </c>
-      <c r="N69" t="s">
+      <c r="O69" t="s">
         <v>178</v>
       </c>
-      <c r="O69" t="s">
+      <c r="P69" t="s">
         <v>166</v>
       </c>
-      <c r="P69" t="s">
+      <c r="Q69" t="s">
         <v>170</v>
       </c>
-      <c r="Q69">
+      <c r="R69">
         <v>12</v>
       </c>
-      <c r="R69">
+      <c r="S69">
         <v>25</v>
       </c>
-      <c r="S69" t="s">
+      <c r="T69" t="s">
         <v>169</v>
       </c>
-      <c r="T69" t="s">
-        <v>200</v>
-      </c>
-      <c r="V69" t="s">
+      <c r="U69" t="s">
+        <v>200</v>
+      </c>
+      <c r="W69" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>154</v>
       </c>
@@ -4882,31 +5056,34 @@
         <v>68</v>
       </c>
       <c r="J70" t="s">
+        <v>206</v>
+      </c>
+      <c r="K70" t="s">
         <v>151</v>
       </c>
-      <c r="K70" t="s">
+      <c r="L70" t="s">
         <v>149</v>
       </c>
-      <c r="N70" t="s">
+      <c r="O70" t="s">
         <v>164</v>
       </c>
-      <c r="O70" t="s">
+      <c r="P70" t="s">
         <v>165</v>
       </c>
-      <c r="Q70">
+      <c r="R70">
         <v>23</v>
       </c>
-      <c r="R70">
+      <c r="S70">
         <v>37</v>
       </c>
-      <c r="S70" t="s">
+      <c r="T70" t="s">
         <v>169</v>
       </c>
-      <c r="V70" t="s">
+      <c r="W70" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>155</v>
       </c>
@@ -4935,31 +5112,34 @@
         <v>66</v>
       </c>
       <c r="J71" t="s">
+        <v>207</v>
+      </c>
+      <c r="K71" t="s">
         <v>151</v>
       </c>
-      <c r="K71" t="s">
+      <c r="L71" t="s">
         <v>149</v>
       </c>
-      <c r="N71" t="s">
+      <c r="O71" t="s">
         <v>167</v>
       </c>
-      <c r="O71" t="s">
+      <c r="P71" t="s">
         <v>165</v>
       </c>
-      <c r="Q71">
+      <c r="R71">
         <v>5</v>
       </c>
-      <c r="R71">
+      <c r="S71">
         <v>36</v>
       </c>
-      <c r="S71" t="s">
+      <c r="T71" t="s">
         <v>171</v>
       </c>
-      <c r="V71" t="s">
+      <c r="W71" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>156</v>
       </c>
@@ -4988,25 +5168,28 @@
         <v>66</v>
       </c>
       <c r="J72" t="s">
+        <v>207</v>
+      </c>
+      <c r="K72" t="s">
         <v>151</v>
       </c>
-      <c r="K72" t="s">
+      <c r="L72" t="s">
         <v>149</v>
       </c>
-      <c r="N72" t="s">
+      <c r="O72" t="s">
         <v>167</v>
       </c>
-      <c r="O72" t="s">
+      <c r="P72" t="s">
         <v>165</v>
       </c>
-      <c r="P72" t="s">
+      <c r="Q72" t="s">
         <v>170</v>
       </c>
-      <c r="S72" t="s">
+      <c r="T72" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>157</v>
       </c>
@@ -5035,34 +5218,37 @@
         <v>66</v>
       </c>
       <c r="J73" t="s">
+        <v>208</v>
+      </c>
+      <c r="K73" t="s">
         <v>151</v>
       </c>
-      <c r="K73" t="s">
+      <c r="L73" t="s">
         <v>149</v>
       </c>
-      <c r="N73" t="s">
+      <c r="O73" t="s">
         <v>167</v>
       </c>
-      <c r="O73" t="s">
+      <c r="P73" t="s">
         <v>166</v>
       </c>
-      <c r="P73" t="s">
+      <c r="Q73" t="s">
         <v>168</v>
       </c>
-      <c r="Q73">
+      <c r="R73">
         <v>31</v>
       </c>
-      <c r="R73">
+      <c r="S73">
         <v>33</v>
       </c>
-      <c r="S73" t="s">
+      <c r="T73" t="s">
         <v>169</v>
       </c>
-      <c r="V73" t="s">
+      <c r="W73" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>158</v>
       </c>
@@ -5091,28 +5277,31 @@
         <v>66</v>
       </c>
       <c r="J74" t="s">
+        <v>207</v>
+      </c>
+      <c r="K74" t="s">
         <v>151</v>
       </c>
-      <c r="K74" t="s">
+      <c r="L74" t="s">
         <v>149</v>
       </c>
-      <c r="N74" t="s">
+      <c r="O74" t="s">
         <v>164</v>
       </c>
-      <c r="O74" t="s">
+      <c r="P74" t="s">
         <v>165</v>
       </c>
-      <c r="Q74">
+      <c r="R74">
         <v>5</v>
       </c>
-      <c r="R74">
+      <c r="S74">
         <v>10</v>
       </c>
-      <c r="S74" t="s">
+      <c r="T74" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>159</v>
       </c>
@@ -5141,25 +5330,28 @@
         <v>66</v>
       </c>
       <c r="J75" t="s">
+        <v>208</v>
+      </c>
+      <c r="K75" t="s">
         <v>151</v>
       </c>
-      <c r="K75" t="s">
+      <c r="L75" t="s">
         <v>149</v>
       </c>
-      <c r="N75" t="s">
+      <c r="O75" t="s">
         <v>167</v>
       </c>
-      <c r="O75" t="s">
+      <c r="P75" t="s">
         <v>166</v>
       </c>
-      <c r="P75" t="s">
+      <c r="Q75" t="s">
         <v>168</v>
       </c>
-      <c r="S75" t="s">
+      <c r="T75" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>160</v>
       </c>
@@ -5188,31 +5380,34 @@
         <v>66</v>
       </c>
       <c r="J76" t="s">
+        <v>207</v>
+      </c>
+      <c r="K76" t="s">
         <v>151</v>
       </c>
-      <c r="K76" t="s">
+      <c r="L76" t="s">
         <v>149</v>
       </c>
-      <c r="N76" t="s">
+      <c r="O76" t="s">
         <v>177</v>
       </c>
-      <c r="O76" t="s">
+      <c r="P76" t="s">
         <v>166</v>
       </c>
-      <c r="P76" t="s">
+      <c r="Q76" t="s">
         <v>170</v>
       </c>
-      <c r="Q76">
+      <c r="R76">
         <v>4</v>
       </c>
-      <c r="R76">
+      <c r="S76">
         <v>5</v>
       </c>
-      <c r="S76" t="s">
+      <c r="T76" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>161</v>
       </c>
@@ -5241,24 +5436,27 @@
         <v>66</v>
       </c>
       <c r="J77" t="s">
+        <v>208</v>
+      </c>
+      <c r="K77" t="s">
         <v>151</v>
       </c>
-      <c r="K77" t="s">
+      <c r="L77" t="s">
         <v>149</v>
       </c>
-      <c r="N77" t="s">
+      <c r="O77" t="s">
         <v>167</v>
       </c>
-      <c r="O77" t="s">
+      <c r="P77" t="s">
         <v>165</v>
       </c>
-      <c r="P77" t="s">
+      <c r="Q77" t="s">
         <v>170</v>
       </c>
-      <c r="S77" t="s">
+      <c r="T77" t="s">
         <v>171</v>
       </c>
-      <c r="V77" t="s">
+      <c r="W77" t="s">
         <v>199</v>
       </c>
     </row>

--- a/data/atlas_project_metadata.xlsx
+++ b/data/atlas_project_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbernabei/Documents/PhD_Research/atlas_project/iEEG_atlas/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EE1B1C-D6EF-634B-A10F-1E68DCE62AB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6BFDB6-0350-8246-AF7D-AFDD51874BE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5300" yWindow="1400" windowWidth="25260" windowHeight="17720" xr2:uid="{55386E59-C2B1-FE47-8A03-2662CFD6A014}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="173">
   <si>
     <t>Patient</t>
   </si>
@@ -246,9 +246,6 @@
     <t>HUP099</t>
   </si>
   <si>
-    <t>HUP113</t>
-  </si>
-  <si>
     <t>RID0490</t>
   </si>
   <si>
@@ -375,9 +372,6 @@
     <t>RID0157</t>
   </si>
   <si>
-    <t>RID0190</t>
-  </si>
-  <si>
     <t>RID0179</t>
   </si>
   <si>
@@ -537,13 +531,7 @@
     <t>HUP191</t>
   </si>
   <si>
-    <t>HUP194</t>
-  </si>
-  <si>
     <t>RID0454</t>
-  </si>
-  <si>
-    <t>RID0562</t>
   </si>
   <si>
     <t>Engel_6_mo</t>
@@ -915,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEE15CE-15A7-E440-8B77-868E4F33ECBC}">
-  <dimension ref="A1:R70"/>
+  <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="93" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -937,7 +925,7 @@
     <col min="13" max="13" width="14.33203125" customWidth="1"/>
     <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14" bestFit="1" customWidth="1"/>
@@ -951,52 +939,52 @@
         <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" t="s">
         <v>166</v>
       </c>
-      <c r="F1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G1" t="s">
-        <v>168</v>
-      </c>
       <c r="H1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="J1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K1" t="s">
         <v>67</v>
       </c>
       <c r="L1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M1" t="s">
         <v>68</v>
       </c>
       <c r="N1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O1" t="s">
+        <v>156</v>
+      </c>
+      <c r="P1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q1" t="s">
         <v>158</v>
       </c>
-      <c r="P1" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>160</v>
-      </c>
       <c r="R1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -1016,10 +1004,10 @@
         <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H2">
         <v>3.1</v>
@@ -1031,19 +1019,19 @@
         <v>3.1</v>
       </c>
       <c r="K2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P2">
         <v>12</v>
@@ -1052,7 +1040,7 @@
         <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
@@ -1060,7 +1048,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
         <v>63</v>
@@ -1072,7 +1060,7 @@
         <v>63</v>
       </c>
       <c r="F3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G3" t="s">
         <v>63</v>
@@ -1087,19 +1075,19 @@
         <v>1.4</v>
       </c>
       <c r="K3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M3" t="s">
+        <v>146</v>
+      </c>
+      <c r="N3" t="s">
         <v>148</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>150</v>
-      </c>
-      <c r="O3" t="s">
-        <v>152</v>
       </c>
       <c r="P3">
         <v>3</v>
@@ -1108,7 +1096,7 @@
         <v>21</v>
       </c>
       <c r="R3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -1116,7 +1104,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C4" t="s">
         <v>63</v>
@@ -1128,7 +1116,7 @@
         <v>63</v>
       </c>
       <c r="F4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G4" t="s">
         <v>63</v>
@@ -1143,19 +1131,19 @@
         <v>1.2</v>
       </c>
       <c r="K4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P4">
         <v>2</v>
@@ -1164,7 +1152,7 @@
         <v>36</v>
       </c>
       <c r="R4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -1172,7 +1160,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C5" t="s">
         <v>63</v>
@@ -1184,7 +1172,7 @@
         <v>63</v>
       </c>
       <c r="F5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G5" t="s">
         <v>63</v>
@@ -1196,22 +1184,22 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P5">
         <v>13</v>
@@ -1220,7 +1208,7 @@
         <v>28</v>
       </c>
       <c r="R5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -1228,7 +1216,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C6" t="s">
         <v>63</v>
@@ -1240,7 +1228,7 @@
         <v>63</v>
       </c>
       <c r="F6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G6" t="s">
         <v>63</v>
@@ -1255,19 +1243,19 @@
         <v>1.2</v>
       </c>
       <c r="K6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="N6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P6">
         <v>12</v>
@@ -1276,7 +1264,7 @@
         <v>33</v>
       </c>
       <c r="R6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -1284,7 +1272,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
         <v>63</v>
@@ -1296,7 +1284,7 @@
         <v>63</v>
       </c>
       <c r="F7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G7" t="s">
         <v>63</v>
@@ -1311,19 +1299,19 @@
         <v>1.3</v>
       </c>
       <c r="K7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P7">
         <v>5</v>
@@ -1332,7 +1320,7 @@
         <v>40</v>
       </c>
       <c r="R7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -1340,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
         <v>63</v>
@@ -1352,7 +1340,7 @@
         <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G8" t="s">
         <v>63</v>
@@ -1367,19 +1355,19 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="K8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O8" t="s">
         <v>150</v>
-      </c>
-      <c r="O8" t="s">
-        <v>152</v>
       </c>
       <c r="P8">
         <v>5</v>
@@ -1388,7 +1376,7 @@
         <v>25</v>
       </c>
       <c r="R8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -1396,7 +1384,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C9" t="s">
         <v>63</v>
@@ -1408,7 +1396,7 @@
         <v>63</v>
       </c>
       <c r="F9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G9" t="s">
         <v>63</v>
@@ -1423,19 +1411,19 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="K9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P9">
         <v>52</v>
@@ -1444,7 +1432,7 @@
         <v>57</v>
       </c>
       <c r="R9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -1452,7 +1440,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s">
         <v>63</v>
@@ -1464,7 +1452,7 @@
         <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G10" t="s">
         <v>63</v>
@@ -1479,19 +1467,19 @@
         <v>2.1</v>
       </c>
       <c r="K10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N10" t="s">
+        <v>148</v>
+      </c>
+      <c r="O10" t="s">
         <v>150</v>
-      </c>
-      <c r="O10" t="s">
-        <v>152</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1500,7 +1488,7 @@
         <v>54</v>
       </c>
       <c r="R10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -1508,7 +1496,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s">
         <v>63</v>
@@ -1520,7 +1508,7 @@
         <v>63</v>
       </c>
       <c r="F11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G11" t="s">
         <v>63</v>
@@ -1535,19 +1523,19 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="K11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P11">
         <v>35</v>
@@ -1556,7 +1544,7 @@
         <v>41</v>
       </c>
       <c r="R11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -1564,7 +1552,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C12" t="s">
         <v>63</v>
@@ -1576,7 +1564,7 @@
         <v>63</v>
       </c>
       <c r="F12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G12" t="s">
         <v>63</v>
@@ -1591,19 +1579,19 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="K12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P12">
         <v>34</v>
@@ -1612,7 +1600,7 @@
         <v>56</v>
       </c>
       <c r="R12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -1620,10 +1608,10 @@
         <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D13" t="s">
         <v>63</v>
@@ -1632,10 +1620,10 @@
         <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H13">
         <v>1.1000000000000001</v>
@@ -1647,19 +1635,19 @@
         <v>1.2</v>
       </c>
       <c r="K13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="N13" t="s">
+        <v>148</v>
+      </c>
+      <c r="O13" t="s">
         <v>150</v>
-      </c>
-      <c r="O13" t="s">
-        <v>152</v>
       </c>
       <c r="P13">
         <v>8</v>
@@ -1668,7 +1656,7 @@
         <v>29</v>
       </c>
       <c r="R13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -1676,19 +1664,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D14" t="s">
         <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G14" t="s">
         <v>63</v>
@@ -1703,19 +1691,19 @@
         <v>2.1</v>
       </c>
       <c r="K14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P14">
         <v>17</v>
@@ -1724,7 +1712,7 @@
         <v>25</v>
       </c>
       <c r="R14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -1732,7 +1720,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C15" t="s">
         <v>63</v>
@@ -1744,7 +1732,7 @@
         <v>63</v>
       </c>
       <c r="F15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G15" t="s">
         <v>63</v>
@@ -1759,19 +1747,19 @@
         <v>1.4</v>
       </c>
       <c r="K15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M15" t="s">
+        <v>146</v>
+      </c>
+      <c r="N15" t="s">
         <v>148</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>150</v>
-      </c>
-      <c r="O15" t="s">
-        <v>152</v>
       </c>
       <c r="P15">
         <v>19</v>
@@ -1780,7 +1768,7 @@
         <v>24</v>
       </c>
       <c r="R15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -1788,7 +1776,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C16" t="s">
         <v>63</v>
@@ -1800,7 +1788,7 @@
         <v>63</v>
       </c>
       <c r="F16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G16" t="s">
         <v>63</v>
@@ -1815,19 +1803,19 @@
         <v>1.4</v>
       </c>
       <c r="K16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N16" t="s">
+        <v>148</v>
+      </c>
+      <c r="O16" t="s">
         <v>150</v>
-      </c>
-      <c r="O16" t="s">
-        <v>152</v>
       </c>
       <c r="P16">
         <v>1</v>
@@ -1836,7 +1824,7 @@
         <v>35</v>
       </c>
       <c r="R16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
@@ -1844,16 +1832,16 @@
         <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
         <v>63</v>
       </c>
       <c r="F17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G17" t="s">
         <v>63</v>
@@ -1868,19 +1856,19 @@
         <v>1.2</v>
       </c>
       <c r="K17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P17">
         <v>23</v>
@@ -1889,7 +1877,7 @@
         <v>29</v>
       </c>
       <c r="R17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
@@ -1897,19 +1885,19 @@
         <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E18" t="s">
         <v>63</v>
       </c>
       <c r="F18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H18">
         <v>1.1000000000000001</v>
@@ -1921,19 +1909,19 @@
         <v>1.2</v>
       </c>
       <c r="K18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P18">
         <v>4</v>
@@ -1942,7 +1930,7 @@
         <v>24</v>
       </c>
       <c r="R18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
@@ -1950,7 +1938,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C19" t="s">
         <v>63</v>
@@ -1962,7 +1950,7 @@
         <v>63</v>
       </c>
       <c r="F19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G19" t="s">
         <v>63</v>
@@ -1977,19 +1965,19 @@
         <v>1.2</v>
       </c>
       <c r="K19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P19">
         <v>20</v>
@@ -1998,7 +1986,7 @@
         <v>48</v>
       </c>
       <c r="R19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
@@ -2006,16 +1994,16 @@
         <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
         <v>63</v>
       </c>
       <c r="F20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G20" t="s">
         <v>63</v>
@@ -2030,19 +2018,19 @@
         <v>1.4</v>
       </c>
       <c r="K20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P20">
         <v>37</v>
@@ -2051,7 +2039,7 @@
         <v>39</v>
       </c>
       <c r="R20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
@@ -2059,16 +2047,16 @@
         <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="E21" t="s">
         <v>63</v>
       </c>
       <c r="F21" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G21" t="s">
         <v>63</v>
@@ -2083,19 +2071,19 @@
         <v>1.2</v>
       </c>
       <c r="K21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M21" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N21" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O21" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P21">
         <v>18</v>
@@ -2104,7 +2092,7 @@
         <v>20</v>
       </c>
       <c r="R21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
@@ -2112,7 +2100,7 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C22" t="s">
         <v>63</v>
@@ -2124,7 +2112,7 @@
         <v>63</v>
       </c>
       <c r="F22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G22" t="s">
         <v>63</v>
@@ -2139,19 +2127,19 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="K22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L22" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P22">
         <v>27</v>
@@ -2160,7 +2148,7 @@
         <v>39</v>
       </c>
       <c r="R22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
@@ -2168,7 +2156,7 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C23" t="s">
         <v>63</v>
@@ -2180,7 +2168,7 @@
         <v>63</v>
       </c>
       <c r="F23" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G23" t="s">
         <v>63</v>
@@ -2195,19 +2183,19 @@
         <v>1.2</v>
       </c>
       <c r="K23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P23">
         <v>24</v>
@@ -2216,7 +2204,7 @@
         <v>45</v>
       </c>
       <c r="R23" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
@@ -2224,7 +2212,7 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C24" t="s">
         <v>63</v>
@@ -2236,7 +2224,7 @@
         <v>63</v>
       </c>
       <c r="F24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G24" t="s">
         <v>63</v>
@@ -2251,19 +2239,19 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="K24" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O24" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P24">
         <v>5</v>
@@ -2272,7 +2260,7 @@
         <v>36</v>
       </c>
       <c r="R24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
@@ -2280,7 +2268,7 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C25" t="s">
         <v>63</v>
@@ -2292,7 +2280,7 @@
         <v>63</v>
       </c>
       <c r="F25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G25" t="s">
         <v>63</v>
@@ -2307,19 +2295,19 @@
         <v>1.2</v>
       </c>
       <c r="K25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M25" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O25" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P25">
         <v>28</v>
@@ -2328,7 +2316,7 @@
         <v>40</v>
       </c>
       <c r="R25" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
@@ -2336,7 +2324,7 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C26" t="s">
         <v>63</v>
@@ -2348,7 +2336,7 @@
         <v>63</v>
       </c>
       <c r="F26" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G26" t="s">
         <v>63</v>
@@ -2363,19 +2351,19 @@
         <v>3.1</v>
       </c>
       <c r="K26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M26" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O26" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -2384,57 +2372,60 @@
         <v>21</v>
       </c>
       <c r="R26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>164</v>
+        <v>114</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>63</v>
       </c>
       <c r="E27" t="s">
         <v>63</v>
       </c>
       <c r="F27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G27" t="s">
         <v>63</v>
       </c>
       <c r="H27">
-        <v>1.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="I27">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J27">
-        <v>1.1000000000000001</v>
+        <v>3.1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>172</v>
       </c>
       <c r="K27" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M27" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="N27" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="O27" t="s">
         <v>152</v>
       </c>
       <c r="P27">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q27">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="R27" t="s">
         <v>153</v>
@@ -2442,10 +2433,10 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C28" t="s">
         <v>63</v>
@@ -2457,51 +2448,51 @@
         <v>63</v>
       </c>
       <c r="F28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G28" t="s">
         <v>63</v>
       </c>
       <c r="H28">
-        <v>3.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I28">
-        <v>3.1</v>
-      </c>
-      <c r="J28" t="s">
-        <v>176</v>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J28">
+        <v>1.1000000000000001</v>
       </c>
       <c r="K28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L28" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M28" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N28" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O28" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="P28">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="Q28">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="R28" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C29" t="s">
         <v>63</v>
@@ -2513,7 +2504,7 @@
         <v>63</v>
       </c>
       <c r="F29" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G29" t="s">
         <v>63</v>
@@ -2528,36 +2519,36 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="K29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M29" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="N29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O29" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P29">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="Q29">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="R29" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C30" t="s">
         <v>63</v>
@@ -2565,14 +2556,14 @@
       <c r="D30" t="s">
         <v>63</v>
       </c>
-      <c r="E30" t="s">
-        <v>63</v>
+      <c r="E30" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="F30" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G30" t="s">
-        <v>63</v>
+        <v>162</v>
       </c>
       <c r="H30">
         <v>1.1000000000000001</v>
@@ -2580,40 +2571,40 @@
       <c r="I30">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J30">
-        <v>1.1000000000000001</v>
+      <c r="J30" t="s">
+        <v>172</v>
       </c>
       <c r="K30" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M30" t="s">
+        <v>149</v>
+      </c>
+      <c r="N30" t="s">
+        <v>147</v>
+      </c>
+      <c r="O30" t="s">
+        <v>150</v>
+      </c>
+      <c r="P30">
+        <v>33</v>
+      </c>
+      <c r="Q30">
+        <v>36</v>
+      </c>
+      <c r="R30" t="s">
         <v>151</v>
-      </c>
-      <c r="N30" t="s">
-        <v>150</v>
-      </c>
-      <c r="O30" t="s">
-        <v>152</v>
-      </c>
-      <c r="P30">
-        <v>12</v>
-      </c>
-      <c r="Q30">
-        <v>39</v>
-      </c>
-      <c r="R30" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C31" t="s">
         <v>63</v>
@@ -2621,14 +2612,14 @@
       <c r="D31" t="s">
         <v>63</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>164</v>
+      <c r="E31" t="s">
+        <v>63</v>
       </c>
       <c r="F31" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G31" t="s">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="H31">
         <v>1.1000000000000001</v>
@@ -2636,85 +2627,85 @@
       <c r="I31">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J31" t="s">
-        <v>176</v>
+      <c r="J31">
+        <v>1.1000000000000001</v>
       </c>
       <c r="K31" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L31" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M31" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O31" t="s">
         <v>152</v>
       </c>
       <c r="P31">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="Q31">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="R31" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" t="s">
+        <v>162</v>
+      </c>
+      <c r="G32" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I32">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J32">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K32" t="s">
+        <v>141</v>
+      </c>
+      <c r="L32" t="s">
+        <v>140</v>
+      </c>
+      <c r="M32" t="s">
+        <v>160</v>
+      </c>
+      <c r="N32" t="s">
+        <v>148</v>
+      </c>
+      <c r="O32" t="s">
+        <v>152</v>
+      </c>
+      <c r="P32">
+        <v>22</v>
+      </c>
+      <c r="Q32">
         <v>26</v>
-      </c>
-      <c r="B32" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" t="s">
-        <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>164</v>
-      </c>
-      <c r="G32" t="s">
-        <v>63</v>
-      </c>
-      <c r="H32">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I32">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J32">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K32" t="s">
-        <v>143</v>
-      </c>
-      <c r="L32" t="s">
-        <v>142</v>
-      </c>
-      <c r="M32" t="s">
-        <v>151</v>
-      </c>
-      <c r="N32" t="s">
-        <v>150</v>
-      </c>
-      <c r="O32" t="s">
-        <v>154</v>
-      </c>
-      <c r="P32">
-        <v>48</v>
-      </c>
-      <c r="Q32">
-        <v>57</v>
       </c>
       <c r="R32" t="s">
         <v>153</v>
@@ -2722,10 +2713,10 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
         <v>63</v>
@@ -2737,7 +2728,7 @@
         <v>63</v>
       </c>
       <c r="F33" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G33" t="s">
         <v>63</v>
@@ -2749,104 +2740,104 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J33">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="K33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L33" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P33">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q33">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="R33" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E34" t="s">
         <v>63</v>
       </c>
       <c r="F34" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G34" t="s">
         <v>63</v>
       </c>
       <c r="H34">
-        <v>1.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="I34">
-        <v>1.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="J34">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="K34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M34" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="N34" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O34" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P34">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q34">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R34" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>164</v>
+        <v>94</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" t="s">
+        <v>63</v>
       </c>
       <c r="E35" t="s">
         <v>63</v>
       </c>
       <c r="F35" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G35" t="s">
         <v>63</v>
@@ -2861,36 +2852,36 @@
         <v>3.1</v>
       </c>
       <c r="K35" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L35" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M35" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="N35" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O35" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P35">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="Q35">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="R35" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C36" t="s">
         <v>63</v>
@@ -2902,51 +2893,51 @@
         <v>63</v>
       </c>
       <c r="F36" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G36" t="s">
         <v>63</v>
       </c>
       <c r="H36">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="I36">
-        <v>3.1</v>
-      </c>
-      <c r="J36">
-        <v>3.1</v>
+        <v>1.2</v>
+      </c>
+      <c r="J36" t="s">
+        <v>172</v>
       </c>
       <c r="K36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L36" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M36" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="N36" t="s">
+        <v>147</v>
+      </c>
+      <c r="O36" t="s">
         <v>150</v>
       </c>
-      <c r="O36" t="s">
-        <v>154</v>
-      </c>
       <c r="P36">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="Q36">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="R36" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C37" t="s">
         <v>63</v>
@@ -2958,51 +2949,51 @@
         <v>63</v>
       </c>
       <c r="F37" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G37" t="s">
         <v>63</v>
       </c>
       <c r="H37">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="I37">
-        <v>1.2</v>
-      </c>
-      <c r="J37" t="s">
-        <v>176</v>
+        <v>2.1</v>
+      </c>
+      <c r="J37">
+        <v>2.1</v>
       </c>
       <c r="K37" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L37" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M37" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="N37" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O37" t="s">
         <v>152</v>
       </c>
       <c r="P37">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="Q37">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="R37" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C38" t="s">
         <v>63</v>
@@ -3014,51 +3005,51 @@
         <v>63</v>
       </c>
       <c r="F38" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G38" t="s">
         <v>63</v>
       </c>
       <c r="H38">
-        <v>2.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I38">
         <v>2.1</v>
       </c>
       <c r="J38">
-        <v>2.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="K38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L38" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M38" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O38" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="P38">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Q38">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R38" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s">
         <v>63</v>
@@ -3070,7 +3061,7 @@
         <v>63</v>
       </c>
       <c r="F39" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G39" t="s">
         <v>63</v>
@@ -3079,42 +3070,42 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="I39">
-        <v>2.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J39">
-        <v>4.0999999999999996</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K39" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L39" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M39" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="N39" t="s">
+        <v>148</v>
+      </c>
+      <c r="O39" t="s">
         <v>150</v>
       </c>
-      <c r="O39" t="s">
-        <v>152</v>
-      </c>
       <c r="P39">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="R39" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C40" t="s">
         <v>63</v>
@@ -3122,44 +3113,44 @@
       <c r="D40" t="s">
         <v>63</v>
       </c>
-      <c r="E40" t="s">
-        <v>63</v>
+      <c r="E40" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="F40" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G40" t="s">
         <v>63</v>
       </c>
       <c r="H40">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="I40">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="J40">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="K40" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L40" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M40" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="N40" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O40" t="s">
         <v>152</v>
       </c>
       <c r="P40">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Q40">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="R40" t="s">
         <v>153</v>
@@ -3167,10 +3158,10 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C41" t="s">
         <v>63</v>
@@ -3178,58 +3169,55 @@
       <c r="D41" t="s">
         <v>63</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>164</v>
+      <c r="E41" t="s">
+        <v>63</v>
       </c>
       <c r="F41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G41" t="s">
-        <v>63</v>
+        <v>162</v>
       </c>
       <c r="H41">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="I41">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="J41">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="K41" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L41" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M41" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N41" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="O41" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P41">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="Q41">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="R41" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="D42" t="s">
         <v>63</v>
@@ -3238,51 +3226,54 @@
         <v>63</v>
       </c>
       <c r="F42" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G42" t="s">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="H42">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="I42">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="J42">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="K42" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L42" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M42" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O42" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="P42">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q42">
         <v>30</v>
       </c>
       <c r="R42" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>106</v>
+        <v>104</v>
+      </c>
+      <c r="C43" t="s">
+        <v>63</v>
       </c>
       <c r="D43" t="s">
         <v>63</v>
@@ -3291,51 +3282,51 @@
         <v>63</v>
       </c>
       <c r="F43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G43" t="s">
-        <v>63</v>
+        <v>162</v>
       </c>
       <c r="H43">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I43">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="J43">
         <v>1.4</v>
       </c>
       <c r="K43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L43" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M43" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="N43" t="s">
+        <v>147</v>
+      </c>
+      <c r="O43" t="s">
         <v>150</v>
       </c>
-      <c r="O43" t="s">
-        <v>152</v>
-      </c>
       <c r="P43">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q43">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R43" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C44" t="s">
         <v>63</v>
@@ -3347,51 +3338,51 @@
         <v>63</v>
       </c>
       <c r="F44" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G44" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H44">
         <v>1.1000000000000001</v>
       </c>
       <c r="I44">
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J44">
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K44" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L44" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M44" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N44" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O44" t="s">
         <v>152</v>
       </c>
       <c r="P44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q44">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="R44" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C45" t="s">
         <v>63</v>
@@ -3403,10 +3394,10 @@
         <v>63</v>
       </c>
       <c r="F45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H45">
         <v>1.1000000000000001</v>
@@ -3418,36 +3409,36 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="K45" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L45" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M45" t="s">
+        <v>149</v>
+      </c>
+      <c r="N45" t="s">
+        <v>148</v>
+      </c>
+      <c r="O45" t="s">
+        <v>150</v>
+      </c>
+      <c r="P45">
+        <v>16</v>
+      </c>
+      <c r="Q45">
+        <v>23</v>
+      </c>
+      <c r="R45" t="s">
         <v>151</v>
-      </c>
-      <c r="N45" t="s">
-        <v>149</v>
-      </c>
-      <c r="O45" t="s">
-        <v>154</v>
-      </c>
-      <c r="P45">
-        <v>4</v>
-      </c>
-      <c r="Q45">
-        <v>16</v>
-      </c>
-      <c r="R45" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C46" t="s">
         <v>63</v>
@@ -3459,10 +3450,10 @@
         <v>63</v>
       </c>
       <c r="F46" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G46" t="s">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="H46">
         <v>1.1000000000000001</v>
@@ -3471,39 +3462,39 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J46">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="K46" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L46" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M46" t="s">
+        <v>155</v>
+      </c>
+      <c r="N46" t="s">
+        <v>147</v>
+      </c>
+      <c r="O46" t="s">
+        <v>150</v>
+      </c>
+      <c r="P46">
+        <v>4</v>
+      </c>
+      <c r="Q46">
+        <v>17</v>
+      </c>
+      <c r="R46" t="s">
         <v>151</v>
-      </c>
-      <c r="N46" t="s">
-        <v>150</v>
-      </c>
-      <c r="O46" t="s">
-        <v>152</v>
-      </c>
-      <c r="P46">
-        <v>16</v>
-      </c>
-      <c r="Q46">
-        <v>23</v>
-      </c>
-      <c r="R46" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C47" t="s">
         <v>63</v>
@@ -3515,7 +3506,7 @@
         <v>63</v>
       </c>
       <c r="F47" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G47" t="s">
         <v>63</v>
@@ -3524,42 +3515,42 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="I47">
-        <v>1.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="J47">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="K47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L47" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M47" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="N47" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O47" t="s">
         <v>152</v>
       </c>
       <c r="P47">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q47">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="R47" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C48" t="s">
         <v>63</v>
@@ -3571,51 +3562,51 @@
         <v>63</v>
       </c>
       <c r="F48" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G48" t="s">
         <v>63</v>
       </c>
       <c r="H48">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="I48">
-        <v>2.1</v>
-      </c>
-      <c r="J48">
-        <v>2.1</v>
+        <v>1.2</v>
+      </c>
+      <c r="J48" t="s">
+        <v>172</v>
       </c>
       <c r="K48" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L48" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M48" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="N48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O48" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P48">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="Q48">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="R48" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C49" t="s">
         <v>63</v>
@@ -3627,51 +3618,51 @@
         <v>63</v>
       </c>
       <c r="F49" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G49" t="s">
         <v>63</v>
       </c>
       <c r="H49">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="I49">
-        <v>1.2</v>
-      </c>
-      <c r="J49" t="s">
-        <v>176</v>
+        <v>3.1</v>
+      </c>
+      <c r="J49">
+        <v>3.1</v>
       </c>
       <c r="K49" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L49" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M49" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="N49" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="O49" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P49">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="Q49">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="R49" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C50" t="s">
         <v>63</v>
@@ -3683,40 +3674,40 @@
         <v>63</v>
       </c>
       <c r="F50" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G50" t="s">
         <v>63</v>
       </c>
       <c r="H50">
-        <v>3.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I50">
-        <v>3.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J50">
-        <v>3.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L50" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M50" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="N50" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O50" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P50">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Q50">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="R50" t="s">
         <v>153</v>
@@ -3724,10 +3715,10 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C51" t="s">
         <v>63</v>
@@ -3739,51 +3730,51 @@
         <v>63</v>
       </c>
       <c r="F51" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G51" t="s">
         <v>63</v>
       </c>
       <c r="H51">
-        <v>1.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="I51">
-        <v>1.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="J51">
-        <v>1.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="K51" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L51" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M51" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="N51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O51" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P51">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Q51">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="R51" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="C52" t="s">
         <v>63</v>
@@ -3791,55 +3782,55 @@
       <c r="D52" t="s">
         <v>63</v>
       </c>
-      <c r="E52" t="s">
-        <v>63</v>
+      <c r="E52" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="F52" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G52" t="s">
         <v>63</v>
       </c>
       <c r="H52">
-        <v>3.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I52">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="J52">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="K52" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L52" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M52" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N52" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O52" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P52">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="Q52">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="R52" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C53" t="s">
         <v>63</v>
@@ -3847,17 +3838,17 @@
       <c r="D53" t="s">
         <v>63</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>164</v>
+      <c r="E53" t="s">
+        <v>63</v>
       </c>
       <c r="F53" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G53" t="s">
         <v>63</v>
       </c>
       <c r="H53">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="I53">
         <v>1.4</v>
@@ -3866,36 +3857,36 @@
         <v>1.4</v>
       </c>
       <c r="K53" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L53" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M53" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N53" t="s">
+        <v>148</v>
+      </c>
+      <c r="O53" t="s">
         <v>150</v>
       </c>
-      <c r="O53" t="s">
-        <v>154</v>
-      </c>
       <c r="P53">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="Q53">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="R53" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C54" t="s">
         <v>63</v>
@@ -3907,7 +3898,7 @@
         <v>63</v>
       </c>
       <c r="F54" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G54" t="s">
         <v>63</v>
@@ -3919,39 +3910,39 @@
         <v>1.4</v>
       </c>
       <c r="J54">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="K54" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L54" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M54" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N54" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="O54" t="s">
         <v>152</v>
       </c>
       <c r="P54">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q54">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="R54" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C55" t="s">
         <v>63</v>
@@ -3963,51 +3954,51 @@
         <v>63</v>
       </c>
       <c r="F55" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G55" t="s">
         <v>63</v>
       </c>
       <c r="H55">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="I55">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="J55">
         <v>3.1</v>
       </c>
       <c r="K55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L55" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M55" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="N55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O55" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="P55">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="Q55">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="R55" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B56" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -4019,51 +4010,51 @@
         <v>63</v>
       </c>
       <c r="F56" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G56" t="s">
         <v>63</v>
       </c>
       <c r="H56">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="I56">
-        <v>3.1</v>
-      </c>
-      <c r="J56">
-        <v>3.1</v>
+        <v>2.1</v>
+      </c>
+      <c r="J56" t="s">
+        <v>172</v>
       </c>
       <c r="K56" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L56" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M56" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N56" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="O56" t="s">
         <v>152</v>
       </c>
       <c r="P56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q56">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="R56" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C57" t="s">
         <v>63</v>
@@ -4075,7 +4066,7 @@
         <v>63</v>
       </c>
       <c r="F57" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G57" t="s">
         <v>63</v>
@@ -4087,39 +4078,39 @@
         <v>2.1</v>
       </c>
       <c r="J57" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K57" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L57" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M57" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="N57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O57" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P57">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q57">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="R57" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C58" t="s">
         <v>63</v>
@@ -4127,44 +4118,44 @@
       <c r="D58" t="s">
         <v>63</v>
       </c>
-      <c r="E58" t="s">
-        <v>63</v>
+      <c r="E58" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="F58" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G58" t="s">
         <v>63</v>
       </c>
       <c r="H58">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I58">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J58">
         <v>2.1</v>
       </c>
-      <c r="I58">
-        <v>2.1</v>
-      </c>
-      <c r="J58" t="s">
-        <v>176</v>
-      </c>
       <c r="K58" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L58" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M58" t="s">
+        <v>146</v>
+      </c>
+      <c r="N58" t="s">
         <v>148</v>
       </c>
-      <c r="N58" t="s">
-        <v>150</v>
-      </c>
       <c r="O58" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P58">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q58">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="R58" t="s">
         <v>153</v>
@@ -4172,10 +4163,10 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B59" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C59" t="s">
         <v>63</v>
@@ -4183,11 +4174,11 @@
       <c r="D59" t="s">
         <v>63</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>164</v>
+      <c r="E59" t="s">
+        <v>63</v>
       </c>
       <c r="F59" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G59" t="s">
         <v>63</v>
@@ -4199,39 +4190,39 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J59">
-        <v>2.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L59" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M59" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N59" t="s">
+        <v>147</v>
+      </c>
+      <c r="O59" t="s">
         <v>150</v>
       </c>
-      <c r="O59" t="s">
-        <v>154</v>
-      </c>
       <c r="P59">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="Q59">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="R59" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C60" t="s">
         <v>63</v>
@@ -4243,7 +4234,7 @@
         <v>63</v>
       </c>
       <c r="F60" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G60" t="s">
         <v>63</v>
@@ -4254,40 +4245,40 @@
       <c r="I60">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J60">
-        <v>1.1000000000000001</v>
+      <c r="J60" t="s">
+        <v>172</v>
       </c>
       <c r="K60" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L60" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M60" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N60" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O60" t="s">
         <v>152</v>
       </c>
       <c r="P60">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Q60">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="R60" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B61" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C61" t="s">
         <v>63</v>
@@ -4299,51 +4290,51 @@
         <v>63</v>
       </c>
       <c r="F61" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G61" t="s">
         <v>63</v>
       </c>
       <c r="H61">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="I61">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J61" t="s">
-        <v>176</v>
+        <v>1.4</v>
+      </c>
+      <c r="J61">
+        <v>3.1</v>
       </c>
       <c r="K61" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L61" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M61" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="N61" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O61" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="P61">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="Q61">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="R61" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B62" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C62" t="s">
         <v>63</v>
@@ -4355,51 +4346,51 @@
         <v>63</v>
       </c>
       <c r="F62" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G62" t="s">
         <v>63</v>
       </c>
       <c r="H62">
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I62">
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J62">
-        <v>3.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K62" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L62" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M62" t="s">
+        <v>146</v>
+      </c>
+      <c r="N62" t="s">
         <v>148</v>
       </c>
-      <c r="N62" t="s">
+      <c r="O62" t="s">
         <v>150</v>
       </c>
-      <c r="O62" t="s">
-        <v>152</v>
-      </c>
       <c r="P62">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="Q62">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="R62" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B63" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C63" t="s">
         <v>63</v>
@@ -4411,51 +4402,51 @@
         <v>63</v>
       </c>
       <c r="F63" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G63" t="s">
         <v>63</v>
       </c>
       <c r="H63">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="I63">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J63">
-        <v>1.1000000000000001</v>
+        <v>3.1</v>
+      </c>
+      <c r="J63" t="s">
+        <v>172</v>
       </c>
       <c r="K63" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L63" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M63" t="s">
+        <v>149</v>
+      </c>
+      <c r="N63" t="s">
         <v>148</v>
       </c>
-      <c r="N63" t="s">
+      <c r="O63" t="s">
         <v>150</v>
       </c>
-      <c r="O63" t="s">
-        <v>152</v>
-      </c>
       <c r="P63">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="Q63">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="R63" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B64" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="C64" t="s">
         <v>63</v>
@@ -4467,51 +4458,51 @@
         <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G64" t="s">
         <v>63</v>
       </c>
       <c r="H64">
-        <v>1.4</v>
-      </c>
-      <c r="I64">
-        <v>3.1</v>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I64" t="s">
+        <v>172</v>
       </c>
       <c r="J64" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K64" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L64" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M64" t="s">
+        <v>160</v>
+      </c>
+      <c r="N64" t="s">
+        <v>148</v>
+      </c>
+      <c r="O64" t="s">
+        <v>150</v>
+      </c>
+      <c r="P64">
+        <v>9</v>
+      </c>
+      <c r="Q64">
+        <v>38</v>
+      </c>
+      <c r="R64" t="s">
         <v>151</v>
-      </c>
-      <c r="N64" t="s">
-        <v>150</v>
-      </c>
-      <c r="O64" t="s">
-        <v>152</v>
-      </c>
-      <c r="P64">
-        <v>16</v>
-      </c>
-      <c r="Q64">
-        <v>31</v>
-      </c>
-      <c r="R64" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B65" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C65" t="s">
         <v>63</v>
@@ -4523,51 +4514,51 @@
         <v>63</v>
       </c>
       <c r="F65" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G65" t="s">
         <v>63</v>
       </c>
       <c r="H65">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I65" t="s">
-        <v>176</v>
-      </c>
-      <c r="J65" t="s">
-        <v>176</v>
+        <v>1.2</v>
+      </c>
+      <c r="I65">
+        <v>1.2</v>
+      </c>
+      <c r="J65">
+        <v>2.1</v>
       </c>
       <c r="K65" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L65" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M65" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N65" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="O65" t="s">
         <v>152</v>
       </c>
       <c r="P65">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="Q65">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="R65" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B66" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C66" t="s">
         <v>63</v>
@@ -4579,40 +4570,40 @@
         <v>63</v>
       </c>
       <c r="F66" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G66" t="s">
-        <v>63</v>
+        <v>162</v>
       </c>
       <c r="H66">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="I66">
-        <v>1.2</v>
-      </c>
-      <c r="J66">
-        <v>2.1</v>
+        <v>3.1</v>
+      </c>
+      <c r="J66" t="s">
+        <v>172</v>
       </c>
       <c r="K66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L66" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M66" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="N66" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O66" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="P66">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="Q66">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R66" t="s">
         <v>153</v>
@@ -4620,13 +4611,13 @@
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B67" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C67" t="s">
-        <v>63</v>
+        <v>163</v>
       </c>
       <c r="D67" t="s">
         <v>63</v>
@@ -4635,181 +4626,84 @@
         <v>63</v>
       </c>
       <c r="F67" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G67" t="s">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="H67">
-        <v>3.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I67">
         <v>3.1</v>
       </c>
       <c r="J67" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K67" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L67" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M67" t="s">
+        <v>160</v>
+      </c>
+      <c r="N67" t="s">
         <v>148</v>
-      </c>
-      <c r="N67" t="s">
-        <v>150</v>
       </c>
       <c r="O67" t="s">
         <v>152</v>
       </c>
       <c r="P67">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q67">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R67" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="B68" t="s">
-        <v>98</v>
-      </c>
-      <c r="C68" t="s">
-        <v>165</v>
-      </c>
-      <c r="D68" t="s">
-        <v>63</v>
-      </c>
-      <c r="E68" t="s">
-        <v>63</v>
-      </c>
-      <c r="F68" t="s">
-        <v>164</v>
-      </c>
-      <c r="G68" t="s">
-        <v>63</v>
+        <v>168</v>
       </c>
       <c r="H68">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I68">
-        <v>3.1</v>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I68" t="s">
+        <v>172</v>
       </c>
       <c r="J68" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K68" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L68" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M68" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N68" t="s">
+        <v>148</v>
+      </c>
+      <c r="O68" t="s">
         <v>150</v>
       </c>
-      <c r="O68" t="s">
-        <v>154</v>
-      </c>
       <c r="P68">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="Q68">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="R68" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>169</v>
-      </c>
-      <c r="B69" t="s">
-        <v>171</v>
-      </c>
-      <c r="H69">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I69" t="s">
-        <v>176</v>
-      </c>
-      <c r="J69" t="s">
-        <v>176</v>
-      </c>
-      <c r="K69" t="s">
-        <v>144</v>
-      </c>
-      <c r="L69" t="s">
-        <v>141</v>
-      </c>
-      <c r="M69" t="s">
-        <v>162</v>
-      </c>
-      <c r="N69" t="s">
-        <v>150</v>
-      </c>
-      <c r="O69" t="s">
-        <v>152</v>
-      </c>
-      <c r="P69">
-        <v>16</v>
-      </c>
-      <c r="Q69">
-        <v>32</v>
-      </c>
-      <c r="R69" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>170</v>
-      </c>
-      <c r="B70" t="s">
-        <v>172</v>
-      </c>
-      <c r="H70">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I70">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J70" t="s">
-        <v>176</v>
-      </c>
-      <c r="K70" t="s">
-        <v>143</v>
-      </c>
-      <c r="L70" t="s">
-        <v>141</v>
-      </c>
-      <c r="M70" t="s">
-        <v>163</v>
-      </c>
-      <c r="N70" t="s">
-        <v>149</v>
-      </c>
-      <c r="O70" t="s">
-        <v>152</v>
-      </c>
-      <c r="P70">
-        <v>7</v>
-      </c>
-      <c r="Q70">
-        <v>48</v>
-      </c>
-      <c r="R70" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/data/atlas_project_metadata.xlsx
+++ b/data/atlas_project_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbernabei/Documents/PhD_Research/atlas_project/iEEG_atlas/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6BFDB6-0350-8246-AF7D-AFDD51874BE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D254B0A2-783E-0C4A-8F8C-BD8ACF239434}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5300" yWindow="1400" windowWidth="25260" windowHeight="17720" xr2:uid="{55386E59-C2B1-FE47-8A03-2662CFD6A014}"/>
   </bookViews>
@@ -905,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEE15CE-15A7-E440-8B77-868E4F33ECBC}">
   <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="93" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:N58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
